--- a/data/raw/Caspase_substrate_table.xlsx
+++ b/data/raw/Caspase_substrate_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Work/Documents/Inflammasome/Caspase/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Work/Documents/Inflammasome/CaspPhos/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F4FDA4-F4E8-0240-A5B6-3AAB5FEF0FD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2078B56-813D-5F42-8491-F8EA514DDF6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{6A60632C-52C9-C849-87EB-CE09D9765343}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13980" xr2:uid="{6A60632C-52C9-C849-87EB-CE09D9765343}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5032" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5701" uniqueCount="743">
   <si>
     <t>Species</t>
   </si>
@@ -2100,12 +2100,213 @@
   <si>
     <t>Caspase-1 substrates not added yet</t>
   </si>
+  <si>
+    <t>P30153</t>
+  </si>
+  <si>
+    <t>P63151</t>
+  </si>
+  <si>
+    <t>P00505</t>
+  </si>
+  <si>
+    <t>O94911</t>
+  </si>
+  <si>
+    <t>Q8N2K0</t>
+  </si>
+  <si>
+    <t>Q12979</t>
+  </si>
+  <si>
+    <t>P13798</t>
+  </si>
+  <si>
+    <t>O95573</t>
+  </si>
+  <si>
+    <t>Q16186</t>
+  </si>
+  <si>
+    <t>Q9UHB7</t>
+  </si>
+  <si>
+    <t>Q9P2G1</t>
+  </si>
+  <si>
+    <t>Q7Z5J8</t>
+  </si>
+  <si>
+    <t>P63010</t>
+  </si>
+  <si>
+    <t>Q9Y6B7</t>
+  </si>
+  <si>
+    <t>Q9BZZ5</t>
+  </si>
+  <si>
+    <t>Q9BQE5</t>
+  </si>
+  <si>
+    <t>Q6NXE6</t>
+  </si>
+  <si>
+    <t>Q9UBL3</t>
+  </si>
+  <si>
+    <t>Q92484</t>
+  </si>
+  <si>
+    <t>Q9UBB4</t>
+  </si>
+  <si>
+    <t>P55210</t>
+  </si>
+  <si>
+    <t>P60953</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>PPP2R1A</t>
+  </si>
+  <si>
+    <t>PPP2R2A</t>
+  </si>
+  <si>
+    <t>GOT2</t>
+  </si>
+  <si>
+    <t>ABCA8</t>
+  </si>
+  <si>
+    <t>ABHD12</t>
+  </si>
+  <si>
+    <t>ABR</t>
+  </si>
+  <si>
+    <t>APEH</t>
+  </si>
+  <si>
+    <t>ACSL3</t>
+  </si>
+  <si>
+    <t>ACSL4</t>
+  </si>
+  <si>
+    <t>ADMR1</t>
+  </si>
+  <si>
+    <t>AFF4</t>
+  </si>
+  <si>
+    <t>ANKIB1</t>
+  </si>
+  <si>
+    <t>ANKAR</t>
+  </si>
+  <si>
+    <t>AP2B1</t>
+  </si>
+  <si>
+    <t>AP4B1</t>
+  </si>
+  <si>
+    <t>API5</t>
+  </si>
+  <si>
+    <t>APOL2</t>
+  </si>
+  <si>
+    <t>ARMC6</t>
+  </si>
+  <si>
+    <t>Ash2L</t>
+  </si>
+  <si>
+    <t>SMPDL3A</t>
+  </si>
+  <si>
+    <t>ATXN10</t>
+  </si>
+  <si>
+    <t>Casp7</t>
+  </si>
+  <si>
+    <t>cdc42</t>
+  </si>
+  <si>
+    <t>D (60)</t>
+  </si>
+  <si>
+    <t>D (188)</t>
+  </si>
+  <si>
+    <t>D (223)</t>
+  </si>
+  <si>
+    <t>D (366)</t>
+  </si>
+  <si>
+    <t>D (326)</t>
+  </si>
+  <si>
+    <t>D (717)</t>
+  </si>
+  <si>
+    <t>D (696)</t>
+  </si>
+  <si>
+    <t>D (53)</t>
+  </si>
+  <si>
+    <t>D (1143)</t>
+  </si>
+  <si>
+    <t>D (686)</t>
+  </si>
+  <si>
+    <t>D (476)</t>
+  </si>
+  <si>
+    <t>D (61)</t>
+  </si>
+  <si>
+    <t>D (109)</t>
+  </si>
+  <si>
+    <t>D (31)</t>
+  </si>
+  <si>
+    <t>D (596)</t>
+  </si>
+  <si>
+    <t>D (304)</t>
+  </si>
+  <si>
+    <t>D (222)</t>
+  </si>
+  <si>
+    <t>Davies, PNAS2021</t>
+  </si>
+  <si>
+    <t>Davies</t>
+  </si>
+  <si>
+    <t>https://www.pnas.org/content/suppl/2021/03/14/2018024118.DCSupplemental</t>
+  </si>
+  <si>
+    <t>Degenerate antibody</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2153,13 +2354,25 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -2307,7 +2520,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2369,6 +2582,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2684,10 +2904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FF638D-8C12-DA43-AD6C-BF0A68C0CA89}">
-  <dimension ref="A1:AK167"/>
+  <dimension ref="A1:AK183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="C167" sqref="C167"/>
+    <sheetView tabSelected="1" topLeftCell="C157" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="M185" sqref="M185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2824,7 +3044,7 @@
         <v>117</v>
       </c>
       <c r="E2" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D2,D2)</f>
+        <f t="shared" ref="E2:E33" si="0">HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D2,D2)</f>
         <v>P62081</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -2876,11 +3096,11 @@
         <v>119</v>
       </c>
       <c r="V2" s="1" t="str">
-        <f>LEFT(U2,1)</f>
+        <f t="shared" ref="V2:V33" si="1">LEFT(U2,1)</f>
         <v>D</v>
       </c>
       <c r="W2" s="1" t="str">
-        <f>MID(U2,FIND("(",U2)+1,FIND(")",U2)-FIND("(",U2)-1)</f>
+        <f t="shared" ref="W2:W33" si="2">MID(U2,FIND("(",U2)+1,FIND(")",U2)-FIND("(",U2)-1)</f>
         <v>132</v>
       </c>
       <c r="X2" s="1" t="s">
@@ -2914,7 +3134,7 @@
         <v>41</v>
       </c>
       <c r="AH2" s="1" t="str">
-        <f>L2&amp;M2&amp;N2&amp;O2&amp;P2&amp;Q2&amp;R2&amp;S2&amp;T2&amp;V2&amp;X2&amp;Y2&amp;Z2&amp;AA2&amp;AB2&amp;AC2&amp;AD2&amp;AE2&amp;AF2&amp;AG2</f>
+        <f t="shared" ref="AH2:AH33" si="3">L2&amp;M2&amp;N2&amp;O2&amp;P2&amp;Q2&amp;R2&amp;S2&amp;T2&amp;V2&amp;X2&amp;Y2&amp;Z2&amp;AA2&amp;AB2&amp;AC2&amp;AD2&amp;AE2&amp;AF2&amp;AG2</f>
         <v>TAVHDAILEDLVFPSEIVGK</v>
       </c>
       <c r="AI2" s="1" t="s">
@@ -2933,7 +3153,7 @@
         <v>141</v>
       </c>
       <c r="E3" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D3,D3)</f>
+        <f t="shared" si="0"/>
         <v>P10809</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -2985,11 +3205,11 @@
         <v>75</v>
       </c>
       <c r="V3" s="1" t="str">
-        <f>LEFT(U3,1)</f>
+        <f t="shared" si="1"/>
         <v>D</v>
       </c>
       <c r="W3" s="1" t="str">
-        <f>MID(U3,FIND("(",U3)+1,FIND(")",U3)-FIND("(",U3)-1)</f>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="X3" s="1" t="s">
@@ -3023,7 +3243,7 @@
         <v>39</v>
       </c>
       <c r="AH3" s="1" t="str">
-        <f>L3&amp;M3&amp;N3&amp;O3&amp;P3&amp;Q3&amp;R3&amp;S3&amp;T3&amp;V3&amp;X3&amp;Y3&amp;Z3&amp;AA3&amp;AB3&amp;AC3&amp;AD3&amp;AE3&amp;AF3&amp;AG3</f>
+        <f t="shared" si="3"/>
         <v>MLQGVDLLADAVAVTMGPKG</v>
       </c>
       <c r="AI3" s="1" t="s">
@@ -3042,7 +3262,7 @@
         <v>372</v>
       </c>
       <c r="E4" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D4,D4)</f>
+        <f t="shared" si="0"/>
         <v>P63038</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -3094,11 +3314,11 @@
         <v>75</v>
       </c>
       <c r="V4" s="1" t="str">
-        <f>LEFT(U4,1)</f>
+        <f t="shared" si="1"/>
         <v>D</v>
       </c>
       <c r="W4" s="1" t="str">
-        <f>MID(U4,FIND("(",U4)+1,FIND(")",U4)-FIND("(",U4)-1)</f>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="X4" s="1" t="s">
@@ -3132,7 +3352,7 @@
         <v>39</v>
       </c>
       <c r="AH4" s="1" t="str">
-        <f>L4&amp;M4&amp;N4&amp;O4&amp;P4&amp;Q4&amp;R4&amp;S4&amp;T4&amp;V4&amp;X4&amp;Y4&amp;Z4&amp;AA4&amp;AB4&amp;AC4&amp;AD4&amp;AE4&amp;AF4&amp;AG4</f>
+        <f t="shared" si="3"/>
         <v>MLQGVDLLADAVAVTMGPKG</v>
       </c>
       <c r="AI4" s="1" t="s">
@@ -3151,7 +3371,7 @@
         <v>372</v>
       </c>
       <c r="E5" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D5,D5)</f>
+        <f t="shared" si="0"/>
         <v>P63038</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -3203,11 +3423,11 @@
         <v>381</v>
       </c>
       <c r="V5" s="1" t="str">
-        <f>LEFT(U5,1)</f>
+        <f t="shared" si="1"/>
         <v>D</v>
       </c>
       <c r="W5" s="1" t="str">
-        <f>MID(U5,FIND("(",U5)+1,FIND(")",U5)-FIND("(",U5)-1)</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="X5" s="1" t="s">
@@ -3241,7 +3461,7 @@
         <v>39</v>
       </c>
       <c r="AH5" s="1" t="str">
-        <f>L5&amp;M5&amp;N5&amp;O5&amp;P5&amp;Q5&amp;R5&amp;S5&amp;T5&amp;V5&amp;X5&amp;Y5&amp;Z5&amp;AA5&amp;AB5&amp;AC5&amp;AD5&amp;AE5&amp;AF5&amp;AG5</f>
+        <f t="shared" si="3"/>
         <v>KNIGAKLVQDVANNTNEEAG</v>
       </c>
       <c r="AI5" s="1" t="s">
@@ -3260,7 +3480,7 @@
         <v>126</v>
       </c>
       <c r="E6" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D6,D6)</f>
+        <f t="shared" si="0"/>
         <v>P18621</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -3312,11 +3532,11 @@
         <v>127</v>
       </c>
       <c r="V6" s="1" t="str">
-        <f>LEFT(U6,1)</f>
+        <f t="shared" si="1"/>
         <v>D</v>
       </c>
       <c r="W6" s="1" t="str">
-        <f>MID(U6,FIND("(",U6)+1,FIND(")",U6)-FIND("(",U6)-1)</f>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="X6" s="1" t="s">
@@ -3350,7 +3570,7 @@
         <v>38</v>
       </c>
       <c r="AH6" s="1" t="str">
-        <f>L6&amp;M6&amp;N6&amp;O6&amp;P6&amp;Q6&amp;R6&amp;S6&amp;T6&amp;V6&amp;X6&amp;Y6&amp;Z6&amp;AA6&amp;AB6&amp;AC6&amp;AD6&amp;AE6&amp;AF6&amp;AG6</f>
+        <f t="shared" si="3"/>
         <v>NAELKGLDVDSLVIEHIQVN</v>
       </c>
       <c r="AI6" s="1" t="s">
@@ -3369,7 +3589,7 @@
         <v>176</v>
       </c>
       <c r="E7" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D7,D7)</f>
+        <f t="shared" si="0"/>
         <v>P61353</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -3421,11 +3641,11 @@
         <v>177</v>
       </c>
       <c r="V7" s="1" t="str">
-        <f>LEFT(U7,1)</f>
+        <f t="shared" si="1"/>
         <v>D</v>
       </c>
       <c r="W7" s="1" t="str">
-        <f>MID(U7,FIND("(",U7)+1,FIND(")",U7)-FIND("(",U7)-1)</f>
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
       <c r="X7" s="1" t="s">
@@ -3459,7 +3679,7 @@
         <v>41</v>
       </c>
       <c r="AH7" s="1" t="str">
-        <f>L7&amp;M7&amp;N7&amp;O7&amp;P7&amp;Q7&amp;R7&amp;S7&amp;T7&amp;V7&amp;X7&amp;Y7&amp;Z7&amp;AA7&amp;AB7&amp;AC7&amp;AD7&amp;AE7&amp;AF7&amp;AG7</f>
+        <f t="shared" si="3"/>
         <v>PLDKTVVNKDVFRDPALKRK</v>
       </c>
       <c r="AI7" s="1" t="s">
@@ -3478,7 +3698,7 @@
         <v>123</v>
       </c>
       <c r="E8" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D8,D8)</f>
+        <f t="shared" si="0"/>
         <v>P36578</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -3530,11 +3750,11 @@
         <v>124</v>
       </c>
       <c r="V8" s="1" t="str">
-        <f>LEFT(U8,1)</f>
+        <f t="shared" si="1"/>
         <v>D</v>
       </c>
       <c r="W8" s="1" t="str">
-        <f>MID(U8,FIND("(",U8)+1,FIND(")",U8)-FIND("(",U8)-1)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="X8" s="1" t="s">
@@ -3568,7 +3788,7 @@
         <v>49</v>
       </c>
       <c r="AH8" s="1" t="str">
-        <f>L8&amp;M8&amp;N8&amp;O8&amp;P8&amp;Q8&amp;R8&amp;S8&amp;T8&amp;V8&amp;X8&amp;Y8&amp;Z8&amp;AA8&amp;AB8&amp;AC8&amp;AD8&amp;AE8&amp;AF8&amp;AG8</f>
+        <f t="shared" si="3"/>
         <v>AVFKAPIRPDIVNFVHTNLR</v>
       </c>
       <c r="AI8" s="1" t="s">
@@ -3587,7 +3807,7 @@
         <v>272</v>
       </c>
       <c r="E9" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D9,D9)</f>
+        <f t="shared" si="0"/>
         <v>O15511</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -3639,11 +3859,11 @@
         <v>273</v>
       </c>
       <c r="V9" s="1" t="str">
-        <f>LEFT(U9,1)</f>
+        <f t="shared" si="1"/>
         <v>D</v>
       </c>
       <c r="W9" s="1" t="str">
-        <f>MID(U9,FIND("(",U9)+1,FIND(")",U9)-FIND("(",U9)-1)</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="X9" s="1" t="s">
@@ -3677,7 +3897,7 @@
         <v>32</v>
       </c>
       <c r="AH9" s="1" t="str">
-        <f>L9&amp;M9&amp;N9&amp;O9&amp;P9&amp;Q9&amp;R9&amp;S9&amp;T9&amp;V9&amp;X9&amp;Y9&amp;Z9&amp;AA9&amp;AB9&amp;AC9&amp;AD9&amp;AE9&amp;AF9&amp;AG9</f>
+        <f t="shared" si="3"/>
         <v>DENKVFDEEDGGDGQAGPDE</v>
       </c>
       <c r="AI9" s="1" t="s">
@@ -3695,7 +3915,7 @@
         <v>157</v>
       </c>
       <c r="E10" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D10,D10)</f>
+        <f t="shared" si="0"/>
         <v>P60709</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -3747,11 +3967,11 @@
         <v>159</v>
       </c>
       <c r="V10" s="1" t="str">
-        <f>LEFT(U10,1)</f>
+        <f t="shared" si="1"/>
         <v>D</v>
       </c>
       <c r="W10" s="1" t="str">
-        <f>MID(U10,FIND("(",U10)+1,FIND(")",U10)-FIND("(",U10)-1)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="X10" s="1" t="s">
@@ -3785,7 +4005,7 @@
         <v>31</v>
       </c>
       <c r="AH10" s="1" t="str">
-        <f>L10&amp;M10&amp;N10&amp;O10&amp;P10&amp;Q10&amp;R10&amp;S10&amp;T10&amp;V10&amp;X10&amp;Y10&amp;Z10&amp;AA10&amp;AB10&amp;AC10&amp;AD10&amp;AE10&amp;AF10&amp;AG10</f>
+        <f t="shared" si="3"/>
         <v>DDDIAALVVDNGSGMCKAGF</v>
       </c>
       <c r="AI10" s="1" t="s">
@@ -3806,7 +4026,7 @@
         <v>157</v>
       </c>
       <c r="E11" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D11,D11)</f>
+        <f t="shared" si="0"/>
         <v>P60709</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -3858,11 +4078,11 @@
         <v>293</v>
       </c>
       <c r="V11" s="1" t="str">
-        <f>LEFT(U11,1)</f>
+        <f t="shared" si="1"/>
         <v>D</v>
       </c>
       <c r="W11" s="1" t="str">
-        <f>MID(U11,FIND("(",U11)+1,FIND(")",U11)-FIND("(",U11)-1)</f>
+        <f t="shared" si="2"/>
         <v>157</v>
       </c>
       <c r="X11" s="1" t="s">
@@ -3896,7 +4116,7 @@
         <v>32</v>
       </c>
       <c r="AH11" s="1" t="str">
-        <f>L11&amp;M11&amp;N11&amp;O11&amp;P11&amp;Q11&amp;R11&amp;S11&amp;T11&amp;V11&amp;X11&amp;Y11&amp;Z11&amp;AA11&amp;AB11&amp;AC11&amp;AD11&amp;AE11&amp;AF11&amp;AG11</f>
+        <f t="shared" si="3"/>
         <v>TTGIVMDSGDGVTHTVPIYE</v>
       </c>
       <c r="AI11" s="1" t="s">
@@ -3915,7 +4135,7 @@
         <v>157</v>
       </c>
       <c r="E12" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D12,D12)</f>
+        <f t="shared" si="0"/>
         <v>P60709</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -3967,11 +4187,11 @@
         <v>333</v>
       </c>
       <c r="V12" s="1" t="str">
-        <f>LEFT(U12,1)</f>
+        <f t="shared" si="1"/>
         <v>D</v>
       </c>
       <c r="W12" s="1" t="str">
-        <f>MID(U12,FIND("(",U12)+1,FIND(")",U12)-FIND("(",U12)-1)</f>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="X12" s="1" t="s">
@@ -4005,7 +4225,7 @@
         <v>41</v>
       </c>
       <c r="AH12" s="1" t="str">
-        <f>L12&amp;M12&amp;N12&amp;O12&amp;P12&amp;Q12&amp;R12&amp;S12&amp;T12&amp;V12&amp;X12&amp;Y12&amp;Z12&amp;AA12&amp;AB12&amp;AC12&amp;AD12&amp;AE12&amp;AF12&amp;AG12</f>
+        <f t="shared" si="3"/>
         <v>GVMVGMGQKDSYVGDEAQSK</v>
       </c>
       <c r="AI12" s="1" t="s">
@@ -4024,7 +4244,7 @@
         <v>370</v>
       </c>
       <c r="E13" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D13,D13)</f>
+        <f t="shared" si="0"/>
         <v>P60710</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -4076,11 +4296,11 @@
         <v>159</v>
       </c>
       <c r="V13" s="1" t="str">
-        <f>LEFT(U13,1)</f>
+        <f t="shared" si="1"/>
         <v>D</v>
       </c>
       <c r="W13" s="1" t="str">
-        <f>MID(U13,FIND("(",U13)+1,FIND(")",U13)-FIND("(",U13)-1)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="X13" s="1" t="s">
@@ -4114,7 +4334,7 @@
         <v>31</v>
       </c>
       <c r="AH13" s="1" t="str">
-        <f>L13&amp;M13&amp;N13&amp;O13&amp;P13&amp;Q13&amp;R13&amp;S13&amp;T13&amp;V13&amp;X13&amp;Y13&amp;Z13&amp;AA13&amp;AB13&amp;AC13&amp;AD13&amp;AE13&amp;AF13&amp;AG13</f>
+        <f t="shared" si="3"/>
         <v>DDDIAALVVDNGSGMCKAGF</v>
       </c>
       <c r="AI13" s="1" t="s">
@@ -4135,7 +4355,7 @@
         <v>370</v>
       </c>
       <c r="E14" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D14,D14)</f>
+        <f t="shared" si="0"/>
         <v>P60710</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -4187,11 +4407,11 @@
         <v>410</v>
       </c>
       <c r="V14" s="1" t="str">
-        <f>LEFT(U14,1)</f>
+        <f t="shared" si="1"/>
         <v>D</v>
       </c>
       <c r="W14" s="1" t="str">
-        <f>MID(U14,FIND("(",U14)+1,FIND(")",U14)-FIND("(",U14)-1)</f>
+        <f t="shared" si="2"/>
         <v>244</v>
       </c>
       <c r="X14" s="1" t="s">
@@ -4225,7 +4445,7 @@
         <v>49</v>
       </c>
       <c r="AH14" s="1" t="str">
-        <f>L14&amp;M14&amp;N14&amp;O14&amp;P14&amp;Q14&amp;R14&amp;S14&amp;T14&amp;V14&amp;X14&amp;Y14&amp;Z14&amp;AA14&amp;AB14&amp;AC14&amp;AD14&amp;AE14&amp;AF14&amp;AG14</f>
+        <f t="shared" si="3"/>
         <v>SLEKSYELPDGQVITIGNER</v>
       </c>
       <c r="AI14" s="1" t="s">
@@ -4244,7 +4464,7 @@
         <v>371</v>
       </c>
       <c r="E15" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D15,D15)</f>
+        <f t="shared" si="0"/>
         <v>P63260</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -4296,11 +4516,11 @@
         <v>159</v>
       </c>
       <c r="V15" s="1" t="str">
-        <f>LEFT(U15,1)</f>
+        <f t="shared" si="1"/>
         <v>D</v>
       </c>
       <c r="W15" s="1" t="str">
-        <f>MID(U15,FIND("(",U15)+1,FIND(")",U15)-FIND("(",U15)-1)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="X15" s="1" t="s">
@@ -4334,7 +4554,7 @@
         <v>31</v>
       </c>
       <c r="AH15" s="1" t="str">
-        <f>L15&amp;M15&amp;N15&amp;O15&amp;P15&amp;Q15&amp;R15&amp;S15&amp;T15&amp;V15&amp;X15&amp;Y15&amp;Z15&amp;AA15&amp;AB15&amp;AC15&amp;AD15&amp;AE15&amp;AF15&amp;AG15</f>
+        <f t="shared" si="3"/>
         <v>EEEIAALVIDNGSGMCKAGF</v>
       </c>
       <c r="AI15" s="1" t="s">
@@ -4353,7 +4573,7 @@
         <v>371</v>
       </c>
       <c r="E16" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D16,D16)</f>
+        <f t="shared" si="0"/>
         <v>P63260</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -4405,11 +4625,11 @@
         <v>410</v>
       </c>
       <c r="V16" s="1" t="str">
-        <f>LEFT(U16,1)</f>
+        <f t="shared" si="1"/>
         <v>D</v>
       </c>
       <c r="W16" s="1" t="str">
-        <f>MID(U16,FIND("(",U16)+1,FIND(")",U16)-FIND("(",U16)-1)</f>
+        <f t="shared" si="2"/>
         <v>244</v>
       </c>
       <c r="X16" s="1" t="s">
@@ -4443,7 +4663,7 @@
         <v>49</v>
       </c>
       <c r="AH16" s="1" t="str">
-        <f>L16&amp;M16&amp;N16&amp;O16&amp;P16&amp;Q16&amp;R16&amp;S16&amp;T16&amp;V16&amp;X16&amp;Y16&amp;Z16&amp;AA16&amp;AB16&amp;AC16&amp;AD16&amp;AE16&amp;AF16&amp;AG16</f>
+        <f t="shared" si="3"/>
         <v>SLEKSYELPDGQVITIGNER</v>
       </c>
       <c r="AI16" s="1" t="s">
@@ -4462,7 +4682,7 @@
         <v>393</v>
       </c>
       <c r="E17" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D17,D17)</f>
+        <f t="shared" si="0"/>
         <v>Q91WR3</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -4514,11 +4734,11 @@
         <v>404</v>
       </c>
       <c r="V17" s="1" t="str">
-        <f>LEFT(U17,1)</f>
+        <f t="shared" si="1"/>
         <v>D</v>
       </c>
       <c r="W17" s="1" t="str">
-        <f>MID(U17,FIND("(",U17)+1,FIND(")",U17)-FIND("(",U17)-1)</f>
+        <f t="shared" si="2"/>
         <v>614</v>
       </c>
       <c r="X17" s="1" t="s">
@@ -4552,7 +4772,7 @@
         <v>35</v>
       </c>
       <c r="AH17" s="1" t="str">
-        <f>L17&amp;M17&amp;N17&amp;O17&amp;P17&amp;Q17&amp;R17&amp;S17&amp;T17&amp;V17&amp;X17&amp;Y17&amp;Z17&amp;AA17&amp;AB17&amp;AC17&amp;AD17&amp;AE17&amp;AF17&amp;AG17</f>
+        <f t="shared" si="3"/>
         <v>YEDEYDDTYDGNQVGANDAD</v>
       </c>
       <c r="AI17" s="1" t="s">
@@ -4571,7 +4791,7 @@
         <v>188</v>
       </c>
       <c r="E18" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D18,D18)</f>
+        <f t="shared" si="0"/>
         <v>Q8N6H7</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -4623,11 +4843,11 @@
         <v>189</v>
       </c>
       <c r="V18" s="1" t="str">
-        <f>LEFT(U18,1)</f>
+        <f t="shared" si="1"/>
         <v>D</v>
       </c>
       <c r="W18" s="1" t="str">
-        <f>MID(U18,FIND("(",U18)+1,FIND(")",U18)-FIND("(",U18)-1)</f>
+        <f t="shared" si="2"/>
         <v>376</v>
       </c>
       <c r="X18" s="1" t="s">
@@ -4661,7 +4881,7 @@
         <v>32</v>
       </c>
       <c r="AH18" s="1" t="str">
-        <f>L18&amp;M18&amp;N18&amp;O18&amp;P18&amp;Q18&amp;R18&amp;S18&amp;T18&amp;V18&amp;X18&amp;Y18&amp;Z18&amp;AA18&amp;AB18&amp;AC18&amp;AD18&amp;AE18&amp;AF18&amp;AG18</f>
+        <f t="shared" si="3"/>
         <v>ESFGSRWDTDAAWGMDRVEE</v>
       </c>
       <c r="AI18" s="1" t="s">
@@ -4680,7 +4900,7 @@
         <v>188</v>
       </c>
       <c r="E19" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D19,D19)</f>
+        <f t="shared" si="0"/>
         <v>Q8N6H7</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -4732,11 +4952,11 @@
         <v>196</v>
       </c>
       <c r="V19" s="1" t="str">
-        <f>LEFT(U19,1)</f>
+        <f t="shared" si="1"/>
         <v>D</v>
       </c>
       <c r="W19" s="1" t="str">
-        <f>MID(U19,FIND("(",U19)+1,FIND(")",U19)-FIND("(",U19)-1)</f>
+        <f t="shared" si="2"/>
         <v>382</v>
       </c>
       <c r="X19" s="1" t="s">
@@ -4770,7 +4990,7 @@
         <v>50</v>
       </c>
       <c r="AH19" s="1" t="str">
-        <f>L19&amp;M19&amp;N19&amp;O19&amp;P19&amp;Q19&amp;R19&amp;S19&amp;T19&amp;V19&amp;X19&amp;Y19&amp;Z19&amp;AA19&amp;AB19&amp;AC19&amp;AD19&amp;AE19&amp;AF19&amp;AG19</f>
+        <f t="shared" si="3"/>
         <v>WDTDAAWGMDRVEEKEPEVT</v>
       </c>
       <c r="AI19" s="1" t="s">
@@ -4791,7 +5011,7 @@
         <v>412</v>
       </c>
       <c r="E20" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D20,D20)</f>
+        <f t="shared" si="0"/>
         <v>Q9JKX6</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -4843,11 +5063,11 @@
         <v>417</v>
       </c>
       <c r="V20" s="1" t="str">
-        <f>LEFT(U20,1)</f>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="W20" s="1" t="str">
-        <f>MID(U20,FIND("(",U20)+1,FIND(")",U20)-FIND("(",U20)-1)</f>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="X20" s="1" t="s">
@@ -4881,7 +5101,7 @@
         <v>32</v>
       </c>
       <c r="AH20" s="1" t="str">
-        <f>L20&amp;M20&amp;N20&amp;O20&amp;P20&amp;Q20&amp;R20&amp;S20&amp;T20&amp;V20&amp;X20&amp;Y20&amp;Z20&amp;AA20&amp;AB20&amp;AC20&amp;AD20&amp;AE20&amp;AF20&amp;AG20</f>
+        <f t="shared" si="3"/>
         <v>RPPMGSYCLEFPAGFIEDGE</v>
       </c>
       <c r="AI20" s="1" t="s">
@@ -4900,7 +5120,7 @@
         <v>373</v>
       </c>
       <c r="E21" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D21,D21)</f>
+        <f t="shared" si="0"/>
         <v>Q8R5A3</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -4952,11 +5172,11 @@
         <v>382</v>
       </c>
       <c r="V21" s="1" t="str">
-        <f>LEFT(U21,1)</f>
+        <f t="shared" si="1"/>
         <v>D</v>
       </c>
       <c r="W21" s="1" t="str">
-        <f>MID(U21,FIND("(",U21)+1,FIND(")",U21)-FIND("(",U21)-1)</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="X21" s="1" t="s">
@@ -4990,7 +5210,7 @@
         <v>42</v>
       </c>
       <c r="AH21" s="1" t="str">
-        <f>L21&amp;M21&amp;N21&amp;O21&amp;P21&amp;Q21&amp;R21&amp;S21&amp;T21&amp;V21&amp;X21&amp;Y21&amp;Z21&amp;AA21&amp;AB21&amp;AC21&amp;AD21&amp;AE21&amp;AF21&amp;AG21</f>
+        <f t="shared" si="3"/>
         <v>DQDLDALMADLVADISEAEQ</v>
       </c>
       <c r="AI21" s="1" t="s">
@@ -5009,7 +5229,7 @@
         <v>154</v>
       </c>
       <c r="E22" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D22,D22)</f>
+        <f t="shared" si="0"/>
         <v>Q14161</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -5061,11 +5281,11 @@
         <v>156</v>
       </c>
       <c r="V22" s="1" t="str">
-        <f>LEFT(U22,1)</f>
+        <f t="shared" si="1"/>
         <v>D</v>
       </c>
       <c r="W22" s="1" t="str">
-        <f>MID(U22,FIND("(",U22)+1,FIND(")",U22)-FIND("(",U22)-1)</f>
+        <f t="shared" si="2"/>
         <v>625</v>
       </c>
       <c r="X22" s="1" t="s">
@@ -5099,7 +5319,7 @@
         <v>40</v>
       </c>
       <c r="AH22" s="1" t="str">
-        <f>L22&amp;M22&amp;N22&amp;O22&amp;P22&amp;Q22&amp;R22&amp;S22&amp;T22&amp;V22&amp;X22&amp;Y22&amp;Z22&amp;AA22&amp;AB22&amp;AC22&amp;AD22&amp;AE22&amp;AF22&amp;AG22</f>
+        <f t="shared" si="3"/>
         <v>VWPGDGLVPDTAEPHVAPSP</v>
       </c>
       <c r="AI22" s="1" t="s">
@@ -5120,7 +5340,7 @@
         <v>394</v>
       </c>
       <c r="E23" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D23,D23)</f>
+        <f t="shared" si="0"/>
         <v>Q9JLQ2</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -5172,11 +5392,11 @@
         <v>233</v>
       </c>
       <c r="V23" s="1" t="str">
-        <f>LEFT(U23,1)</f>
+        <f t="shared" si="1"/>
         <v>D</v>
       </c>
       <c r="W23" s="1" t="str">
-        <f>MID(U23,FIND("(",U23)+1,FIND(")",U23)-FIND("(",U23)-1)</f>
+        <f t="shared" si="2"/>
         <v>390</v>
       </c>
       <c r="X23" s="1" t="s">
@@ -5210,7 +5430,7 @@
         <v>50</v>
       </c>
       <c r="AH23" s="1" t="str">
-        <f>L23&amp;M23&amp;N23&amp;O23&amp;P23&amp;Q23&amp;R23&amp;S23&amp;T23&amp;V23&amp;X23&amp;Y23&amp;Z23&amp;AA23&amp;AB23&amp;AC23&amp;AD23&amp;AE23&amp;AF23&amp;AG23</f>
+        <f t="shared" si="3"/>
         <v>TESQDNDQPDYDSVASDEDT</v>
       </c>
       <c r="AI23" s="1" t="s">
@@ -5231,7 +5451,7 @@
         <v>353</v>
       </c>
       <c r="E24" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D24,D24)</f>
+        <f t="shared" si="0"/>
         <v>Q99700</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -5283,11 +5503,11 @@
         <v>354</v>
       </c>
       <c r="V24" s="1" t="str">
-        <f>LEFT(U24,1)</f>
+        <f t="shared" si="1"/>
         <v>D</v>
       </c>
       <c r="W24" s="1" t="str">
-        <f>MID(U24,FIND("(",U24)+1,FIND(")",U24)-FIND("(",U24)-1)</f>
+        <f t="shared" si="2"/>
         <v>416</v>
       </c>
       <c r="X24" s="1" t="s">
@@ -5321,7 +5541,7 @@
         <v>36</v>
       </c>
       <c r="AH24" s="1" t="str">
-        <f>L24&amp;M24&amp;N24&amp;O24&amp;P24&amp;Q24&amp;R24&amp;S24&amp;T24&amp;V24&amp;X24&amp;Y24&amp;Z24&amp;AA24&amp;AB24&amp;AC24&amp;AD24&amp;AE24&amp;AF24&amp;AG24</f>
+        <f t="shared" si="3"/>
         <v>ENYGVVSTYDSSL SSYTVPL</v>
       </c>
       <c r="AI24" s="1" t="s">
@@ -5342,7 +5562,7 @@
         <v>554</v>
       </c>
       <c r="E25" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D25,D25)</f>
+        <f t="shared" si="0"/>
         <v>P54252</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -5394,11 +5614,11 @@
         <v>655</v>
       </c>
       <c r="V25" s="1" t="str">
-        <f>LEFT(U25,1)</f>
+        <f t="shared" si="1"/>
         <v>D</v>
       </c>
       <c r="W25" s="1" t="str">
-        <f>MID(U25,FIND("(",U25)+1,FIND(")",U25)-FIND("(",U25)-1)</f>
+        <f t="shared" si="2"/>
         <v>241</v>
       </c>
       <c r="X25" s="1" t="s">
@@ -5432,7 +5652,7 @@
         <v>49</v>
       </c>
       <c r="AH25" s="1" t="str">
-        <f>L25&amp;M25&amp;N25&amp;O25&amp;P25&amp;Q25&amp;R25&amp;S25&amp;T25&amp;V25&amp;X25&amp;Y25&amp;Z25&amp;AA25&amp;AB25&amp;AC25&amp;AD25&amp;AE25&amp;AF25&amp;AG25</f>
+        <f t="shared" si="3"/>
         <v>ALALSRQEIDMEDEEADLRR</v>
       </c>
       <c r="AI25" s="1" t="s">
@@ -5450,7 +5670,7 @@
         <v>554</v>
       </c>
       <c r="E26" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D26,D26)</f>
+        <f t="shared" si="0"/>
         <v>P54252</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -5502,11 +5722,11 @@
         <v>410</v>
       </c>
       <c r="V26" s="1" t="str">
-        <f>LEFT(U26,1)</f>
+        <f t="shared" si="1"/>
         <v>D</v>
       </c>
       <c r="W26" s="1" t="str">
-        <f>MID(U26,FIND("(",U26)+1,FIND(")",U26)-FIND("(",U26)-1)</f>
+        <f t="shared" si="2"/>
         <v>244</v>
       </c>
       <c r="X26" s="1" t="s">
@@ -5540,7 +5760,7 @@
         <v>42</v>
       </c>
       <c r="AH26" s="1" t="str">
-        <f>L26&amp;M26&amp;N26&amp;O26&amp;P26&amp;Q26&amp;R26&amp;S26&amp;T26&amp;V26&amp;X26&amp;Y26&amp;Z26&amp;AA26&amp;AB26&amp;AC26&amp;AD26&amp;AE26&amp;AF26&amp;AG26</f>
+        <f t="shared" si="3"/>
         <v>LSRQEIDMEDEEADLRRAIQ</v>
       </c>
       <c r="AI26" s="1" t="s">
@@ -5558,7 +5778,7 @@
         <v>554</v>
       </c>
       <c r="E27" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D27,D27)</f>
+        <f t="shared" si="0"/>
         <v>P54252</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -5610,11 +5830,11 @@
         <v>656</v>
       </c>
       <c r="V27" s="1" t="str">
-        <f>LEFT(U27,1)</f>
+        <f t="shared" si="1"/>
         <v>D</v>
       </c>
       <c r="W27" s="1" t="str">
-        <f>MID(U27,FIND("(",U27)+1,FIND(")",U27)-FIND("(",U27)-1)</f>
+        <f t="shared" si="2"/>
         <v>248</v>
       </c>
       <c r="X27" s="1" t="s">
@@ -5648,7 +5868,7 @@
         <v>42</v>
       </c>
       <c r="AH27" s="1" t="str">
-        <f>L27&amp;M27&amp;N27&amp;O27&amp;P27&amp;Q27&amp;R27&amp;S27&amp;T27&amp;V27&amp;X27&amp;Y27&amp;Z27&amp;AA27&amp;AB27&amp;AC27&amp;AD27&amp;AE27&amp;AF27&amp;AG27</f>
+        <f t="shared" si="3"/>
         <v>EIDMEDEEADLRRAIQLSMQ</v>
       </c>
       <c r="AI27" s="1" t="s">
@@ -5666,7 +5886,7 @@
         <v>365</v>
       </c>
       <c r="E28" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D28,D28)</f>
+        <f t="shared" si="0"/>
         <v>P80723</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -5718,11 +5938,11 @@
         <v>366</v>
       </c>
       <c r="V28" s="1" t="str">
-        <f>LEFT(U28,1)</f>
+        <f t="shared" si="1"/>
         <v>D</v>
       </c>
       <c r="W28" s="1" t="str">
-        <f>MID(U28,FIND("(",U28)+1,FIND(")",U28)-FIND("(",U28)-1)</f>
+        <f t="shared" si="2"/>
         <v>165</v>
       </c>
       <c r="X28" s="1" t="s">
@@ -5756,7 +5976,7 @@
         <v>39</v>
       </c>
       <c r="AH28" s="1" t="str">
-        <f>L28&amp;M28&amp;N28&amp;O28&amp;P28&amp;Q28&amp;R28&amp;S28&amp;T28&amp;V28&amp;X28&amp;Y28&amp;Z28&amp;AA28&amp;AB28&amp;AC28&amp;AD28&amp;AE28&amp;AF28&amp;AG28</f>
+        <f t="shared" si="3"/>
         <v>APAAQETKSDGAPASDSKPG</v>
       </c>
       <c r="AI28" s="1" t="s">
@@ -5774,7 +5994,7 @@
         <v>74</v>
       </c>
       <c r="E29" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D29,D29)</f>
+        <f t="shared" si="0"/>
         <v>P10147</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -5826,11 +6046,11 @@
         <v>75</v>
       </c>
       <c r="V29" s="1" t="str">
-        <f>LEFT(U29,1)</f>
+        <f t="shared" si="1"/>
         <v>D</v>
       </c>
       <c r="W29" s="1" t="str">
-        <f>MID(U29,FIND("(",U29)+1,FIND(")",U29)-FIND("(",U29)-1)</f>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="X29" s="1" t="s">
@@ -5864,7 +6084,7 @@
         <v>41</v>
       </c>
       <c r="AH29" s="1" t="str">
-        <f>L29&amp;M29&amp;N29&amp;O29&amp;P29&amp;Q29&amp;R29&amp;S29&amp;T29&amp;V29&amp;X29&amp;Y29&amp;Z29&amp;AA29&amp;AB29&amp;AC29&amp;AD29&amp;AE29&amp;AF29&amp;AG29</f>
+        <f t="shared" si="3"/>
         <v>RQIPQNFIADYFETSSQCSK</v>
       </c>
       <c r="AI29" s="1" t="s">
@@ -5885,7 +6105,7 @@
         <v>80</v>
       </c>
       <c r="E30" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D30,D30)</f>
+        <f t="shared" si="0"/>
         <v>P20810</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -5937,11 +6157,11 @@
         <v>81</v>
       </c>
       <c r="V30" s="1" t="str">
-        <f>LEFT(U30,1)</f>
+        <f t="shared" si="1"/>
         <v>D</v>
       </c>
       <c r="W30" s="1" t="str">
-        <f>MID(U30,FIND("(",U30)+1,FIND(")",U30)-FIND("(",U30)-1)</f>
+        <f t="shared" si="2"/>
         <v>513</v>
       </c>
       <c r="X30" s="1" t="s">
@@ -5975,7 +6195,7 @@
         <v>42</v>
       </c>
       <c r="AH30" s="1" t="str">
-        <f>L30&amp;M30&amp;N30&amp;O30&amp;P30&amp;Q30&amp;R30&amp;S30&amp;T30&amp;V30&amp;X30&amp;Y30&amp;Z30&amp;AA30&amp;AB30&amp;AC30&amp;AD30&amp;AE30&amp;AF30&amp;AG30</f>
+        <f t="shared" si="3"/>
         <v>PPMSEDFLLDALSEDFSGPQ</v>
       </c>
       <c r="AI30" s="1" t="s">
@@ -5994,7 +6214,7 @@
         <v>80</v>
       </c>
       <c r="E31" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D31,D31)</f>
+        <f t="shared" si="0"/>
         <v>P20810</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -6046,11 +6266,11 @@
         <v>116</v>
       </c>
       <c r="V31" s="1" t="str">
-        <f>LEFT(U31,1)</f>
+        <f t="shared" si="1"/>
         <v>D</v>
       </c>
       <c r="W31" s="1" t="str">
-        <f>MID(U31,FIND("(",U31)+1,FIND(")",U31)-FIND("(",U31)-1)</f>
+        <f t="shared" si="2"/>
         <v>238</v>
       </c>
       <c r="X31" s="1" t="s">
@@ -6084,7 +6304,7 @@
         <v>39</v>
       </c>
       <c r="AH31" s="1" t="str">
-        <f>L31&amp;M31&amp;N31&amp;O31&amp;P31&amp;Q31&amp;R31&amp;S31&amp;T31&amp;V31&amp;X31&amp;Y31&amp;Z31&amp;AA31&amp;AB31&amp;AC31&amp;AD31&amp;AE31&amp;AF31&amp;AG31</f>
+        <f t="shared" si="3"/>
         <v>DDAIDALSSDFTCGSPTAAG</v>
       </c>
       <c r="AI31" s="1" t="s">
@@ -6102,7 +6322,7 @@
         <v>80</v>
       </c>
       <c r="E32" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D32,D32)</f>
+        <f t="shared" si="0"/>
         <v>P20810</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -6154,11 +6374,11 @@
         <v>664</v>
       </c>
       <c r="V32" s="1" t="str">
-        <f>LEFT(U32,1)</f>
+        <f t="shared" si="1"/>
         <v>D</v>
       </c>
       <c r="W32" s="1" t="str">
-        <f>MID(U32,FIND("(",U32)+1,FIND(")",U32)-FIND("(",U32)-1)</f>
+        <f t="shared" si="2"/>
         <v>159</v>
       </c>
       <c r="X32" s="1" t="s">
@@ -6192,7 +6412,7 @@
         <v>32</v>
       </c>
       <c r="AH32" s="1" t="str">
-        <f>L32&amp;M32&amp;N32&amp;O32&amp;P32&amp;Q32&amp;R32&amp;S32&amp;T32&amp;V32&amp;X32&amp;Y32&amp;Z32&amp;AA32&amp;AB32&amp;AC32&amp;AD32&amp;AE32&amp;AF32&amp;AG32</f>
+        <f t="shared" si="3"/>
         <v>KSGMDAALDDLIDTLGGPEE</v>
       </c>
       <c r="AI32" s="1" t="s">
@@ -6210,7 +6430,7 @@
         <v>80</v>
       </c>
       <c r="E33" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D33,D33)</f>
+        <f t="shared" si="0"/>
         <v>P20810</v>
       </c>
       <c r="F33" s="1" t="s">
@@ -6262,11 +6482,11 @@
         <v>665</v>
       </c>
       <c r="V33" s="1" t="str">
-        <f>LEFT(U33,1)</f>
+        <f t="shared" si="1"/>
         <v>D</v>
       </c>
       <c r="W33" s="1" t="str">
-        <f>MID(U33,FIND("(",U33)+1,FIND(")",U33)-FIND("(",U33)-1)</f>
+        <f t="shared" si="2"/>
         <v>439</v>
       </c>
       <c r="X33" s="1" t="s">
@@ -6300,7 +6520,7 @@
         <v>32</v>
       </c>
       <c r="AH33" s="1" t="str">
-        <f>L33&amp;M33&amp;N33&amp;O33&amp;P33&amp;Q33&amp;R33&amp;S33&amp;T33&amp;V33&amp;X33&amp;Y33&amp;Z33&amp;AA33&amp;AB33&amp;AC33&amp;AD33&amp;AE33&amp;AF33&amp;AG33</f>
+        <f t="shared" si="3"/>
         <v>PDDAVEALADSLGKKEADPE</v>
       </c>
       <c r="AI33" s="1" t="s">
@@ -6318,7 +6538,7 @@
         <v>221</v>
       </c>
       <c r="E34" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D34,D34)</f>
+        <f t="shared" ref="E34:E65" si="4">HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D34,D34)</f>
         <v>O43852</v>
       </c>
       <c r="F34" s="1" t="s">
@@ -6370,11 +6590,11 @@
         <v>222</v>
       </c>
       <c r="V34" s="1" t="str">
-        <f>LEFT(U34,1)</f>
+        <f t="shared" ref="V34:V65" si="5">LEFT(U34,1)</f>
         <v>D</v>
       </c>
       <c r="W34" s="1" t="str">
-        <f>MID(U34,FIND("(",U34)+1,FIND(")",U34)-FIND("(",U34)-1)</f>
+        <f t="shared" ref="W34:W65" si="6">MID(U34,FIND("(",U34)+1,FIND(")",U34)-FIND("(",U34)-1)</f>
         <v>216</v>
       </c>
       <c r="X34" s="1" t="s">
@@ -6408,7 +6628,7 @@
         <v>32</v>
       </c>
       <c r="AH34" s="1" t="str">
-        <f>L34&amp;M34&amp;N34&amp;O34&amp;P34&amp;Q34&amp;R34&amp;S34&amp;T34&amp;V34&amp;X34&amp;Y34&amp;Z34&amp;AA34&amp;AB34&amp;AC34&amp;AD34&amp;AE34&amp;AF34&amp;AG34</f>
+        <f t="shared" ref="AH34:AH65" si="7">L34&amp;M34&amp;N34&amp;O34&amp;P34&amp;Q34&amp;R34&amp;S34&amp;T34&amp;V34&amp;X34&amp;Y34&amp;Z34&amp;AA34&amp;AB34&amp;AC34&amp;AD34&amp;AE34&amp;AF34&amp;AG34</f>
         <v>FIDLEEYIGDMYSHDGNTDE</v>
       </c>
       <c r="AI34" s="1" t="s">
@@ -6429,7 +6649,7 @@
         <v>227</v>
       </c>
       <c r="E35" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D35,D35)</f>
+        <f t="shared" si="4"/>
         <v>Q14444</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -6481,11 +6701,11 @@
         <v>229</v>
       </c>
       <c r="V35" s="1" t="str">
-        <f>LEFT(U35,1)</f>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="W35" s="1" t="str">
-        <f>MID(U35,FIND("(",U35)+1,FIND(")",U35)-FIND("(",U35)-1)</f>
+        <f t="shared" si="6"/>
         <v>668</v>
       </c>
       <c r="X35" s="1" t="s">
@@ -6519,7 +6739,7 @@
         <v>44</v>
       </c>
       <c r="AH35" s="1" t="str">
-        <f>L35&amp;M35&amp;N35&amp;O35&amp;P35&amp;Q35&amp;R35&amp;S35&amp;T35&amp;V35&amp;X35&amp;Y35&amp;Z35&amp;AA35&amp;AB35&amp;AC35&amp;AD35&amp;AE35&amp;AF35&amp;AG35</f>
+        <f t="shared" si="7"/>
         <v>PRDYSGYQRDGYQQNFKRGS</v>
       </c>
       <c r="AI35" s="1" t="s">
@@ -6540,7 +6760,7 @@
         <v>296</v>
       </c>
       <c r="E36" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D36,D36)</f>
+        <f t="shared" si="4"/>
         <v>Q6JBY9</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -6592,11 +6812,11 @@
         <v>297</v>
       </c>
       <c r="V36" s="1" t="str">
-        <f>LEFT(U36,1)</f>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="W36" s="1" t="str">
-        <f>MID(U36,FIND("(",U36)+1,FIND(")",U36)-FIND("(",U36)-1)</f>
+        <f t="shared" si="6"/>
         <v>272</v>
       </c>
       <c r="X36" s="1" t="s">
@@ -6630,7 +6850,7 @@
         <v>40</v>
       </c>
       <c r="AH36" s="1" t="str">
-        <f>L36&amp;M36&amp;N36&amp;O36&amp;P36&amp;Q36&amp;R36&amp;S36&amp;T36&amp;V36&amp;X36&amp;Y36&amp;Z36&amp;AA36&amp;AB36&amp;AC36&amp;AD36&amp;AE36&amp;AF36&amp;AG36</f>
+        <f t="shared" si="7"/>
         <v>KARRSSEEVDGQHPAQEEVP</v>
       </c>
       <c r="AI36" s="1" t="s">
@@ -6651,7 +6871,7 @@
         <v>190</v>
       </c>
       <c r="E37" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D37,D37)</f>
+        <f t="shared" si="4"/>
         <v>P29466</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -6703,11 +6923,11 @@
         <v>192</v>
       </c>
       <c r="V37" s="1" t="str">
-        <f>LEFT(U37,1)</f>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="W37" s="1" t="str">
-        <f>MID(U37,FIND("(",U37)+1,FIND(")",U37)-FIND("(",U37)-1)</f>
+        <f t="shared" si="6"/>
         <v>297</v>
       </c>
       <c r="X37" s="1" t="s">
@@ -6741,7 +6961,7 @@
         <v>36</v>
       </c>
       <c r="AH37" s="1" t="str">
-        <f>L37&amp;M37&amp;N37&amp;O37&amp;P37&amp;Q37&amp;R37&amp;S37&amp;T37&amp;V37&amp;X37&amp;Y37&amp;Z37&amp;AA37&amp;AB37&amp;AC37&amp;AD37&amp;AE37&amp;AF37&amp;AG37</f>
+        <f t="shared" si="7"/>
         <v>DSPGVVWFKDSVGVSGNLSL</v>
       </c>
       <c r="AI37" s="1" t="s">
@@ -6762,7 +6982,7 @@
         <v>190</v>
       </c>
       <c r="E38" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D38,D38)</f>
+        <f t="shared" si="4"/>
         <v>P29466</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -6814,11 +7034,11 @@
         <v>230</v>
       </c>
       <c r="V38" s="1" t="str">
-        <f>LEFT(U38,1)</f>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="W38" s="1" t="str">
-        <f>MID(U38,FIND("(",U38)+1,FIND(")",U38)-FIND("(",U38)-1)</f>
+        <f t="shared" si="6"/>
         <v>119</v>
       </c>
       <c r="X38" s="1" t="s">
@@ -6852,7 +7072,7 @@
         <v>44</v>
       </c>
       <c r="AH38" s="1" t="str">
-        <f>L38&amp;M38&amp;N38&amp;O38&amp;P38&amp;Q38&amp;R38&amp;S38&amp;T38&amp;V38&amp;X38&amp;Y38&amp;Z38&amp;AA38&amp;AB38&amp;AC38&amp;AD38&amp;AE38&amp;AF38&amp;AG38</f>
+        <f t="shared" si="7"/>
         <v>SFPAPQAVQDNPAMPTSSGS</v>
       </c>
       <c r="AI38" s="1" t="s">
@@ -6873,7 +7093,7 @@
         <v>492</v>
       </c>
       <c r="E39" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D39,D39)</f>
+        <f t="shared" si="4"/>
         <v>P70677</v>
       </c>
       <c r="F39" s="1" t="s">
@@ -6925,11 +7145,11 @@
         <v>493</v>
       </c>
       <c r="V39" s="1" t="str">
-        <f>LEFT(U39,1)</f>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="W39" s="1" t="str">
-        <f>MID(U39,FIND("(",U39)+1,FIND(")",U39)-FIND("(",U39)-1)</f>
+        <f t="shared" si="6"/>
         <v>175</v>
       </c>
       <c r="X39" s="1" t="s">
@@ -6963,7 +7183,7 @@
         <v>42</v>
       </c>
       <c r="AH39" s="1" t="str">
-        <f>L39&amp;M39&amp;N39&amp;O39&amp;P39&amp;Q39&amp;R39&amp;S39&amp;T39&amp;V39&amp;X39&amp;Y39&amp;Z39&amp;AA39&amp;AB39&amp;AC39&amp;AD39&amp;AE39&amp;AF39&amp;AG39</f>
+        <f t="shared" si="7"/>
         <v>TELDCGIETDSGTDEEMACQ</v>
       </c>
       <c r="AI39" s="1" t="s">
@@ -6981,7 +7201,7 @@
         <v>505</v>
       </c>
       <c r="E40" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D40,D40)</f>
+        <f t="shared" si="4"/>
         <v>P42574</v>
       </c>
       <c r="F40" s="1" t="s">
@@ -7033,11 +7253,11 @@
         <v>493</v>
       </c>
       <c r="V40" s="1" t="str">
-        <f>LEFT(U40,1)</f>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="W40" s="1" t="str">
-        <f>MID(U40,FIND("(",U40)+1,FIND(")",U40)-FIND("(",U40)-1)</f>
+        <f t="shared" si="6"/>
         <v>175</v>
       </c>
       <c r="X40" s="1" t="s">
@@ -7071,7 +7291,7 @@
         <v>25</v>
       </c>
       <c r="AH40" s="1" t="str">
-        <f>L40&amp;M40&amp;N40&amp;O40&amp;P40&amp;Q40&amp;R40&amp;S40&amp;T40&amp;V40&amp;X40&amp;Y40&amp;Z40&amp;AA40&amp;AB40&amp;AC40&amp;AD40&amp;AE40&amp;AF40&amp;AG40</f>
+        <f t="shared" si="7"/>
         <v>CELDCGIETDSGVDDDMACH</v>
       </c>
       <c r="AI40" s="1" t="s">
@@ -7089,7 +7309,7 @@
         <v>369</v>
       </c>
       <c r="E41" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D41,D41)</f>
+        <f t="shared" si="4"/>
         <v>P97864</v>
       </c>
       <c r="F41" s="1" t="s">
@@ -7141,11 +7361,11 @@
         <v>380</v>
       </c>
       <c r="V41" s="1" t="str">
-        <f>LEFT(U41,1)</f>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="W41" s="1" t="str">
-        <f>MID(U41,FIND("(",U41)+1,FIND(")",U41)-FIND("(",U41)-1)</f>
+        <f t="shared" si="6"/>
         <v>198</v>
       </c>
       <c r="X41" s="1" t="s">
@@ -7179,7 +7399,7 @@
         <v>38</v>
       </c>
       <c r="AH41" s="1" t="str">
-        <f>L41&amp;M41&amp;N41&amp;O41&amp;P41&amp;Q41&amp;R41&amp;S41&amp;T41&amp;V41&amp;X41&amp;Y41&amp;Z41&amp;AA41&amp;AB41&amp;AC41&amp;AD41&amp;AE41&amp;AF41&amp;AG41</f>
+        <f t="shared" si="7"/>
         <v>TELDDGIQADSGPINDIDAN</v>
       </c>
       <c r="AI41" s="1" t="s">
@@ -7197,7 +7417,7 @@
         <v>504</v>
       </c>
       <c r="E42" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D42,D42)</f>
+        <f t="shared" si="4"/>
         <v>P55211</v>
       </c>
       <c r="F42" s="1" t="s">
@@ -7249,11 +7469,11 @@
         <v>502</v>
       </c>
       <c r="V42" s="1" t="str">
-        <f>LEFT(U42,1)</f>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="W42" s="1" t="str">
-        <f>MID(U42,FIND("(",U42)+1,FIND(")",U42)-FIND("(",U42)-1)</f>
+        <f t="shared" si="6"/>
         <v>315</v>
       </c>
       <c r="X42" s="1" t="s">
@@ -7287,7 +7507,7 @@
         <v>50</v>
       </c>
       <c r="AH42" s="1" t="str">
-        <f>L42&amp;M42&amp;N42&amp;O42&amp;P42&amp;Q42&amp;R42&amp;S42&amp;T42&amp;V42&amp;X42&amp;Y42&amp;Z42&amp;AA42&amp;AB42&amp;AC42&amp;AD42&amp;AE42&amp;AF42&amp;AG42</f>
+        <f t="shared" si="7"/>
         <v>ESPGSNPEPDATPFQEGLRT</v>
       </c>
       <c r="AI42" s="1" t="s">
@@ -7305,7 +7525,7 @@
         <v>232</v>
       </c>
       <c r="E43" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D43,D43)</f>
+        <f t="shared" si="4"/>
         <v>Q96S66</v>
       </c>
       <c r="F43" s="1" t="s">
@@ -7357,11 +7577,11 @@
         <v>233</v>
       </c>
       <c r="V43" s="1" t="str">
-        <f>LEFT(U43,1)</f>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="W43" s="1" t="str">
-        <f>MID(U43,FIND("(",U43)+1,FIND(")",U43)-FIND("(",U43)-1)</f>
+        <f t="shared" si="6"/>
         <v>390</v>
       </c>
       <c r="X43" s="1" t="s">
@@ -7395,7 +7615,7 @@
         <v>47</v>
       </c>
       <c r="AH43" s="1" t="str">
-        <f>L43&amp;M43&amp;N43&amp;O43&amp;P43&amp;Q43&amp;R43&amp;S43&amp;T43&amp;V43&amp;X43&amp;Y43&amp;Z43&amp;AA43&amp;AB43&amp;AC43&amp;AD43&amp;AE43&amp;AF43&amp;AG43</f>
+        <f t="shared" si="7"/>
         <v>RQEEIDYRPDGGAGDADFHY</v>
       </c>
       <c r="AI43" s="1" t="s">
@@ -7413,7 +7633,7 @@
         <v>282</v>
       </c>
       <c r="E44" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D44,D44)</f>
+        <f t="shared" si="4"/>
         <v>P09496</v>
       </c>
       <c r="F44" s="1" t="s">
@@ -7465,11 +7685,11 @@
         <v>283</v>
       </c>
       <c r="V44" s="1" t="str">
-        <f>LEFT(U44,1)</f>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="W44" s="1" t="str">
-        <f>MID(U44,FIND("(",U44)+1,FIND(")",U44)-FIND("(",U44)-1)</f>
+        <f t="shared" si="6"/>
         <v>76</v>
       </c>
       <c r="X44" s="1" t="s">
@@ -7503,7 +7723,7 @@
         <v>32</v>
       </c>
       <c r="AH44" s="1" t="str">
-        <f>L44&amp;M44&amp;N44&amp;O44&amp;P44&amp;Q44&amp;R44&amp;S44&amp;T44&amp;V44&amp;X44&amp;Y44&amp;Z44&amp;AA44&amp;AB44&amp;AC44&amp;AD44&amp;AE44&amp;AF44&amp;AG44</f>
+        <f t="shared" si="7"/>
         <v>EPPGGPDAVDGVMNGEYYQE</v>
       </c>
       <c r="AI44" s="1" t="s">
@@ -7522,7 +7742,7 @@
         <v>374</v>
       </c>
       <c r="E45" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D45,D45)</f>
+        <f t="shared" si="4"/>
         <v>Q99KY4</v>
       </c>
       <c r="F45" s="1" t="s">
@@ -7574,11 +7794,11 @@
         <v>383</v>
       </c>
       <c r="V45" s="1" t="str">
-        <f>LEFT(U45,1)</f>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="W45" s="1" t="str">
-        <f>MID(U45,FIND("(",U45)+1,FIND(")",U45)-FIND("(",U45)-1)</f>
+        <f t="shared" si="6"/>
         <v>820</v>
       </c>
       <c r="X45" s="1" t="s">
@@ -7612,7 +7832,7 @@
         <v>32</v>
       </c>
       <c r="AH45" s="1" t="str">
-        <f>L45&amp;M45&amp;N45&amp;O45&amp;P45&amp;Q45&amp;R45&amp;S45&amp;T45&amp;V45&amp;X45&amp;Y45&amp;Z45&amp;AA45&amp;AB45&amp;AC45&amp;AD45&amp;AE45&amp;AF45&amp;AG45</f>
+        <f t="shared" si="7"/>
         <v>KESQSVLIADGDGSEVSDEE</v>
       </c>
       <c r="AI45" s="1" t="s">
@@ -7631,7 +7851,7 @@
         <v>356</v>
       </c>
       <c r="E46" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D46,D46)</f>
+        <f t="shared" si="4"/>
         <v>P16333</v>
       </c>
       <c r="F46" s="1" t="s">
@@ -7683,11 +7903,11 @@
         <v>357</v>
       </c>
       <c r="V46" s="1" t="str">
-        <f>LEFT(U46,1)</f>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="W46" s="1" t="str">
-        <f>MID(U46,FIND("(",U46)+1,FIND(")",U46)-FIND("(",U46)-1)</f>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="X46" s="1" t="s">
@@ -7721,7 +7941,7 @@
         <v>48</v>
       </c>
       <c r="AH46" s="1" t="str">
-        <f>L46&amp;M46&amp;N46&amp;O46&amp;P46&amp;Q46&amp;R46&amp;S46&amp;T46&amp;V46&amp;X46&amp;Y46&amp;Z46&amp;AA46&amp;AB46&amp;AC46&amp;AD46&amp;AE46&amp;AF46&amp;AG46</f>
+        <f t="shared" si="7"/>
         <v>KVKRKPSVPDSASPADDSFV</v>
       </c>
       <c r="AI46" s="1" t="s">
@@ -7742,7 +7962,7 @@
         <v>396</v>
       </c>
       <c r="E47" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D47,D47)</f>
+        <f t="shared" si="4"/>
         <v>P47713</v>
       </c>
       <c r="F47" s="1" t="s">
@@ -7794,11 +8014,11 @@
         <v>405</v>
       </c>
       <c r="V47" s="1" t="str">
-        <f>LEFT(U47,1)</f>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="W47" s="1" t="str">
-        <f>MID(U47,FIND("(",U47)+1,FIND(")",U47)-FIND("(",U47)-1)</f>
+        <f t="shared" si="6"/>
         <v>521</v>
       </c>
       <c r="X47" s="1" t="s">
@@ -7832,7 +8052,7 @@
         <v>32</v>
       </c>
       <c r="AH47" s="1" t="str">
-        <f>L47&amp;M47&amp;N47&amp;O47&amp;P47&amp;Q47&amp;R47&amp;S47&amp;T47&amp;V47&amp;X47&amp;Y47&amp;Z47&amp;AA47&amp;AB47&amp;AC47&amp;AD47&amp;AE47&amp;AF47&amp;AG47</f>
+        <f t="shared" si="7"/>
         <v>SQDSFDDELDAAVADPDEFE</v>
       </c>
       <c r="AI47" s="1" t="s">
@@ -7851,7 +8071,7 @@
         <v>148</v>
       </c>
       <c r="E48" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D48,D48)</f>
+        <f t="shared" si="4"/>
         <v>Q9H7D0</v>
       </c>
       <c r="F48" s="1" t="s">
@@ -7903,11 +8123,11 @@
         <v>149</v>
       </c>
       <c r="V48" s="1" t="str">
-        <f>LEFT(U48,1)</f>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="W48" s="1" t="str">
-        <f>MID(U48,FIND("(",U48)+1,FIND(")",U48)-FIND("(",U48)-1)</f>
+        <f t="shared" si="6"/>
         <v>1809</v>
       </c>
       <c r="X48" s="1" t="s">
@@ -7941,7 +8161,7 @@
         <v>40</v>
       </c>
       <c r="AH48" s="1" t="str">
-        <f>L48&amp;M48&amp;N48&amp;O48&amp;P48&amp;Q48&amp;R48&amp;S48&amp;T48&amp;V48&amp;X48&amp;Y48&amp;Z48&amp;AA48&amp;AB48&amp;AC48&amp;AD48&amp;AE48&amp;AF48&amp;AG48</f>
+        <f t="shared" si="7"/>
         <v>TLSSPSLQTDGIAATPVPPP</v>
       </c>
       <c r="AI48" s="1" t="s">
@@ -7962,7 +8182,7 @@
         <v>60</v>
       </c>
       <c r="E49" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D49,D49)</f>
+        <f t="shared" si="4"/>
         <v>Q96JH7</v>
       </c>
       <c r="F49" s="1" t="s">
@@ -8014,11 +8234,11 @@
         <v>61</v>
       </c>
       <c r="V49" s="1" t="str">
-        <f>LEFT(U49,1)</f>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="W49" s="1" t="str">
-        <f>MID(U49,FIND("(",U49)+1,FIND(")",U49)-FIND("(",U49)-1)</f>
+        <f t="shared" si="6"/>
         <v>1181</v>
       </c>
       <c r="X49" s="1" t="s">
@@ -8052,7 +8272,7 @@
         <v>44</v>
       </c>
       <c r="AH49" s="1" t="str">
-        <f>L49&amp;M49&amp;N49&amp;O49&amp;P49&amp;Q49&amp;R49&amp;S49&amp;T49&amp;V49&amp;X49&amp;Y49&amp;Z49&amp;AA49&amp;AB49&amp;AC49&amp;AD49&amp;AE49&amp;AF49&amp;AG49</f>
+        <f t="shared" si="7"/>
         <v>TETTDGCVADALGAAFATRS</v>
       </c>
       <c r="AI49" s="1" t="s">
@@ -8071,7 +8291,7 @@
         <v>413</v>
       </c>
       <c r="E50" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D50,D50)</f>
+        <f t="shared" si="4"/>
         <v>P97310</v>
       </c>
       <c r="F50" s="1" t="s">
@@ -8123,11 +8343,11 @@
         <v>418</v>
       </c>
       <c r="V50" s="1" t="str">
-        <f>LEFT(U50,1)</f>
+        <f t="shared" si="5"/>
         <v>E</v>
       </c>
       <c r="W50" s="1" t="str">
-        <f>MID(U50,FIND("(",U50)+1,FIND(")",U50)-FIND("(",U50)-1)</f>
+        <f t="shared" si="6"/>
         <v>93</v>
       </c>
       <c r="X50" s="1" t="s">
@@ -8161,7 +8381,7 @@
         <v>32</v>
       </c>
       <c r="AH50" s="1" t="str">
-        <f>L50&amp;M50&amp;N50&amp;O50&amp;P50&amp;Q50&amp;R50&amp;S50&amp;T50&amp;V50&amp;X50&amp;Y50&amp;Z50&amp;AA50&amp;AB50&amp;AC50&amp;AD50&amp;AE50&amp;AF50&amp;AG50</f>
+        <f t="shared" si="7"/>
         <v>IPELDVYEAEGLALDDEDVE</v>
       </c>
       <c r="AI50" s="1" t="s">
@@ -8180,7 +8400,7 @@
         <v>379</v>
       </c>
       <c r="E51" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D51,D51)</f>
+        <f t="shared" si="4"/>
         <v>P25206</v>
       </c>
       <c r="F51" s="1" t="s">
@@ -8232,11 +8452,11 @@
         <v>388</v>
       </c>
       <c r="V51" s="1" t="str">
-        <f>LEFT(U51,1)</f>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="W51" s="1" t="str">
-        <f>MID(U51,FIND("(",U51)+1,FIND(")",U51)-FIND("(",U51)-1)</f>
+        <f t="shared" si="6"/>
         <v>530</v>
       </c>
       <c r="X51" s="1" t="s">
@@ -8270,7 +8490,7 @@
         <v>42</v>
       </c>
       <c r="AH51" s="1" t="str">
-        <f>L51&amp;M51&amp;N51&amp;O51&amp;P51&amp;Q51&amp;R51&amp;S51&amp;T51&amp;V51&amp;X51&amp;Y51&amp;Z51&amp;AA51&amp;AB51&amp;AC51&amp;AD51&amp;AE51&amp;AF51&amp;AG51</f>
+        <f t="shared" si="7"/>
         <v>GSSVDILATDDPDFTQDDQQ</v>
       </c>
       <c r="AI51" s="1" t="s">
@@ -8291,7 +8511,7 @@
         <v>379</v>
       </c>
       <c r="E52" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D52,D52)</f>
+        <f t="shared" si="4"/>
         <v>P25206</v>
       </c>
       <c r="F52" s="1" t="s">
@@ -8343,11 +8563,11 @@
         <v>402</v>
       </c>
       <c r="V52" s="1" t="str">
-        <f>LEFT(U52,1)</f>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="W52" s="1" t="str">
-        <f>MID(U52,FIND("(",U52)+1,FIND(")",U52)-FIND("(",U52)-1)</f>
+        <f t="shared" si="6"/>
         <v>533</v>
       </c>
       <c r="X52" s="1" t="s">
@@ -8381,7 +8601,7 @@
         <v>49</v>
       </c>
       <c r="AH52" s="1" t="str">
-        <f>L52&amp;M52&amp;N52&amp;O52&amp;P52&amp;Q52&amp;R52&amp;S52&amp;T52&amp;V52&amp;X52&amp;Y52&amp;Z52&amp;AA52&amp;AB52&amp;AC52&amp;AD52&amp;AE52&amp;AF52&amp;AG52</f>
+        <f t="shared" si="7"/>
         <v>VDILATDDPDFTQDDQQDTR</v>
       </c>
       <c r="AI52" s="1" t="s">
@@ -8400,7 +8620,7 @@
         <v>146</v>
       </c>
       <c r="E53" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D53,D53)</f>
+        <f t="shared" si="4"/>
         <v>P33991</v>
       </c>
       <c r="F53" s="1" t="s">
@@ -8452,11 +8672,11 @@
         <v>119</v>
       </c>
       <c r="V53" s="1" t="str">
-        <f>LEFT(U53,1)</f>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="W53" s="1" t="str">
-        <f>MID(U53,FIND("(",U53)+1,FIND(")",U53)-FIND("(",U53)-1)</f>
+        <f t="shared" si="6"/>
         <v>132</v>
       </c>
       <c r="X53" s="1" t="s">
@@ -8490,7 +8710,7 @@
         <v>44</v>
       </c>
       <c r="AH53" s="1" t="str">
-        <f>L53&amp;M53&amp;N53&amp;O53&amp;P53&amp;Q53&amp;R53&amp;S53&amp;T53&amp;V53&amp;X53&amp;Y53&amp;Z53&amp;AA53&amp;AB53&amp;AC53&amp;AD53&amp;AE53&amp;AF53&amp;AG53</f>
+        <f t="shared" si="7"/>
         <v>KGLQVDLQSDGAAAEDIVAS</v>
       </c>
       <c r="AI53" s="1" t="s">
@@ -8511,7 +8731,7 @@
         <v>103</v>
       </c>
       <c r="E54" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D54,D54)</f>
+        <f t="shared" si="4"/>
         <v>P33992</v>
       </c>
       <c r="F54" s="1" t="s">
@@ -8563,11 +8783,11 @@
         <v>105</v>
       </c>
       <c r="V54" s="1" t="str">
-        <f>LEFT(U54,1)</f>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="W54" s="1" t="str">
-        <f>MID(U54,FIND("(",U54)+1,FIND(")",U54)-FIND("(",U54)-1)</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="X54" s="1" t="s">
@@ -8601,7 +8821,7 @@
         <v>32</v>
       </c>
       <c r="AH54" s="1" t="str">
-        <f>L54&amp;M54&amp;N54&amp;O54&amp;P54&amp;Q54&amp;R54&amp;S54&amp;T54&amp;V54&amp;X54&amp;Y54&amp;Z54&amp;AA54&amp;AB54&amp;AC54&amp;AD54&amp;AE54&amp;AF54&amp;AG54</f>
+        <f t="shared" si="7"/>
         <v>FDDPGIFYSDSFGGDAQADE</v>
       </c>
       <c r="AI54" s="1" t="s">
@@ -8620,7 +8840,7 @@
         <v>377</v>
       </c>
       <c r="E55" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D55,D55)</f>
+        <f t="shared" si="4"/>
         <v>Q7TMY8</v>
       </c>
       <c r="F55" s="1" t="s">
@@ -8672,11 +8892,11 @@
         <v>386</v>
       </c>
       <c r="V55" s="1" t="str">
-        <f>LEFT(U55,1)</f>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="W55" s="1" t="str">
-        <f>MID(U55,FIND("(",U55)+1,FIND(")",U55)-FIND("(",U55)-1)</f>
+        <f t="shared" si="6"/>
         <v>2384</v>
       </c>
       <c r="X55" s="1" t="s">
@@ -8710,7 +8930,7 @@
         <v>44</v>
       </c>
       <c r="AH55" s="1" t="str">
-        <f>L55&amp;M55&amp;N55&amp;O55&amp;P55&amp;Q55&amp;R55&amp;S55&amp;T55&amp;V55&amp;X55&amp;Y55&amp;Z55&amp;AA55&amp;AB55&amp;AC55&amp;AD55&amp;AE55&amp;AF55&amp;AG55</f>
+        <f t="shared" si="7"/>
         <v>DESQEDVLMDEAPSNLSQAS</v>
       </c>
       <c r="AI55" s="1" t="s">
@@ -8729,7 +8949,7 @@
         <v>55</v>
       </c>
       <c r="E56" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D56,D56)</f>
+        <f t="shared" si="4"/>
         <v>Q9H223</v>
       </c>
       <c r="F56" s="3" t="s">
@@ -8781,11 +9001,11 @@
         <v>57</v>
       </c>
       <c r="V56" s="1" t="str">
-        <f>LEFT(U56,1)</f>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="W56" s="1" t="str">
-        <f>MID(U56,FIND("(",U56)+1,FIND(")",U56)-FIND("(",U56)-1)</f>
+        <f t="shared" si="6"/>
         <v>496</v>
       </c>
       <c r="X56" s="1" t="s">
@@ -8819,7 +9039,7 @@
         <v>36</v>
       </c>
       <c r="AH56" s="1" t="str">
-        <f>L56&amp;M56&amp;N56&amp;O56&amp;P56&amp;Q56&amp;R56&amp;S56&amp;T56&amp;V56&amp;X56&amp;Y56&amp;Z56&amp;AA56&amp;AB56&amp;AC56&amp;AD56&amp;AE56&amp;AF56&amp;AG56</f>
+        <f t="shared" si="7"/>
         <v>IWKLADCDCDGMLDEEEFAL</v>
       </c>
       <c r="AI56" s="1" t="s">
@@ -8838,7 +9058,7 @@
         <v>169</v>
       </c>
       <c r="E57" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D57,D57)</f>
+        <f t="shared" si="4"/>
         <v>P68104</v>
       </c>
       <c r="F57" s="1" t="s">
@@ -8890,11 +9110,11 @@
         <v>171</v>
       </c>
       <c r="V57" s="1" t="str">
-        <f>LEFT(U57,1)</f>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="W57" s="1" t="str">
-        <f>MID(U57,FIND("(",U57)+1,FIND(")",U57)-FIND("(",U57)-1)</f>
+        <f t="shared" si="6"/>
         <v>362</v>
       </c>
       <c r="X57" s="1" t="s">
@@ -8928,7 +9148,7 @@
         <v>31</v>
       </c>
       <c r="AH57" s="1" t="str">
-        <f>L57&amp;M57&amp;N57&amp;O57&amp;P57&amp;Q57&amp;R57&amp;S57&amp;T57&amp;V57&amp;X57&amp;Y57&amp;Z57&amp;AA57&amp;AB57&amp;AC57&amp;AD57&amp;AE57&amp;AF57&amp;AG57</f>
+        <f t="shared" si="7"/>
         <v>ISAGYAPVLDCHTAHIACKF</v>
       </c>
       <c r="AI57" s="1" t="s">
@@ -8947,7 +9167,7 @@
         <v>169</v>
       </c>
       <c r="E58" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D58,D58)</f>
+        <f t="shared" si="4"/>
         <v>P68104</v>
       </c>
       <c r="F58" s="1" t="s">
@@ -8999,11 +9219,11 @@
         <v>276</v>
       </c>
       <c r="V58" s="1" t="str">
-        <f>LEFT(U58,1)</f>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="W58" s="1" t="str">
-        <f>MID(U58,FIND("(",U58)+1,FIND(")",U58)-FIND("(",U58)-1)</f>
+        <f t="shared" si="6"/>
         <v>403</v>
       </c>
       <c r="X58" s="1" t="s">
@@ -9037,7 +9257,7 @@
         <v>32</v>
       </c>
       <c r="AH58" s="1" t="str">
-        <f>L58&amp;M58&amp;N58&amp;O58&amp;P58&amp;Q58&amp;R58&amp;S58&amp;T58&amp;V58&amp;X58&amp;Y58&amp;Z58&amp;AA58&amp;AB58&amp;AC58&amp;AD58&amp;AE58&amp;AF58&amp;AG58</f>
+        <f t="shared" si="7"/>
         <v>LKSGDAAIVDMVPGKPMCVE</v>
       </c>
       <c r="AI58" s="1" t="s">
@@ -9058,7 +9278,7 @@
         <v>173</v>
       </c>
       <c r="E59" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D59,D59)</f>
+        <f t="shared" si="4"/>
         <v>P14625</v>
       </c>
       <c r="F59" s="1" t="s">
@@ -9110,11 +9330,11 @@
         <v>174</v>
       </c>
       <c r="V59" s="1" t="str">
-        <f>LEFT(U59,1)</f>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="W59" s="1" t="str">
-        <f>MID(U59,FIND("(",U59)+1,FIND(")",U59)-FIND("(",U59)-1)</f>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="X59" s="1" t="s">
@@ -9148,7 +9368,7 @@
         <v>44</v>
       </c>
       <c r="AH59" s="1" t="str">
-        <f>L59&amp;M59&amp;N59&amp;O59&amp;P59&amp;Q59&amp;R59&amp;S59&amp;T59&amp;V59&amp;X59&amp;Y59&amp;Z59&amp;AA59&amp;AB59&amp;AC59&amp;AD59&amp;AE59&amp;AF59&amp;AG59</f>
+        <f t="shared" si="7"/>
         <v>VRADDEVDVDGTVEEDLGKS</v>
       </c>
       <c r="AI59" s="1" t="s">
@@ -9167,7 +9387,7 @@
         <v>392</v>
       </c>
       <c r="E60" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D60,D60)</f>
+        <f t="shared" si="4"/>
         <v>P08113</v>
       </c>
       <c r="F60" s="1" t="s">
@@ -9219,11 +9439,11 @@
         <v>403</v>
       </c>
       <c r="V60" s="1" t="str">
-        <f>LEFT(U60,1)</f>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="W60" s="1" t="str">
-        <f>MID(U60,FIND("(",U60)+1,FIND(")",U60)-FIND("(",U60)-1)</f>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="X60" s="1" t="s">
@@ -9257,7 +9477,7 @@
         <v>39</v>
       </c>
       <c r="AH60" s="1" t="str">
-        <f>L60&amp;M60&amp;N60&amp;O60&amp;P60&amp;Q60&amp;R60&amp;S60&amp;T60&amp;V60&amp;X60&amp;Y60&amp;Z60&amp;AA60&amp;AB60&amp;AC60&amp;AD60&amp;AE60&amp;AF60&amp;AG60</f>
+        <f t="shared" si="7"/>
         <v>GFVRADDEVDVDGTVEEDLG</v>
       </c>
       <c r="AI60" s="1" t="s">
@@ -9276,7 +9496,7 @@
         <v>397</v>
       </c>
       <c r="E61" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D61,D61)</f>
+        <f t="shared" si="4"/>
         <v>Q61211</v>
       </c>
       <c r="F61" s="1" t="s">
@@ -9328,11 +9548,11 @@
         <v>406</v>
       </c>
       <c r="V61" s="1" t="str">
-        <f>LEFT(U61,1)</f>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="W61" s="1" t="str">
-        <f>MID(U61,FIND("(",U61)+1,FIND(")",U61)-FIND("(",U61)-1)</f>
+        <f t="shared" si="6"/>
         <v>243</v>
       </c>
       <c r="X61" s="1" t="s">
@@ -9366,7 +9586,7 @@
         <v>35</v>
       </c>
       <c r="AH61" s="1" t="str">
-        <f>L61&amp;M61&amp;N61&amp;O61&amp;P61&amp;Q61&amp;R61&amp;S61&amp;T61&amp;V61&amp;X61&amp;Y61&amp;Z61&amp;AA61&amp;AB61&amp;AC61&amp;AD61&amp;AE61&amp;AF61&amp;AG61</f>
+        <f t="shared" si="7"/>
         <v>SRAPSQDSLDGKPLQEQMDD</v>
       </c>
       <c r="AI61" s="1" t="s">
@@ -9385,7 +9605,7 @@
         <v>185</v>
       </c>
       <c r="E62" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D62,D62)</f>
+        <f t="shared" si="4"/>
         <v>O75822</v>
       </c>
       <c r="F62" s="1" t="s">
@@ -9437,11 +9657,11 @@
         <v>186</v>
       </c>
       <c r="V62" s="1" t="str">
-        <f>LEFT(U62,1)</f>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="W62" s="1" t="str">
-        <f>MID(U62,FIND("(",U62)+1,FIND(")",U62)-FIND("(",U62)-1)</f>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="X62" s="1" t="s">
@@ -9475,7 +9695,7 @@
         <v>41</v>
       </c>
       <c r="AH62" s="1" t="str">
-        <f>L62&amp;M62&amp;N62&amp;O62&amp;P62&amp;Q62&amp;R62&amp;S62&amp;T62&amp;V62&amp;X62&amp;Y62&amp;Z62&amp;AA62&amp;AB62&amp;AC62&amp;AD62&amp;AE62&amp;AF62&amp;AG62</f>
+        <f t="shared" si="7"/>
         <v>AGDSDSWDADAFSVEDPVRK</v>
       </c>
       <c r="AI62" s="1" t="s">
@@ -9494,7 +9714,7 @@
         <v>395</v>
       </c>
       <c r="E63" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D63,D63)</f>
+        <f t="shared" si="4"/>
         <v>Q9WUK2</v>
       </c>
       <c r="F63" s="1" t="s">
@@ -9546,11 +9766,11 @@
         <v>477</v>
       </c>
       <c r="V63" s="1" t="str">
-        <f>LEFT(U63,1)</f>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="W63" s="1" t="str">
-        <f>MID(U63,FIND("(",U63)+1,FIND(")",U63)-FIND("(",U63)-1)</f>
+        <f t="shared" si="6"/>
         <v>93</v>
       </c>
       <c r="X63" s="1" t="s">
@@ -9584,7 +9804,7 @@
         <v>39</v>
       </c>
       <c r="AH63" s="1" t="str">
-        <f>L63&amp;M63&amp;N63&amp;O63&amp;P63&amp;Q63&amp;R63&amp;S63&amp;T63&amp;V63&amp;X63&amp;Y63&amp;Z63&amp;AA63&amp;AB63&amp;AC63&amp;AD63&amp;AE63&amp;AF63&amp;AG63</f>
+        <f t="shared" si="7"/>
         <v>FCYVEFDEVDSLKEALTYDG</v>
       </c>
       <c r="AI63" s="1" t="s">
@@ -9605,7 +9825,7 @@
         <v>336</v>
       </c>
       <c r="E64" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D64,D64)</f>
+        <f t="shared" si="4"/>
         <v>P42285</v>
       </c>
       <c r="F64" s="1" t="s">
@@ -9657,11 +9877,11 @@
         <v>337</v>
       </c>
       <c r="V64" s="1" t="str">
-        <f>LEFT(U64,1)</f>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="W64" s="1" t="str">
-        <f>MID(U64,FIND("(",U64)+1,FIND(")",U64)-FIND("(",U64)-1)</f>
+        <f t="shared" si="6"/>
         <v>987</v>
       </c>
       <c r="X64" s="1" t="s">
@@ -9695,7 +9915,7 @@
         <v>26</v>
       </c>
       <c r="AH64" s="1" t="str">
-        <f>L64&amp;M64&amp;N64&amp;O64&amp;P64&amp;Q64&amp;R64&amp;S64&amp;T64&amp;V64&amp;X64&amp;Y64&amp;Z64&amp;AA64&amp;AB64&amp;AC64&amp;AD64&amp;AE64&amp;AF64&amp;AG64</f>
+        <f t="shared" si="7"/>
         <v>TFAHICKMTDVFEGSIIRCM</v>
       </c>
       <c r="AI64" s="1" t="s">
@@ -9714,7 +9934,7 @@
         <v>352</v>
       </c>
       <c r="E65" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D65,D65)</f>
+        <f t="shared" si="4"/>
         <v>Q92945</v>
       </c>
       <c r="F65" s="1" t="s">
@@ -9766,11 +9986,11 @@
         <v>139</v>
       </c>
       <c r="V65" s="1" t="str">
-        <f>LEFT(U65,1)</f>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="W65" s="1" t="str">
-        <f>MID(U65,FIND("(",U65)+1,FIND(")",U65)-FIND("(",U65)-1)</f>
+        <f t="shared" si="6"/>
         <v>128</v>
       </c>
       <c r="X65" s="1" t="s">
@@ -9804,7 +10024,7 @@
         <v>25</v>
       </c>
       <c r="AH65" s="1" t="str">
-        <f>L65&amp;M65&amp;N65&amp;O65&amp;P65&amp;Q65&amp;R65&amp;S65&amp;T65&amp;V65&amp;X65&amp;Y65&amp;Z65&amp;AA65&amp;AB65&amp;AC65&amp;AD65&amp;AE65&amp;AF65&amp;AG65</f>
+        <f t="shared" si="7"/>
         <v>ESKKLASQGDSISSQLGPIH</v>
       </c>
       <c r="AI65" s="1" t="s">
@@ -9823,7 +10043,7 @@
         <v>299</v>
       </c>
       <c r="E66" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D66,D66)</f>
+        <f t="shared" ref="E66:E97" si="8">HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D66,D66)</f>
         <v>Q86UX7</v>
       </c>
       <c r="F66" s="1" t="s">
@@ -9875,11 +10095,11 @@
         <v>300</v>
       </c>
       <c r="V66" s="1" t="str">
-        <f>LEFT(U66,1)</f>
+        <f t="shared" ref="V66:V97" si="9">LEFT(U66,1)</f>
         <v>D</v>
       </c>
       <c r="W66" s="1" t="str">
-        <f>MID(U66,FIND("(",U66)+1,FIND(")",U66)-FIND("(",U66)-1)</f>
+        <f t="shared" ref="W66:W97" si="10">MID(U66,FIND("(",U66)+1,FIND(")",U66)-FIND("(",U66)-1)</f>
         <v>344</v>
       </c>
       <c r="X66" s="1" t="s">
@@ -9913,7 +10133,7 @@
         <v>35</v>
       </c>
       <c r="AH66" s="1" t="str">
-        <f>L66&amp;M66&amp;N66&amp;O66&amp;P66&amp;Q66&amp;R66&amp;S66&amp;T66&amp;V66&amp;X66&amp;Y66&amp;Z66&amp;AA66&amp;AB66&amp;AC66&amp;AD66&amp;AE66&amp;AF66&amp;AG66</f>
+        <f t="shared" ref="AH66:AH97" si="11">L66&amp;M66&amp;N66&amp;O66&amp;P66&amp;Q66&amp;R66&amp;S66&amp;T66&amp;V66&amp;X66&amp;Y66&amp;Z66&amp;AA66&amp;AB66&amp;AC66&amp;AD66&amp;AE66&amp;AF66&amp;AG66</f>
         <v>EGSAPTDVLDSLTTIPELKD</v>
       </c>
       <c r="AI66" s="1" t="s">
@@ -9932,7 +10152,7 @@
         <v>378</v>
       </c>
       <c r="E67" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D67,D67)</f>
+        <f t="shared" si="8"/>
         <v>O35601</v>
       </c>
       <c r="F67" s="1" t="s">
@@ -9984,11 +10204,11 @@
         <v>387</v>
       </c>
       <c r="V67" s="1" t="str">
-        <f>LEFT(U67,1)</f>
+        <f t="shared" si="9"/>
         <v>D</v>
       </c>
       <c r="W67" s="1" t="str">
-        <f>MID(U67,FIND("(",U67)+1,FIND(")",U67)-FIND("(",U67)-1)</f>
+        <f t="shared" si="10"/>
         <v>434</v>
       </c>
       <c r="X67" s="1" t="s">
@@ -10022,7 +10242,7 @@
         <v>32</v>
       </c>
       <c r="AH67" s="1" t="str">
-        <f>L67&amp;M67&amp;N67&amp;O67&amp;P67&amp;Q67&amp;R67&amp;S67&amp;T67&amp;V67&amp;X67&amp;Y67&amp;Z67&amp;AA67&amp;AB67&amp;AC67&amp;AD67&amp;AE67&amp;AF67&amp;AG67</f>
+        <f t="shared" si="11"/>
         <v>ENQDGVMHSDGTGNLEEEQE</v>
       </c>
       <c r="AI67" s="1" t="s">
@@ -10041,7 +10261,7 @@
         <v>223</v>
       </c>
       <c r="E68" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D68,D68)</f>
+        <f t="shared" si="8"/>
         <v>Q8N954</v>
       </c>
       <c r="F68" s="1" t="s">
@@ -10093,11 +10313,11 @@
         <v>427</v>
       </c>
       <c r="V68" s="1" t="str">
-        <f>LEFT(U68,1)</f>
+        <f t="shared" si="9"/>
         <v>D</v>
       </c>
       <c r="W68" s="1" t="str">
-        <f>MID(U68,FIND("(",U68)+1,FIND(")",U68)-FIND("(",U68)-1)</f>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="X68" s="1" t="s">
@@ -10131,7 +10351,7 @@
         <v>49</v>
       </c>
       <c r="AH68" s="1" t="str">
-        <f>L68&amp;M68&amp;N68&amp;O68&amp;P68&amp;Q68&amp;R68&amp;S68&amp;T68&amp;V68&amp;X68&amp;Y68&amp;Z68&amp;AA68&amp;AB68&amp;AC68&amp;AD68&amp;AE68&amp;AF68&amp;AG68</f>
+        <f t="shared" si="11"/>
         <v>MAEEEDYMSDSFINVQEDIR</v>
       </c>
       <c r="AI68" s="1" t="s">
@@ -10152,7 +10372,7 @@
         <v>83</v>
       </c>
       <c r="E69" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D69,D69)</f>
+        <f t="shared" si="8"/>
         <v>P57764</v>
       </c>
       <c r="F69" s="1" t="s">
@@ -10204,11 +10424,11 @@
         <v>84</v>
       </c>
       <c r="V69" s="1" t="str">
-        <f>LEFT(U69,1)</f>
+        <f t="shared" si="9"/>
         <v>D</v>
       </c>
       <c r="W69" s="1" t="str">
-        <f>MID(U69,FIND("(",U69)+1,FIND(")",U69)-FIND("(",U69)-1)</f>
+        <f t="shared" si="10"/>
         <v>275</v>
       </c>
       <c r="X69" s="1" t="s">
@@ -10242,7 +10462,7 @@
         <v>32</v>
       </c>
       <c r="AH69" s="1" t="str">
-        <f>L69&amp;M69&amp;N69&amp;O69&amp;P69&amp;Q69&amp;R69&amp;S69&amp;T69&amp;V69&amp;X69&amp;Y69&amp;Z69&amp;AA69&amp;AB69&amp;AC69&amp;AD69&amp;AE69&amp;AF69&amp;AG69</f>
+        <f t="shared" si="11"/>
         <v>MRCLHNFLTDGVPAEGAFTE</v>
       </c>
       <c r="AI69" s="1" t="s">
@@ -10263,7 +10483,7 @@
         <v>83</v>
       </c>
       <c r="E70" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D70,D70)</f>
+        <f t="shared" si="8"/>
         <v>P57764</v>
       </c>
       <c r="F70" s="1" t="s">
@@ -10315,11 +10535,11 @@
         <v>84</v>
       </c>
       <c r="V70" s="1" t="str">
-        <f>LEFT(U70,1)</f>
+        <f t="shared" si="9"/>
         <v>D</v>
       </c>
       <c r="W70" s="1" t="str">
-        <f>MID(U70,FIND("(",U70)+1,FIND(")",U70)-FIND("(",U70)-1)</f>
+        <f t="shared" si="10"/>
         <v>275</v>
       </c>
       <c r="X70" s="1" t="s">
@@ -10353,7 +10573,7 @@
         <v>32</v>
       </c>
       <c r="AH70" s="1" t="str">
-        <f>L70&amp;M70&amp;N70&amp;O70&amp;P70&amp;Q70&amp;R70&amp;S70&amp;T70&amp;V70&amp;X70&amp;Y70&amp;Z70&amp;AA70&amp;AB70&amp;AC70&amp;AD70&amp;AE70&amp;AF70&amp;AG70</f>
+        <f t="shared" si="11"/>
         <v>MRCLHNFlTDGVPAEGAFTE</v>
       </c>
       <c r="AI70" s="1" t="s">
@@ -10371,7 +10591,7 @@
         <v>83</v>
       </c>
       <c r="E71" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D71,D71)</f>
+        <f t="shared" si="8"/>
         <v>P57764</v>
       </c>
       <c r="F71" s="1" t="s">
@@ -10423,11 +10643,11 @@
         <v>84</v>
       </c>
       <c r="V71" s="1" t="str">
-        <f>LEFT(U71,1)</f>
+        <f t="shared" si="9"/>
         <v>D</v>
       </c>
       <c r="W71" s="1" t="str">
-        <f>MID(U71,FIND("(",U71)+1,FIND(")",U71)-FIND("(",U71)-1)</f>
+        <f t="shared" si="10"/>
         <v>275</v>
       </c>
       <c r="X71" s="1" t="s">
@@ -10461,7 +10681,7 @@
         <v>32</v>
       </c>
       <c r="AH71" s="1" t="str">
-        <f>L71&amp;M71&amp;N71&amp;O71&amp;P71&amp;Q71&amp;R71&amp;S71&amp;T71&amp;V71&amp;X71&amp;Y71&amp;Z71&amp;AA71&amp;AB71&amp;AC71&amp;AD71&amp;AE71&amp;AF71&amp;AG71</f>
+        <f t="shared" si="11"/>
         <v>MRCLHNFLTDGVPAEGAFTE</v>
       </c>
       <c r="AI71" s="1" t="s">
@@ -10479,7 +10699,7 @@
         <v>275</v>
       </c>
       <c r="E72" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D72,D72)</f>
+        <f t="shared" si="8"/>
         <v>P06396</v>
       </c>
       <c r="F72" s="1" t="s">
@@ -10531,11 +10751,11 @@
         <v>276</v>
       </c>
       <c r="V72" s="1" t="str">
-        <f>LEFT(U72,1)</f>
+        <f t="shared" si="9"/>
         <v>D</v>
       </c>
       <c r="W72" s="1" t="str">
-        <f>MID(U72,FIND("(",U72)+1,FIND(")",U72)-FIND("(",U72)-1)</f>
+        <f t="shared" si="10"/>
         <v>403</v>
       </c>
       <c r="X72" s="1" t="s">
@@ -10569,7 +10789,7 @@
         <v>25</v>
       </c>
       <c r="AH72" s="1" t="str">
-        <f>L72&amp;M72&amp;N72&amp;O72&amp;P72&amp;Q72&amp;R72&amp;S72&amp;T72&amp;V72&amp;X72&amp;Y72&amp;Z72&amp;AA72&amp;AB72&amp;AC72&amp;AD72&amp;AE72&amp;AF72&amp;AG72</f>
+        <f t="shared" si="11"/>
         <v>KNWRDPDQTDGLGLSYLSSH</v>
       </c>
       <c r="AI72" s="1" t="s">
@@ -10588,7 +10808,7 @@
         <v>331</v>
       </c>
       <c r="E73" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D73,D73)</f>
+        <f t="shared" si="8"/>
         <v>P52597</v>
       </c>
       <c r="F73" s="1" t="s">
@@ -10640,11 +10860,11 @@
         <v>332</v>
       </c>
       <c r="V73" s="1" t="str">
-        <f>LEFT(U73,1)</f>
+        <f t="shared" si="9"/>
         <v>D</v>
       </c>
       <c r="W73" s="1" t="str">
-        <f>MID(U73,FIND("(",U73)+1,FIND(")",U73)-FIND("(",U73)-1)</f>
+        <f t="shared" si="10"/>
         <v>251</v>
       </c>
       <c r="X73" s="1" t="s">
@@ -10678,7 +10898,7 @@
         <v>39</v>
       </c>
       <c r="AH73" s="1" t="str">
-        <f>L73&amp;M73&amp;N73&amp;O73&amp;P73&amp;Q73&amp;R73&amp;S73&amp;T73&amp;V73&amp;X73&amp;Y73&amp;Z73&amp;AA73&amp;AB73&amp;AC73&amp;AD73&amp;AE73&amp;AF73&amp;AG73</f>
+        <f t="shared" si="11"/>
         <v>GYEEYSGLSDGYGFTTDLFG</v>
       </c>
       <c r="AI73" s="1" t="s">
@@ -10699,7 +10919,7 @@
         <v>335</v>
       </c>
       <c r="E74" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D74,D74)</f>
+        <f t="shared" si="8"/>
         <v>P31943</v>
       </c>
       <c r="F74" s="1" t="s">
@@ -10751,11 +10971,11 @@
         <v>332</v>
       </c>
       <c r="V74" s="1" t="str">
-        <f>LEFT(U74,1)</f>
+        <f t="shared" si="9"/>
         <v>D</v>
       </c>
       <c r="W74" s="1" t="str">
-        <f>MID(U74,FIND("(",U74)+1,FIND(")",U74)-FIND("(",U74)-1)</f>
+        <f t="shared" si="10"/>
         <v>251</v>
       </c>
       <c r="X74" s="1" t="s">
@@ -10789,7 +11009,7 @@
         <v>39</v>
       </c>
       <c r="AH74" s="1" t="str">
-        <f>L74&amp;M74&amp;N74&amp;O74&amp;P74&amp;Q74&amp;R74&amp;S74&amp;T74&amp;V74&amp;X74&amp;Y74&amp;Z74&amp;AA74&amp;AB74&amp;AC74&amp;AD74&amp;AE74&amp;AF74&amp;AG74</f>
+        <f t="shared" si="11"/>
         <v>YDDYNGGYNDGYGFGSDRFG</v>
       </c>
       <c r="AI74" s="1" t="s">
@@ -10808,7 +11028,7 @@
         <v>138</v>
       </c>
       <c r="E75" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D75,D75)</f>
+        <f t="shared" si="8"/>
         <v>P61978</v>
       </c>
       <c r="F75" s="1" t="s">
@@ -10860,11 +11080,11 @@
         <v>139</v>
       </c>
       <c r="V75" s="1" t="str">
-        <f>LEFT(U75,1)</f>
+        <f t="shared" si="9"/>
         <v>D</v>
       </c>
       <c r="W75" s="1" t="str">
-        <f>MID(U75,FIND("(",U75)+1,FIND(")",U75)-FIND("(",U75)-1)</f>
+        <f t="shared" si="10"/>
         <v>128</v>
       </c>
       <c r="X75" s="1" t="s">
@@ -10898,7 +11118,7 @@
         <v>47</v>
       </c>
       <c r="AH75" s="1" t="str">
-        <f>L75&amp;M75&amp;N75&amp;O75&amp;P75&amp;Q75&amp;R75&amp;S75&amp;T75&amp;V75&amp;X75&amp;Y75&amp;Z75&amp;AA75&amp;AB75&amp;AC75&amp;AD75&amp;AE75&amp;AF75&amp;AG75</f>
+        <f t="shared" si="11"/>
         <v>ATSQLPLESDAVECLNYQHY</v>
       </c>
       <c r="AI75" s="1" t="s">
@@ -10919,7 +11139,7 @@
         <v>89</v>
       </c>
       <c r="E76" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D76,D76)</f>
+        <f t="shared" si="8"/>
         <v>Q8WVV9</v>
       </c>
       <c r="F76" s="1" t="s">
@@ -10971,11 +11191,11 @@
         <v>90</v>
       </c>
       <c r="V76" s="1" t="str">
-        <f>LEFT(U76,1)</f>
+        <f t="shared" si="9"/>
         <v>D</v>
       </c>
       <c r="W76" s="1" t="str">
-        <f>MID(U76,FIND("(",U76)+1,FIND(")",U76)-FIND("(",U76)-1)</f>
+        <f t="shared" si="10"/>
         <v>289</v>
       </c>
       <c r="X76" s="1" t="s">
@@ -11009,7 +11229,7 @@
         <v>40</v>
       </c>
       <c r="AH76" s="1" t="str">
-        <f>L76&amp;M76&amp;N76&amp;O76&amp;P76&amp;Q76&amp;R76&amp;S76&amp;T76&amp;V76&amp;X76&amp;Y76&amp;Z76&amp;AA76&amp;AB76&amp;AC76&amp;AD76&amp;AE76&amp;AF76&amp;AG76</f>
+        <f t="shared" si="11"/>
         <v>GEHPSSFRHDGYGSHGPLLP</v>
       </c>
       <c r="AI76" s="1" t="s">
@@ -11030,7 +11250,7 @@
         <v>318</v>
       </c>
       <c r="E77" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D77,D77)</f>
+        <f t="shared" si="8"/>
         <v>P22626</v>
       </c>
       <c r="F77" s="1" t="s">
@@ -11082,11 +11302,11 @@
         <v>283</v>
       </c>
       <c r="V77" s="1" t="str">
-        <f>LEFT(U77,1)</f>
+        <f t="shared" si="9"/>
         <v>D</v>
       </c>
       <c r="W77" s="1" t="str">
-        <f>MID(U77,FIND("(",U77)+1,FIND(")",U77)-FIND("(",U77)-1)</f>
+        <f t="shared" si="10"/>
         <v>76</v>
       </c>
       <c r="X77" s="1" t="s">
@@ -11120,7 +11340,7 @@
         <v>53</v>
       </c>
       <c r="AH77" s="1" t="str">
-        <f>L77&amp;M77&amp;N77&amp;O77&amp;P77&amp;Q77&amp;R77&amp;S77&amp;T77&amp;V77&amp;X77&amp;Y77&amp;Z77&amp;AA77&amp;AB77&amp;AC77&amp;AD77&amp;AE77&amp;AF77&amp;AG77</f>
+        <f t="shared" si="11"/>
         <v>VTFSSMAEVDAAMAARPHSI</v>
       </c>
       <c r="AI77" s="1" t="s">
@@ -11141,7 +11361,7 @@
         <v>95</v>
       </c>
       <c r="E78" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D78,D78)</f>
+        <f t="shared" si="8"/>
         <v>O43719</v>
       </c>
       <c r="F78" s="1" t="s">
@@ -11193,11 +11413,11 @@
         <v>93</v>
       </c>
       <c r="V78" s="1" t="str">
-        <f>LEFT(U78,1)</f>
+        <f t="shared" si="9"/>
         <v>D</v>
       </c>
       <c r="W78" s="1" t="str">
-        <f>MID(U78,FIND("(",U78)+1,FIND(")",U78)-FIND("(",U78)-1)</f>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="X78" s="1" t="s">
@@ -11231,7 +11451,7 @@
         <v>32</v>
       </c>
       <c r="AH78" s="1" t="str">
-        <f>L78&amp;M78&amp;N78&amp;O78&amp;P78&amp;Q78&amp;R78&amp;S78&amp;T78&amp;V78&amp;X78&amp;Y78&amp;Z78&amp;AA78&amp;AB78&amp;AC78&amp;AD78&amp;AE78&amp;AF78&amp;AG78</f>
+        <f t="shared" si="11"/>
         <v>YQANYGFSNDGASSSTANVE</v>
       </c>
       <c r="AI78" s="1" t="s">
@@ -11252,7 +11472,7 @@
         <v>95</v>
       </c>
       <c r="E79" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D79,D79)</f>
+        <f t="shared" si="8"/>
         <v>O43719</v>
       </c>
       <c r="F79" s="1" t="s">
@@ -11304,11 +11524,11 @@
         <v>329</v>
       </c>
       <c r="V79" s="1" t="str">
-        <f>LEFT(U79,1)</f>
+        <f t="shared" si="9"/>
         <v>D</v>
       </c>
       <c r="W79" s="1" t="str">
-        <f>MID(U79,FIND("(",U79)+1,FIND(")",U79)-FIND("(",U79)-1)</f>
+        <f t="shared" si="10"/>
         <v>39</v>
       </c>
       <c r="X79" s="1" t="s">
@@ -11342,7 +11562,7 @@
         <v>40</v>
       </c>
       <c r="AH79" s="1" t="str">
-        <f>L79&amp;M79&amp;N79&amp;O79&amp;P79&amp;Q79&amp;R79&amp;S79&amp;T79&amp;V79&amp;X79&amp;Y79&amp;Z79&amp;AA79&amp;AB79&amp;AC79&amp;AD79&amp;AE79&amp;AF79&amp;AG79</f>
+        <f t="shared" si="11"/>
         <v>TQTDAGGEPDSLGQQPTDTP</v>
       </c>
       <c r="AI79" s="1" t="s">
@@ -11361,7 +11581,7 @@
         <v>27</v>
       </c>
       <c r="E80" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D80,D80)</f>
+        <f t="shared" si="8"/>
         <v>P01584</v>
       </c>
       <c r="F80" s="1" t="s">
@@ -11413,11 +11633,11 @@
         <v>30</v>
       </c>
       <c r="V80" s="1" t="str">
-        <f>LEFT(U80,1)</f>
+        <f t="shared" si="9"/>
         <v>D</v>
       </c>
       <c r="W80" s="1" t="str">
-        <f>MID(U80,FIND("(",U80)+1,FIND(")",U80)-FIND("(",U80)-1)</f>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
       <c r="X80" s="1" t="s">
@@ -11451,7 +11671,7 @@
         <v>42</v>
       </c>
       <c r="AH80" s="1" t="str">
-        <f>L80&amp;M80&amp;N80&amp;O80&amp;P80&amp;Q80&amp;R80&amp;S80&amp;T80&amp;V80&amp;X80&amp;Y80&amp;Z80&amp;AA80&amp;AB80&amp;AC80&amp;AD80&amp;AE80&amp;AF80&amp;AG80</f>
+        <f t="shared" si="11"/>
         <v>NEDDLFFEADGPKQMKCSFQ</v>
       </c>
       <c r="AI80" s="3" t="s">
@@ -11470,7 +11690,7 @@
         <v>27</v>
       </c>
       <c r="E81" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D81,D81)</f>
+        <f t="shared" si="8"/>
         <v>P01584</v>
       </c>
       <c r="F81" s="1" t="s">
@@ -11522,11 +11742,11 @@
         <v>34</v>
       </c>
       <c r="V81" s="1" t="str">
-        <f>LEFT(U81,1)</f>
+        <f t="shared" si="9"/>
         <v>D</v>
       </c>
       <c r="W81" s="1" t="str">
-        <f>MID(U81,FIND("(",U81)+1,FIND(")",U81)-FIND("(",U81)-1)</f>
+        <f t="shared" si="10"/>
         <v>116</v>
       </c>
       <c r="X81" s="1" t="s">
@@ -11560,7 +11780,7 @@
         <v>49</v>
       </c>
       <c r="AH81" s="1" t="str">
-        <f>L81&amp;M81&amp;N81&amp;O81&amp;P81&amp;Q81&amp;R81&amp;S81&amp;T81&amp;V81&amp;X81&amp;Y81&amp;Z81&amp;AA81&amp;AB81&amp;AC81&amp;AD81&amp;AE81&amp;AF81&amp;AG81</f>
+        <f t="shared" si="11"/>
         <v>TWDNEAYVHDAPVRSLNCTR</v>
       </c>
       <c r="AI81" s="3" t="s">
@@ -11579,7 +11799,7 @@
         <v>27</v>
       </c>
       <c r="E82" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D82,D82)</f>
+        <f t="shared" si="8"/>
         <v>P01584</v>
       </c>
       <c r="F82" s="1" t="s">
@@ -11631,11 +11851,11 @@
         <v>52</v>
       </c>
       <c r="V82" s="1" t="str">
-        <f>LEFT(U82,1)</f>
+        <f t="shared" si="9"/>
         <v>D</v>
       </c>
       <c r="W82" s="1" t="str">
-        <f>MID(U82,FIND("(",U82)+1,FIND(")",U82)-FIND("(",U82)-1)</f>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="X82" s="1" t="s">
@@ -11669,7 +11889,7 @@
         <v>36</v>
       </c>
       <c r="AH82" s="1" t="str">
-        <f>L82&amp;M82&amp;N82&amp;O82&amp;P82&amp;Q82&amp;R82&amp;S82&amp;T82&amp;V82&amp;X82&amp;Y82&amp;Z82&amp;AA82&amp;AB82&amp;AC82&amp;AD82&amp;AE82&amp;AF82&amp;AG82</f>
+        <f t="shared" si="11"/>
         <v>QMKCSFQDLDLCPLDGGIQL</v>
       </c>
       <c r="AI82" s="1" t="s">
@@ -11690,7 +11910,7 @@
         <v>512</v>
       </c>
       <c r="E83" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D83,D83)</f>
+        <f t="shared" si="8"/>
         <v>Q14116</v>
       </c>
       <c r="F83" s="1" t="s">
@@ -11742,11 +11962,11 @@
         <v>427</v>
       </c>
       <c r="V83" s="1" t="str">
-        <f>LEFT(U83,1)</f>
+        <f t="shared" si="9"/>
         <v>D</v>
       </c>
       <c r="W83" s="1" t="str">
-        <f>MID(U83,FIND("(",U83)+1,FIND(")",U83)-FIND("(",U83)-1)</f>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="X83" s="1" t="s">
@@ -11780,7 +12000,7 @@
         <v>44</v>
       </c>
       <c r="AH83" s="1" t="str">
-        <f>L83&amp;M83&amp;N83&amp;O83&amp;P83&amp;Q83&amp;R83&amp;S83&amp;T83&amp;V83&amp;X83&amp;Y83&amp;Z83&amp;AA83&amp;AB83&amp;AC83&amp;AD83&amp;AE83&amp;AF83&amp;AG83</f>
+        <f t="shared" si="11"/>
         <v>AEDDENLESDYFGKLESKLS</v>
       </c>
       <c r="AI83" s="1" t="s">
@@ -11798,7 +12018,7 @@
         <v>315</v>
       </c>
       <c r="E84" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D84,D84)</f>
+        <f t="shared" si="8"/>
         <v>Q27J81</v>
       </c>
       <c r="F84" s="1" t="s">
@@ -11850,11 +12070,11 @@
         <v>316</v>
       </c>
       <c r="V84" s="1" t="str">
-        <f>LEFT(U84,1)</f>
+        <f t="shared" si="9"/>
         <v>D</v>
       </c>
       <c r="W84" s="1" t="str">
-        <f>MID(U84,FIND("(",U84)+1,FIND(")",U84)-FIND("(",U84)-1)</f>
+        <f t="shared" si="10"/>
         <v>1146</v>
       </c>
       <c r="X84" s="1" t="s">
@@ -11888,7 +12108,7 @@
         <v>48</v>
       </c>
       <c r="AH84" s="1" t="str">
-        <f>L84&amp;M84&amp;N84&amp;O84&amp;P84&amp;Q84&amp;R84&amp;S84&amp;T84&amp;V84&amp;X84&amp;Y84&amp;Z84&amp;AA84&amp;AB84&amp;AC84&amp;AD84&amp;AE84&amp;AF84&amp;AG84</f>
+        <f t="shared" si="11"/>
         <v>LLGVLQAEADSTSEGLEDAV</v>
       </c>
       <c r="AI84" s="1" t="s">
@@ -11909,7 +12129,7 @@
         <v>341</v>
       </c>
       <c r="E85" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D85,D85)</f>
+        <f t="shared" si="8"/>
         <v>P41252</v>
       </c>
       <c r="F85" s="1" t="s">
@@ -11961,11 +12181,11 @@
         <v>342</v>
       </c>
       <c r="V85" s="1" t="str">
-        <f>LEFT(U85,1)</f>
+        <f t="shared" si="9"/>
         <v>D</v>
       </c>
       <c r="W85" s="1" t="str">
-        <f>MID(U85,FIND("(",U85)+1,FIND(")",U85)-FIND("(",U85)-1)</f>
+        <f t="shared" si="10"/>
         <v>1147</v>
       </c>
       <c r="X85" s="1" t="s">
@@ -11999,7 +12219,7 @@
         <v>43</v>
       </c>
       <c r="AH85" s="1" t="str">
-        <f>L85&amp;M85&amp;N85&amp;O85&amp;P85&amp;Q85&amp;R85&amp;S85&amp;T85&amp;V85&amp;X85&amp;Y85&amp;Z85&amp;AA85&amp;AB85&amp;AC85&amp;AD85&amp;AE85&amp;AF85&amp;AG85</f>
+        <f t="shared" si="11"/>
         <v>DETEIQNQTDLLSLSGKTLC</v>
       </c>
       <c r="AI85" s="1" t="s">
@@ -12020,7 +12240,7 @@
         <v>362</v>
       </c>
       <c r="E86" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D86,D86)</f>
+        <f t="shared" si="8"/>
         <v>Q07666</v>
       </c>
       <c r="F86" s="1" t="s">
@@ -12072,11 +12292,11 @@
         <v>363</v>
       </c>
       <c r="V86" s="1" t="str">
-        <f>LEFT(U86,1)</f>
+        <f t="shared" si="9"/>
         <v>D</v>
       </c>
       <c r="W86" s="1" t="str">
-        <f>MID(U86,FIND("(",U86)+1,FIND(")",U86)-FIND("(",U86)-1)</f>
+        <f t="shared" si="10"/>
         <v>75</v>
       </c>
       <c r="X86" s="1" t="s">
@@ -12110,7 +12330,7 @@
         <v>40</v>
       </c>
       <c r="AH86" s="1" t="str">
-        <f>L86&amp;M86&amp;N86&amp;O86&amp;P86&amp;Q86&amp;R86&amp;S86&amp;T86&amp;V86&amp;X86&amp;Y86&amp;Z86&amp;AA86&amp;AB86&amp;AC86&amp;AD86&amp;AE86&amp;AF86&amp;AG86</f>
+        <f t="shared" si="11"/>
         <v>LLPPSATGPDATVGGPAPTP</v>
       </c>
       <c r="AI86" s="1" t="s">
@@ -12128,7 +12348,7 @@
         <v>359</v>
       </c>
       <c r="E87" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D87,D87)</f>
+        <f t="shared" si="8"/>
         <v>Q8N1G4</v>
       </c>
       <c r="F87" s="1" t="s">
@@ -12180,11 +12400,11 @@
         <v>360</v>
       </c>
       <c r="V87" s="1" t="str">
-        <f>LEFT(U87,1)</f>
+        <f t="shared" si="9"/>
         <v>D</v>
       </c>
       <c r="W87" s="1" t="str">
-        <f>MID(U87,FIND("(",U87)+1,FIND(")",U87)-FIND("(",U87)-1)</f>
+        <f t="shared" si="10"/>
         <v>525</v>
       </c>
       <c r="X87" s="1" t="s">
@@ -12218,7 +12438,7 @@
         <v>50</v>
       </c>
       <c r="AH87" s="1" t="str">
-        <f>L87&amp;M87&amp;N87&amp;O87&amp;P87&amp;Q87&amp;R87&amp;S87&amp;T87&amp;V87&amp;X87&amp;Y87&amp;Z87&amp;AA87&amp;AB87&amp;AC87&amp;AD87&amp;AE87&amp;AF87&amp;AG87</f>
+        <f t="shared" si="11"/>
         <v>EGSLSDTEADAVSGQLPDPT</v>
       </c>
       <c r="AI87" s="1" t="s">
@@ -12236,7 +12456,7 @@
         <v>201</v>
       </c>
       <c r="E88" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D88,D88)</f>
+        <f t="shared" si="8"/>
         <v>Q9UGP4</v>
       </c>
       <c r="F88" s="1" t="s">
@@ -12288,11 +12508,11 @@
         <v>202</v>
       </c>
       <c r="V88" s="1" t="str">
-        <f>LEFT(U88,1)</f>
+        <f t="shared" si="9"/>
         <v>D</v>
       </c>
       <c r="W88" s="1" t="str">
-        <f>MID(U88,FIND("(",U88)+1,FIND(")",U88)-FIND("(",U88)-1)</f>
+        <f t="shared" si="10"/>
         <v>411</v>
       </c>
       <c r="X88" s="1" t="s">
@@ -12326,7 +12546,7 @@
         <v>44</v>
       </c>
       <c r="AH88" s="1" t="str">
-        <f>L88&amp;M88&amp;N88&amp;O88&amp;P88&amp;Q88&amp;R88&amp;S88&amp;T88&amp;V88&amp;X88&amp;Y88&amp;Z88&amp;AA88&amp;AB88&amp;AC88&amp;AD88&amp;AE88&amp;AF88&amp;AG88</f>
+        <f t="shared" si="11"/>
         <v>KEGPLGWSSDGSL GSVLLDS</v>
       </c>
       <c r="AI88" s="1" t="s">
@@ -12347,7 +12567,7 @@
         <v>72</v>
       </c>
       <c r="E89" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D89,D89)</f>
+        <f t="shared" si="8"/>
         <v>O60488</v>
       </c>
       <c r="F89" s="1" t="s">
@@ -12399,11 +12619,11 @@
         <v>70</v>
       </c>
       <c r="V89" s="1" t="str">
-        <f>LEFT(U89,1)</f>
+        <f t="shared" si="9"/>
         <v>D</v>
       </c>
       <c r="W89" s="1" t="str">
-        <f>MID(U89,FIND("(",U89)+1,FIND(")",U89)-FIND("(",U89)-1)</f>
+        <f t="shared" si="10"/>
         <v>562</v>
       </c>
       <c r="X89" s="1" t="s">
@@ -12437,7 +12657,7 @@
         <v>41</v>
       </c>
       <c r="AH89" s="1" t="str">
-        <f>L89&amp;M89&amp;N89&amp;O89&amp;P89&amp;Q89&amp;R89&amp;S89&amp;T89&amp;V89&amp;X89&amp;Y89&amp;Z89&amp;AA89&amp;AB89&amp;AC89&amp;AD89&amp;AE89&amp;AF89&amp;AG89</f>
+        <f t="shared" si="11"/>
         <v>TGDIGEFHPDGCL QIIDRKK</v>
       </c>
       <c r="AI89" s="1" t="s">
@@ -12456,7 +12676,7 @@
         <v>323</v>
       </c>
       <c r="E90" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D90,D90)</f>
+        <f t="shared" si="8"/>
         <v>P49006</v>
       </c>
       <c r="F90" s="1" t="s">
@@ -12508,11 +12728,11 @@
         <v>324</v>
       </c>
       <c r="V90" s="1" t="str">
-        <f>LEFT(U90,1)</f>
+        <f t="shared" si="9"/>
         <v>D</v>
       </c>
       <c r="W90" s="1" t="str">
-        <f>MID(U90,FIND("(",U90)+1,FIND(")",U90)-FIND("(",U90)-1)</f>
+        <f t="shared" si="10"/>
         <v>63</v>
       </c>
       <c r="X90" s="1" t="s">
@@ -12546,7 +12766,7 @@
         <v>39</v>
       </c>
       <c r="AH90" s="1" t="str">
-        <f>L90&amp;M90&amp;N90&amp;O90&amp;P90&amp;Q90&amp;R90&amp;S90&amp;T90&amp;V90&amp;X90&amp;Y90&amp;Z90&amp;AA90&amp;AB90&amp;AC90&amp;AD90&amp;AE90&amp;AF90&amp;AG90</f>
+        <f t="shared" si="11"/>
         <v>TDEAAGATGDAIEPAPPSQG</v>
       </c>
       <c r="AI90" s="1" t="s">
@@ -12567,7 +12787,7 @@
         <v>92</v>
       </c>
       <c r="E91" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D91,D91)</f>
+        <f t="shared" si="8"/>
         <v>P43243</v>
       </c>
       <c r="F91" s="1" t="s">
@@ -12619,11 +12839,11 @@
         <v>96</v>
       </c>
       <c r="V91" s="1" t="str">
-        <f>LEFT(U91,1)</f>
+        <f t="shared" si="9"/>
         <v>D</v>
       </c>
       <c r="W91" s="1" t="str">
-        <f>MID(U91,FIND("(",U91)+1,FIND(")",U91)-FIND("(",U91)-1)</f>
+        <f t="shared" si="10"/>
         <v>187</v>
       </c>
       <c r="X91" s="1" t="s">
@@ -12657,7 +12877,7 @@
         <v>38</v>
       </c>
       <c r="AH91" s="1" t="str">
-        <f>L91&amp;M91&amp;N91&amp;O91&amp;P91&amp;Q91&amp;R91&amp;S91&amp;T91&amp;V91&amp;X91&amp;Y91&amp;Z91&amp;AA91&amp;AB91&amp;AC91&amp;AD91&amp;AE91&amp;AF91&amp;AG91</f>
+        <f t="shared" si="11"/>
         <v>WEEKRHFRRDSFDDRGPSLN</v>
       </c>
       <c r="AI91" s="1" t="s">
@@ -12678,7 +12898,7 @@
         <v>615</v>
       </c>
       <c r="E92" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D92,D92)</f>
+        <f t="shared" si="8"/>
         <v>Q7Z434</v>
       </c>
       <c r="F92" s="1" t="s">
@@ -12730,11 +12950,11 @@
         <v>367</v>
       </c>
       <c r="V92" s="1" t="str">
-        <f>LEFT(U92,1)</f>
+        <f t="shared" si="9"/>
         <v>D</v>
       </c>
       <c r="W92" s="1" t="str">
-        <f>MID(U92,FIND("(",U92)+1,FIND(")",U92)-FIND("(",U92)-1)</f>
+        <f t="shared" si="10"/>
         <v>429</v>
       </c>
       <c r="X92" s="1" t="s">
@@ -12768,7 +12988,7 @@
         <v>36</v>
       </c>
       <c r="AH92" s="1" t="str">
-        <f>L92&amp;M92&amp;N92&amp;O92&amp;P92&amp;Q92&amp;R92&amp;S92&amp;T92&amp;V92&amp;X92&amp;Y92&amp;Z92&amp;AA92&amp;AB92&amp;AC92&amp;AD92&amp;AE92&amp;AF92&amp;AG92</f>
+        <f t="shared" si="11"/>
         <v>KPGVLASQVDSPFSGCFEDL</v>
       </c>
       <c r="AI92" s="1" t="s">
@@ -12786,7 +13006,7 @@
         <v>225</v>
       </c>
       <c r="E93" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D93,D93)</f>
+        <f t="shared" si="8"/>
         <v>Q8IVL0</v>
       </c>
       <c r="F93" s="1" t="s">
@@ -12838,11 +13058,11 @@
         <v>226</v>
       </c>
       <c r="V93" s="1" t="str">
-        <f>LEFT(U93,1)</f>
+        <f t="shared" si="9"/>
         <v>D</v>
       </c>
       <c r="W93" s="1" t="str">
-        <f>MID(U93,FIND("(",U93)+1,FIND(")",U93)-FIND("(",U93)-1)</f>
+        <f t="shared" si="10"/>
         <v>843</v>
       </c>
       <c r="X93" s="1" t="s">
@@ -12876,7 +13096,7 @@
         <v>36</v>
       </c>
       <c r="AH93" s="1" t="str">
-        <f>L93&amp;M93&amp;N93&amp;O93&amp;P93&amp;Q93&amp;R93&amp;S93&amp;T93&amp;V93&amp;X93&amp;Y93&amp;Z93&amp;AA93&amp;AB93&amp;AC93&amp;AD93&amp;AE93&amp;AF93&amp;AG93</f>
+        <f t="shared" si="11"/>
         <v>DDINSGYMTDGGL NLYTRSL</v>
       </c>
       <c r="AI93" s="1" t="s">
@@ -12894,7 +13114,7 @@
         <v>164</v>
       </c>
       <c r="E94" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D94,D94)</f>
+        <f t="shared" si="8"/>
         <v>Q15233</v>
       </c>
       <c r="F94" s="1" t="s">
@@ -12946,11 +13166,11 @@
         <v>166</v>
       </c>
       <c r="V94" s="1" t="str">
-        <f>LEFT(U94,1)</f>
+        <f t="shared" si="9"/>
         <v>D</v>
       </c>
       <c r="W94" s="1" t="str">
-        <f>MID(U94,FIND("(",U94)+1,FIND(")",U94)-FIND("(",U94)-1)</f>
+        <f t="shared" si="10"/>
         <v>422</v>
       </c>
       <c r="X94" s="1" t="s">
@@ -12984,7 +13204,7 @@
         <v>50</v>
       </c>
       <c r="AH94" s="1" t="str">
-        <f>L94&amp;M94&amp;N94&amp;O94&amp;P94&amp;Q94&amp;R94&amp;S94&amp;T94&amp;V94&amp;X94&amp;Y94&amp;Z94&amp;AA94&amp;AB94&amp;AC94&amp;AD94&amp;AE94&amp;AF94&amp;AG94</f>
+        <f t="shared" si="11"/>
         <v>PPGPATMMPDGTL GLTPPTT</v>
       </c>
       <c r="AI94" s="1" t="s">
@@ -13003,7 +13223,7 @@
         <v>179</v>
       </c>
       <c r="E95" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D95,D95)</f>
+        <f t="shared" si="8"/>
         <v>P80303</v>
       </c>
       <c r="F95" s="1" t="s">
@@ -13055,11 +13275,11 @@
         <v>180</v>
       </c>
       <c r="V95" s="1" t="str">
-        <f>LEFT(U95,1)</f>
+        <f t="shared" si="9"/>
         <v>D</v>
       </c>
       <c r="W95" s="1" t="str">
-        <f>MID(U95,FIND("(",U95)+1,FIND(")",U95)-FIND("(",U95)-1)</f>
+        <f t="shared" si="10"/>
         <v>258</v>
       </c>
       <c r="X95" s="1" t="s">
@@ -13093,7 +13313,7 @@
         <v>33</v>
       </c>
       <c r="AH95" s="1" t="str">
-        <f>L95&amp;M95&amp;N95&amp;O95&amp;P95&amp;Q95&amp;R95&amp;S95&amp;T95&amp;V95&amp;X95&amp;Y95&amp;Z95&amp;AA95&amp;AB95&amp;AC95&amp;AD95&amp;AE95&amp;AF95&amp;AG95</f>
+        <f t="shared" si="11"/>
         <v>FFKLHDVNSDGFL DEQELEA</v>
       </c>
       <c r="AI95" s="1" t="s">
@@ -13112,7 +13332,7 @@
         <v>179</v>
       </c>
       <c r="E96" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D96,D96)</f>
+        <f t="shared" si="8"/>
         <v>P80303</v>
       </c>
       <c r="F96" s="1" t="s">
@@ -13164,11 +13384,11 @@
         <v>295</v>
       </c>
       <c r="V96" s="1" t="str">
-        <f>LEFT(U96,1)</f>
+        <f t="shared" si="9"/>
         <v>D</v>
       </c>
       <c r="W96" s="1" t="str">
-        <f>MID(U96,FIND("(",U96)+1,FIND(")",U96)-FIND("(",U96)-1)</f>
+        <f t="shared" si="10"/>
         <v>237</v>
       </c>
       <c r="X96" s="1" t="s">
@@ -13202,7 +13422,7 @@
         <v>41</v>
       </c>
       <c r="AH96" s="1" t="str">
-        <f>L96&amp;M96&amp;N96&amp;O96&amp;P96&amp;Q96&amp;R96&amp;S96&amp;T96&amp;V96&amp;X96&amp;Y96&amp;Z96&amp;AA96&amp;AB96&amp;AC96&amp;AD96&amp;AE96&amp;AF96&amp;AG96</f>
+        <f t="shared" si="11"/>
         <v>QLKEVWEETDGLDPNDFDPK</v>
       </c>
       <c r="AI96" s="1" t="s">
@@ -13221,7 +13441,7 @@
         <v>109</v>
       </c>
       <c r="E97" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D97,D97)</f>
+        <f t="shared" si="8"/>
         <v>P12270</v>
       </c>
       <c r="F97" s="1" t="s">
@@ -13273,11 +13493,11 @@
         <v>111</v>
       </c>
       <c r="V97" s="1" t="str">
-        <f>LEFT(U97,1)</f>
+        <f t="shared" si="9"/>
         <v>D</v>
       </c>
       <c r="W97" s="1" t="str">
-        <f>MID(U97,FIND("(",U97)+1,FIND(")",U97)-FIND("(",U97)-1)</f>
+        <f t="shared" si="10"/>
         <v>2147</v>
       </c>
       <c r="X97" s="1" t="s">
@@ -13311,7 +13531,7 @@
         <v>42</v>
       </c>
       <c r="AH97" s="1" t="str">
-        <f>L97&amp;M97&amp;N97&amp;O97&amp;P97&amp;Q97&amp;R97&amp;S97&amp;T97&amp;V97&amp;X97&amp;Y97&amp;Z97&amp;AA97&amp;AB97&amp;AC97&amp;AD97&amp;AE97&amp;AF97&amp;AG97</f>
+        <f t="shared" si="11"/>
         <v>PTLVVPHRTDGFAEAIHSPQ</v>
       </c>
       <c r="AI97" s="1" t="s">
@@ -13330,7 +13550,7 @@
         <v>290</v>
       </c>
       <c r="E98" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D98,D98)</f>
+        <f t="shared" ref="E98:E129" si="12">HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D98,D98)</f>
         <v>P55209</v>
       </c>
       <c r="F98" s="1" t="s">
@@ -13382,11 +13602,11 @@
         <v>292</v>
       </c>
       <c r="V98" s="1" t="str">
-        <f>LEFT(U98,1)</f>
+        <f t="shared" ref="V98:V129" si="13">LEFT(U98,1)</f>
         <v>D</v>
       </c>
       <c r="W98" s="1" t="str">
-        <f>MID(U98,FIND("(",U98)+1,FIND(")",U98)-FIND("(",U98)-1)</f>
+        <f t="shared" ref="W98:W129" si="14">MID(U98,FIND("(",U98)+1,FIND(")",U98)-FIND("(",U98)-1)</f>
         <v>57</v>
       </c>
       <c r="X98" s="1" t="s">
@@ -13420,7 +13640,7 @@
         <v>53</v>
       </c>
       <c r="AH98" s="1" t="str">
-        <f>L98&amp;M98&amp;N98&amp;O98&amp;P98&amp;Q98&amp;R98&amp;S98&amp;T98&amp;V98&amp;X98&amp;Y98&amp;Z98&amp;AA98&amp;AB98&amp;AC98&amp;AD98&amp;AE98&amp;AF98&amp;AG98</f>
+        <f t="shared" ref="AH98:AH129" si="15">L98&amp;M98&amp;N98&amp;O98&amp;P98&amp;Q98&amp;R98&amp;S98&amp;T98&amp;V98&amp;X98&amp;Y98&amp;Z98&amp;AA98&amp;AB98&amp;AC98&amp;AD98&amp;AE98&amp;AF98&amp;AG98</f>
         <v>ILAALQERLDGLVETPTGYI</v>
       </c>
       <c r="AI98" s="1" t="s">
@@ -13439,7 +13659,7 @@
         <v>347</v>
       </c>
       <c r="E99" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D99,D99)</f>
+        <f t="shared" si="12"/>
         <v>Q99733</v>
       </c>
       <c r="F99" s="1" t="s">
@@ -13491,11 +13711,11 @@
         <v>288</v>
       </c>
       <c r="V99" s="1" t="str">
-        <f>LEFT(U99,1)</f>
+        <f t="shared" si="13"/>
         <v>D</v>
       </c>
       <c r="W99" s="1" t="str">
-        <f>MID(U99,FIND("(",U99)+1,FIND(")",U99)-FIND("(",U99)-1)</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="X99" s="1" t="s">
@@ -13529,7 +13749,7 @@
         <v>33</v>
       </c>
       <c r="AH99" s="1" t="str">
-        <f>L99&amp;M99&amp;N99&amp;O99&amp;P99&amp;Q99&amp;R99&amp;S99&amp;T99&amp;V99&amp;X99&amp;Y99&amp;Z99&amp;AA99&amp;AB99&amp;AC99&amp;AD99&amp;AE99&amp;AF99&amp;AG99</f>
+        <f t="shared" si="15"/>
         <v>--MADHSFSDGVPSDSVEAA</v>
       </c>
       <c r="AI99" s="1" t="s">
@@ -13550,7 +13770,7 @@
         <v>312</v>
       </c>
       <c r="E100" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D100,D100)</f>
+        <f t="shared" si="12"/>
         <v>O60664</v>
       </c>
       <c r="F100" s="1" t="s">
@@ -13602,11 +13822,11 @@
         <v>313</v>
       </c>
       <c r="V100" s="1" t="str">
-        <f>LEFT(U100,1)</f>
+        <f t="shared" si="13"/>
         <v>D</v>
       </c>
       <c r="W100" s="1" t="str">
-        <f>MID(U100,FIND("(",U100)+1,FIND(")",U100)-FIND("(",U100)-1)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="X100" s="1" t="s">
@@ -13640,7 +13860,7 @@
         <v>40</v>
       </c>
       <c r="AH100" s="1" t="str">
-        <f>L100&amp;M100&amp;N100&amp;O100&amp;P100&amp;Q100&amp;R100&amp;S100&amp;T100&amp;V100&amp;X100&amp;Y100&amp;Z100&amp;AA100&amp;AB100&amp;AC100&amp;AD100&amp;AE100&amp;AF100&amp;AG100</f>
+        <f t="shared" si="15"/>
         <v>-MSADGAEADGSTQVTVEEP</v>
       </c>
       <c r="AI100" s="1" t="s">
@@ -13659,7 +13879,7 @@
         <v>400</v>
       </c>
       <c r="E101" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D101,D101)</f>
+        <f t="shared" si="12"/>
         <v>Q8K2H1</v>
       </c>
       <c r="F101" s="1" t="s">
@@ -13711,11 +13931,11 @@
         <v>409</v>
       </c>
       <c r="V101" s="1" t="str">
-        <f>LEFT(U101,1)</f>
+        <f t="shared" si="13"/>
         <v>D</v>
       </c>
       <c r="W101" s="1" t="str">
-        <f>MID(U101,FIND("(",U101)+1,FIND(")",U101)-FIND("(",U101)-1)</f>
+        <f t="shared" si="14"/>
         <v>291</v>
       </c>
       <c r="X101" s="1" t="s">
@@ -13749,7 +13969,7 @@
         <v>36</v>
       </c>
       <c r="AH101" s="1" t="str">
-        <f>L101&amp;M101&amp;N101&amp;O101&amp;P101&amp;Q101&amp;R101&amp;S101&amp;T101&amp;V101&amp;X101&amp;Y101&amp;Z101&amp;AA101&amp;AB101&amp;AC101&amp;AD101&amp;AE101&amp;AF101&amp;AG101</f>
+        <f t="shared" si="15"/>
         <v>TEEPESNTVDGTELYEDSQL</v>
       </c>
       <c r="AI101" s="1" t="s">
@@ -13768,7 +13988,7 @@
         <v>98</v>
       </c>
       <c r="E102" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D102,D102)</f>
+        <f t="shared" si="12"/>
         <v>Q9UBF8</v>
       </c>
       <c r="F102" s="1" t="s">
@@ -13820,11 +14040,11 @@
         <v>99</v>
       </c>
       <c r="V102" s="1" t="str">
-        <f>LEFT(U102,1)</f>
+        <f t="shared" si="13"/>
         <v>D</v>
       </c>
       <c r="W102" s="1" t="str">
-        <f>MID(U102,FIND("(",U102)+1,FIND(")",U102)-FIND("(",U102)-1)</f>
+        <f t="shared" si="14"/>
         <v>488</v>
       </c>
       <c r="X102" s="1" t="s">
@@ -13858,7 +14078,7 @@
         <v>40</v>
       </c>
       <c r="AH102" s="1" t="str">
-        <f>L102&amp;M102&amp;N102&amp;O102&amp;P102&amp;Q102&amp;R102&amp;S102&amp;T102&amp;V102&amp;X102&amp;Y102&amp;Z102&amp;AA102&amp;AB102&amp;AC102&amp;AD102&amp;AE102&amp;AF102&amp;AG102</f>
+        <f t="shared" si="15"/>
         <v>CDNISQFSVDSITSQESKEP</v>
       </c>
       <c r="AI102" s="1" t="s">
@@ -13877,7 +14097,7 @@
         <v>107</v>
       </c>
       <c r="E103" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D103,D103)</f>
+        <f t="shared" si="12"/>
         <v>Q8NC51</v>
       </c>
       <c r="F103" s="1" t="s">
@@ -13929,11 +14149,11 @@
         <v>108</v>
       </c>
       <c r="V103" s="1" t="str">
-        <f>LEFT(U103,1)</f>
+        <f t="shared" si="13"/>
         <v>D</v>
       </c>
       <c r="W103" s="1" t="str">
-        <f>MID(U103,FIND("(",U103)+1,FIND(")",U103)-FIND("(",U103)-1)</f>
+        <f t="shared" si="14"/>
         <v>337</v>
       </c>
       <c r="X103" s="1" t="s">
@@ -13967,7 +14187,7 @@
         <v>40</v>
       </c>
       <c r="AH103" s="1" t="str">
-        <f>L103&amp;M103&amp;N103&amp;O103&amp;P103&amp;Q103&amp;R103&amp;S103&amp;T103&amp;V103&amp;X103&amp;Y103&amp;Z103&amp;AA103&amp;AB103&amp;AC103&amp;AD103&amp;AE103&amp;AF103&amp;AG103</f>
+        <f t="shared" si="15"/>
         <v>SKSEEAHAEDSVMDHHFRKP</v>
       </c>
       <c r="AI103" s="1" t="s">
@@ -13986,7 +14206,7 @@
         <v>194</v>
       </c>
       <c r="E104" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D104,D104)</f>
+        <f t="shared" si="12"/>
         <v>Q15366</v>
       </c>
       <c r="F104" s="1" t="s">
@@ -14038,11 +14258,11 @@
         <v>195</v>
       </c>
       <c r="V104" s="1" t="str">
-        <f>LEFT(U104,1)</f>
+        <f t="shared" si="13"/>
         <v>D</v>
       </c>
       <c r="W104" s="1" t="str">
-        <f>MID(U104,FIND("(",U104)+1,FIND(")",U104)-FIND("(",U104)-1)</f>
+        <f t="shared" si="14"/>
         <v>282</v>
       </c>
       <c r="X104" s="1" t="s">
@@ -14076,7 +14296,7 @@
         <v>36</v>
       </c>
       <c r="AH104" s="1" t="str">
-        <f>L104&amp;M104&amp;N104&amp;O104&amp;P104&amp;Q104&amp;R104&amp;S104&amp;T104&amp;V104&amp;X104&amp;Y104&amp;Z104&amp;AA104&amp;AB104&amp;AC104&amp;AD104&amp;AE104&amp;AF104&amp;AG104</f>
+        <f t="shared" si="15"/>
         <v>PEVKGYWGLDASAQTTSHEL</v>
       </c>
       <c r="AI104" s="1" t="s">
@@ -14095,7 +14315,7 @@
         <v>633</v>
       </c>
       <c r="E105" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D105,D105)</f>
+        <f t="shared" si="12"/>
         <v>P49768</v>
       </c>
       <c r="F105" s="1" t="s">
@@ -14147,11 +14367,11 @@
         <v>672</v>
       </c>
       <c r="V105" s="1" t="str">
-        <f>LEFT(U105,1)</f>
+        <f t="shared" si="13"/>
         <v>D</v>
       </c>
       <c r="W105" s="1" t="str">
-        <f>MID(U105,FIND("(",U105)+1,FIND(")",U105)-FIND("(",U105)-1)</f>
+        <f t="shared" si="14"/>
         <v>345</v>
       </c>
       <c r="X105" s="1" t="s">
@@ -14185,7 +14405,7 @@
         <v>40</v>
       </c>
       <c r="AH105" s="1" t="str">
-        <f>L105&amp;M105&amp;N105&amp;O105&amp;P105&amp;Q105&amp;R105&amp;S105&amp;T105&amp;V105&amp;X105&amp;Y105&amp;Z105&amp;AA105&amp;AB105&amp;AC105&amp;AD105&amp;AE105&amp;AF105&amp;AG105</f>
+        <f t="shared" si="15"/>
         <v>FSEEWEAQRDSHL GPHRSTP</v>
       </c>
       <c r="AI105" s="1" t="s">
@@ -14203,7 +14423,7 @@
         <v>635</v>
       </c>
       <c r="E106" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D106,D106)</f>
+        <f t="shared" si="12"/>
         <v>P49810</v>
       </c>
       <c r="F106" s="1" t="s">
@@ -14255,11 +14475,11 @@
         <v>163</v>
       </c>
       <c r="V106" s="1" t="str">
-        <f>LEFT(U106,1)</f>
+        <f t="shared" si="13"/>
         <v>D</v>
       </c>
       <c r="W106" s="1" t="str">
-        <f>MID(U106,FIND("(",U106)+1,FIND(")",U106)-FIND("(",U106)-1)</f>
+        <f t="shared" si="14"/>
         <v>329</v>
       </c>
       <c r="X106" s="1" t="s">
@@ -14293,7 +14513,7 @@
         <v>48</v>
       </c>
       <c r="AH106" s="1" t="str">
-        <f>L106&amp;M106&amp;N106&amp;O106&amp;P106&amp;Q106&amp;R106&amp;S106&amp;T106&amp;V106&amp;X106&amp;Y106&amp;Z106&amp;AA106&amp;AB106&amp;AC106&amp;AD106&amp;AE106&amp;AF106&amp;AG106</f>
+        <f t="shared" si="15"/>
         <v>DPEMEEDSYDSFGEPSYPEV</v>
       </c>
       <c r="AI106" s="1" t="s">
@@ -14311,7 +14531,7 @@
         <v>120</v>
       </c>
       <c r="E107" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D107,D107)</f>
+        <f t="shared" si="12"/>
         <v>Q2M2H8</v>
       </c>
       <c r="F107" s="1" t="s">
@@ -14363,11 +14583,11 @@
         <v>121</v>
       </c>
       <c r="V107" s="1" t="str">
-        <f>LEFT(U107,1)</f>
+        <f t="shared" si="13"/>
         <v>D</v>
       </c>
       <c r="W107" s="1" t="str">
-        <f>MID(U107,FIND("(",U107)+1,FIND(")",U107)-FIND("(",U107)-1)</f>
+        <f t="shared" si="14"/>
         <v>363</v>
       </c>
       <c r="X107" s="1" t="s">
@@ -14401,7 +14621,7 @@
         <v>35</v>
       </c>
       <c r="AH107" s="1" t="str">
-        <f>L107&amp;M107&amp;N107&amp;O107&amp;P107&amp;Q107&amp;R107&amp;S107&amp;T107&amp;V107&amp;X107&amp;Y107&amp;Z107&amp;AA107&amp;AB107&amp;AC107&amp;AD107&amp;AE107&amp;AF107&amp;AG107</f>
+        <f t="shared" si="15"/>
         <v>RNRLAEIPYDVQYSDIDYMD</v>
       </c>
       <c r="AI107" s="1" t="s">
@@ -14422,7 +14642,7 @@
         <v>68</v>
       </c>
       <c r="E108" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D108,D108)</f>
+        <f t="shared" si="12"/>
         <v>P30101</v>
       </c>
       <c r="F108" s="1" t="s">
@@ -14474,11 +14694,11 @@
         <v>69</v>
       </c>
       <c r="V108" s="1" t="str">
-        <f>LEFT(U108,1)</f>
+        <f t="shared" si="13"/>
         <v>D</v>
       </c>
       <c r="W108" s="1" t="str">
-        <f>MID(U108,FIND("(",U108)+1,FIND(")",U108)-FIND("(",U108)-1)</f>
+        <f t="shared" si="14"/>
         <v>162</v>
       </c>
       <c r="X108" s="1" t="s">
@@ -14512,7 +14732,7 @@
         <v>36</v>
       </c>
       <c r="AH108" s="1" t="str">
-        <f>L108&amp;M108&amp;N108&amp;O108&amp;P108&amp;Q108&amp;R108&amp;S108&amp;T108&amp;V108&amp;X108&amp;Y108&amp;Z108&amp;AA108&amp;AB108&amp;AC108&amp;AD108&amp;AE108&amp;AF108&amp;AG108</f>
+        <f t="shared" si="15"/>
         <v>DASIVGFFDDSFSEAHSEFL</v>
       </c>
       <c r="AI108" s="1" t="s">
@@ -14531,7 +14751,7 @@
         <v>215</v>
       </c>
       <c r="E109" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D109,D109)</f>
+        <f t="shared" si="12"/>
         <v>Q86V87</v>
       </c>
       <c r="F109" s="1" t="s">
@@ -14583,11 +14803,11 @@
         <v>216</v>
       </c>
       <c r="V109" s="1" t="str">
-        <f>LEFT(U109,1)</f>
+        <f t="shared" si="13"/>
         <v>D</v>
       </c>
       <c r="W109" s="1" t="str">
-        <f>MID(U109,FIND("(",U109)+1,FIND(")",U109)-FIND("(",U109)-1)</f>
+        <f t="shared" si="14"/>
         <v>506</v>
       </c>
       <c r="X109" s="1" t="s">
@@ -14621,7 +14841,7 @@
         <v>40</v>
       </c>
       <c r="AH109" s="1" t="str">
-        <f>L109&amp;M109&amp;N109&amp;O109&amp;P109&amp;Q109&amp;R109&amp;S109&amp;T109&amp;V109&amp;X109&amp;Y109&amp;Z109&amp;AA109&amp;AB109&amp;AC109&amp;AD109&amp;AE109&amp;AF109&amp;AG109</f>
+        <f t="shared" si="15"/>
         <v>DLEEDPYFTDSFL DSGFQTP</v>
       </c>
       <c r="AI109" s="1" t="s">
@@ -14640,7 +14860,7 @@
         <v>523</v>
       </c>
       <c r="E110" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D110,D110)</f>
+        <f t="shared" si="12"/>
         <v>P61244</v>
       </c>
       <c r="F110" s="1" t="s">
@@ -14692,11 +14912,11 @@
         <v>524</v>
       </c>
       <c r="V110" s="1" t="str">
-        <f>LEFT(U110,1)</f>
+        <f t="shared" si="13"/>
         <v>E</v>
       </c>
       <c r="W110" s="1" t="str">
-        <f>MID(U110,FIND("(",U110)+1,FIND(")",U110)-FIND("(",U110)-1)</f>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="X110" s="1" t="s">
@@ -14730,7 +14950,7 @@
         <v>44</v>
       </c>
       <c r="AH110" s="1" t="str">
-        <f>L110&amp;M110&amp;N110&amp;O110&amp;P110&amp;Q110&amp;R110&amp;S110&amp;T110&amp;V110&amp;X110&amp;Y110&amp;Z110&amp;AA110&amp;AB110&amp;AC110&amp;AD110&amp;AE110&amp;AF110&amp;AG110</f>
+        <f t="shared" si="15"/>
         <v>MSDNDDIEVESDEEQPRFQS</v>
       </c>
       <c r="AI110" s="1" t="s">
@@ -14751,7 +14971,7 @@
         <v>320</v>
       </c>
       <c r="E111" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D111,D111)</f>
+        <f t="shared" si="12"/>
         <v>Q92597</v>
       </c>
       <c r="F111" s="1" t="s">
@@ -14803,11 +15023,11 @@
         <v>321</v>
       </c>
       <c r="V111" s="1" t="str">
-        <f>LEFT(U111,1)</f>
+        <f t="shared" si="13"/>
         <v>D</v>
       </c>
       <c r="W111" s="1" t="str">
-        <f>MID(U111,FIND("(",U111)+1,FIND(")",U111)-FIND("(",U111)-1)</f>
+        <f t="shared" si="14"/>
         <v>189</v>
       </c>
       <c r="X111" s="1" t="s">
@@ -14841,7 +15061,7 @@
         <v>32</v>
       </c>
       <c r="AH111" s="1" t="str">
-        <f>L111&amp;M111&amp;N111&amp;O111&amp;P111&amp;Q111&amp;R111&amp;S111&amp;T111&amp;V111&amp;X111&amp;Y111&amp;Z111&amp;AA111&amp;AB111&amp;AC111&amp;AD111&amp;AE111&amp;AF111&amp;AG111</f>
+        <f t="shared" si="15"/>
         <v>ISGWTQALPDMVVSHLFGKE</v>
       </c>
       <c r="AI111" s="1" t="s">
@@ -14862,7 +15082,7 @@
         <v>160</v>
       </c>
       <c r="E112" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D112,D112)</f>
+        <f t="shared" si="12"/>
         <v>Q99590</v>
       </c>
       <c r="F112" s="1" t="s">
@@ -14914,11 +15134,11 @@
         <v>529</v>
       </c>
       <c r="V112" s="1" t="str">
-        <f>LEFT(U112,1)</f>
+        <f t="shared" si="13"/>
         <v>D</v>
       </c>
       <c r="W112" s="1" t="str">
-        <f>MID(U112,FIND("(",U112)+1,FIND(")",U112)-FIND("(",U112)-1)</f>
+        <f t="shared" si="14"/>
         <v>722</v>
       </c>
       <c r="X112" s="1" t="s">
@@ -14952,7 +15172,7 @@
         <v>32</v>
       </c>
       <c r="AH112" s="1" t="str">
-        <f>L112&amp;M112&amp;N112&amp;O112&amp;P112&amp;Q112&amp;R112&amp;S112&amp;T112&amp;V112&amp;X112&amp;Y112&amp;Z112&amp;AA112&amp;AB112&amp;AC112&amp;AD112&amp;AE112&amp;AF112&amp;AG112</f>
+        <f t="shared" si="15"/>
         <v>NNEMIPMECDSFCSDQNESE</v>
       </c>
       <c r="AI112" s="1" t="s">
@@ -14973,7 +15193,7 @@
         <v>376</v>
       </c>
       <c r="E113" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D113,D113)</f>
+        <f t="shared" si="12"/>
         <v>Q5RJH6</v>
       </c>
       <c r="F113" s="1" t="s">
@@ -15025,11 +15245,11 @@
         <v>385</v>
       </c>
       <c r="V113" s="1" t="str">
-        <f>LEFT(U113,1)</f>
+        <f t="shared" si="13"/>
         <v>D</v>
       </c>
       <c r="W113" s="1" t="str">
-        <f>MID(U113,FIND("(",U113)+1,FIND(")",U113)-FIND("(",U113)-1)</f>
+        <f t="shared" si="14"/>
         <v>517</v>
       </c>
       <c r="X113" s="1" t="s">
@@ -15063,7 +15283,7 @@
         <v>44</v>
       </c>
       <c r="AH113" s="1" t="str">
-        <f>L113&amp;M113&amp;N113&amp;O113&amp;P113&amp;Q113&amp;R113&amp;S113&amp;T113&amp;V113&amp;X113&amp;Y113&amp;Z113&amp;AA113&amp;AB113&amp;AC113&amp;AD113&amp;AE113&amp;AF113&amp;AG113</f>
+        <f t="shared" si="15"/>
         <v>TSVVESLATDGSPGLKSVLS</v>
       </c>
       <c r="AI113" s="1" t="s">
@@ -15082,7 +15302,7 @@
         <v>415</v>
       </c>
       <c r="E114" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D114,D114)</f>
+        <f t="shared" si="12"/>
         <v>P26350</v>
       </c>
       <c r="F114" s="1" t="s">
@@ -15134,11 +15354,11 @@
         <v>419</v>
       </c>
       <c r="V114" s="1" t="str">
-        <f>LEFT(U114,1)</f>
+        <f t="shared" si="13"/>
         <v>E</v>
       </c>
       <c r="W114" s="1" t="str">
-        <f>MID(U114,FIND("(",U114)+1,FIND(")",U114)-FIND("(",U114)-1)</f>
+        <f t="shared" si="14"/>
         <v>67</v>
       </c>
       <c r="X114" s="1" t="s">
@@ -15172,7 +15392,7 @@
         <v>39</v>
       </c>
       <c r="AH114" s="1" t="str">
-        <f>L114&amp;M114&amp;N114&amp;O114&amp;P114&amp;Q114&amp;R114&amp;S114&amp;T114&amp;V114&amp;X114&amp;Y114&amp;Z114&amp;AA114&amp;AB114&amp;AC114&amp;AD114&amp;AE114&amp;AF114&amp;AG114</f>
+        <f t="shared" si="15"/>
         <v>EEGGEEEEEEEEGDGEEEDG</v>
       </c>
       <c r="AI114" s="1" t="s">
@@ -15193,7 +15413,7 @@
         <v>62</v>
       </c>
       <c r="E115" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D115,D115)</f>
+        <f t="shared" si="12"/>
         <v>O15553</v>
       </c>
       <c r="F115" s="1" t="s">
@@ -15245,11 +15465,11 @@
         <v>64</v>
       </c>
       <c r="V115" s="1" t="str">
-        <f>LEFT(U115,1)</f>
+        <f t="shared" si="13"/>
         <v>D</v>
       </c>
       <c r="W115" s="1" t="str">
-        <f>MID(U115,FIND("(",U115)+1,FIND(")",U115)-FIND("(",U115)-1)</f>
+        <f t="shared" si="14"/>
         <v>330</v>
       </c>
       <c r="X115" s="1" t="s">
@@ -15283,7 +15503,7 @@
         <v>39</v>
       </c>
       <c r="AH115" s="1" t="str">
-        <f>L115&amp;M115&amp;N115&amp;O115&amp;P115&amp;Q115&amp;R115&amp;S115&amp;T115&amp;V115&amp;X115&amp;Y115&amp;Z115&amp;AA115&amp;AB115&amp;AC115&amp;AD115&amp;AE115&amp;AF115&amp;AG115</f>
+        <f t="shared" si="15"/>
         <v>DPVDGTCVRDSCSFPEAVSG</v>
       </c>
       <c r="AI115" s="1" t="s">
@@ -15304,7 +15524,7 @@
         <v>287</v>
       </c>
       <c r="E116" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D116,D116)</f>
+        <f t="shared" si="12"/>
         <v>P46940</v>
       </c>
       <c r="F116" s="1" t="s">
@@ -15356,11 +15576,11 @@
         <v>288</v>
       </c>
       <c r="V116" s="1" t="str">
-        <f>LEFT(U116,1)</f>
+        <f t="shared" si="13"/>
         <v>D</v>
       </c>
       <c r="W116" s="1" t="str">
-        <f>MID(U116,FIND("(",U116)+1,FIND(")",U116)-FIND("(",U116)-1)</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="X116" s="1" t="s">
@@ -15394,7 +15614,7 @@
         <v>39</v>
       </c>
       <c r="AH116" s="1" t="str">
-        <f>L116&amp;M116&amp;N116&amp;O116&amp;P116&amp;Q116&amp;R116&amp;S116&amp;T116&amp;V116&amp;X116&amp;Y116&amp;Z116&amp;AA116&amp;AB116&amp;AC116&amp;AD116&amp;AE116&amp;AF116&amp;AG116</f>
+        <f t="shared" si="15"/>
         <v>--MSAADEVDGLGVARPHYG</v>
       </c>
       <c r="AI116" s="1" t="s">
@@ -15413,7 +15633,7 @@
         <v>218</v>
       </c>
       <c r="E117" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D117,D117)</f>
+        <f t="shared" si="12"/>
         <v>Q15293</v>
       </c>
       <c r="F117" s="1" t="s">
@@ -15465,11 +15685,11 @@
         <v>219</v>
       </c>
       <c r="V117" s="1" t="str">
-        <f>LEFT(U117,1)</f>
+        <f t="shared" si="13"/>
         <v>D</v>
       </c>
       <c r="W117" s="1" t="str">
-        <f>MID(U117,FIND("(",U117)+1,FIND(")",U117)-FIND("(",U117)-1)</f>
+        <f t="shared" si="14"/>
         <v>231</v>
       </c>
       <c r="X117" s="1" t="s">
@@ -15503,7 +15723,7 @@
         <v>32</v>
       </c>
       <c r="AH117" s="1" t="str">
-        <f>L117&amp;M117&amp;N117&amp;O117&amp;P117&amp;Q117&amp;R117&amp;S117&amp;T117&amp;V117&amp;X117&amp;Y117&amp;Z117&amp;AA117&amp;AB117&amp;AC117&amp;AD117&amp;AE117&amp;AF117&amp;AG117</f>
+        <f t="shared" si="15"/>
         <v>FVDQDEYIADMFSHEENGPE</v>
       </c>
       <c r="AI117" s="1" t="s">
@@ -15522,7 +15742,7 @@
         <v>303</v>
       </c>
       <c r="E118" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D118,D118)</f>
+        <f t="shared" si="12"/>
         <v>Q92541</v>
       </c>
       <c r="F118" s="1" t="s">
@@ -15574,11 +15794,11 @@
         <v>288</v>
       </c>
       <c r="V118" s="1" t="str">
-        <f>LEFT(U118,1)</f>
+        <f t="shared" si="13"/>
         <v>D</v>
       </c>
       <c r="W118" s="1" t="str">
-        <f>MID(U118,FIND("(",U118)+1,FIND(")",U118)-FIND("(",U118)-1)</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="X118" s="1" t="s">
@@ -15612,7 +15832,7 @@
         <v>32</v>
       </c>
       <c r="AH118" s="1" t="str">
-        <f>L118&amp;M118&amp;N118&amp;O118&amp;P118&amp;Q118&amp;R118&amp;S118&amp;T118&amp;V118&amp;X118&amp;Y118&amp;Z118&amp;AA118&amp;AB118&amp;AC118&amp;AD118&amp;AE118&amp;AF118&amp;AG118</f>
+        <f t="shared" si="15"/>
         <v>SSSEDEEFHDGYGEDLMGDE</v>
       </c>
       <c r="AI118" s="1" t="s">
@@ -15633,7 +15853,7 @@
         <v>350</v>
       </c>
       <c r="E119" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D119,D119)</f>
+        <f t="shared" si="12"/>
         <v>P49756</v>
       </c>
       <c r="F119" s="1" t="s">
@@ -15685,11 +15905,11 @@
         <v>452</v>
       </c>
       <c r="V119" s="1" t="str">
-        <f>LEFT(U119,1)</f>
+        <f t="shared" si="13"/>
         <v>D</v>
       </c>
       <c r="W119" s="1" t="str">
-        <f>MID(U119,FIND("(",U119)+1,FIND(")",U119)-FIND("(",U119)-1)</f>
+        <f t="shared" si="14"/>
         <v>763</v>
       </c>
       <c r="X119" s="1" t="s">
@@ -15723,7 +15943,7 @@
         <v>40</v>
       </c>
       <c r="AH119" s="1" t="str">
-        <f>L119&amp;M119&amp;N119&amp;O119&amp;P119&amp;Q119&amp;R119&amp;S119&amp;T119&amp;V119&amp;X119&amp;Y119&amp;Z119&amp;AA119&amp;AB119&amp;AC119&amp;AD119&amp;AE119&amp;AF119&amp;AG119</f>
+        <f t="shared" si="15"/>
         <v>AYPLDWSIVDSIL MERRIRP</v>
       </c>
       <c r="AI119" s="1" t="s">
@@ -15744,7 +15964,7 @@
         <v>207</v>
       </c>
       <c r="E120" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D120,D120)</f>
+        <f t="shared" si="12"/>
         <v>Q5T8P6</v>
       </c>
       <c r="F120" s="1" t="s">
@@ -15796,11 +16016,11 @@
         <v>208</v>
       </c>
       <c r="V120" s="1" t="str">
-        <f>LEFT(U120,1)</f>
+        <f t="shared" si="13"/>
         <v>D</v>
       </c>
       <c r="W120" s="1" t="str">
-        <f>MID(U120,FIND("(",U120)+1,FIND(")",U120)-FIND("(",U120)-1)</f>
+        <f t="shared" si="14"/>
         <v>431</v>
       </c>
       <c r="X120" s="1" t="s">
@@ -15834,7 +16054,7 @@
         <v>50</v>
       </c>
       <c r="AH120" s="1" t="str">
-        <f>L120&amp;M120&amp;N120&amp;O120&amp;P120&amp;Q120&amp;R120&amp;S120&amp;T120&amp;V120&amp;X120&amp;Y120&amp;Z120&amp;AA120&amp;AB120&amp;AC120&amp;AD120&amp;AE120&amp;AF120&amp;AG120</f>
+        <f t="shared" si="15"/>
         <v>LFTADTYDTDGYNPEAPSIT</v>
       </c>
       <c r="AI120" s="1" t="s">
@@ -15855,7 +16075,7 @@
         <v>213</v>
       </c>
       <c r="E121" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D121,D121)</f>
+        <f t="shared" si="12"/>
         <v>Q9P2N5</v>
       </c>
       <c r="F121" s="1" t="s">
@@ -15907,11 +16127,11 @@
         <v>214</v>
       </c>
       <c r="V121" s="1" t="str">
-        <f>LEFT(U121,1)</f>
+        <f t="shared" si="13"/>
         <v>D</v>
       </c>
       <c r="W121" s="1" t="str">
-        <f>MID(U121,FIND("(",U121)+1,FIND(")",U121)-FIND("(",U121)-1)</f>
+        <f t="shared" si="14"/>
         <v>487</v>
       </c>
       <c r="X121" s="1" t="s">
@@ -15945,7 +16165,7 @@
         <v>50</v>
       </c>
       <c r="AH121" s="1" t="str">
-        <f>L121&amp;M121&amp;N121&amp;O121&amp;P121&amp;Q121&amp;R121&amp;S121&amp;T121&amp;V121&amp;X121&amp;Y121&amp;Z121&amp;AA121&amp;AB121&amp;AC121&amp;AD121&amp;AE121&amp;AF121&amp;AG121</f>
+        <f t="shared" si="15"/>
         <v>PLVPDTYEPDGYNPEAPSIT</v>
       </c>
       <c r="AI121" s="1" t="s">
@@ -15966,7 +16186,7 @@
         <v>309</v>
       </c>
       <c r="E122" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D122,D122)</f>
+        <f t="shared" si="12"/>
         <v>Q9Y5S9</v>
       </c>
       <c r="F122" s="1" t="s">
@@ -16018,11 +16238,11 @@
         <v>307</v>
       </c>
       <c r="V122" s="1" t="str">
-        <f>LEFT(U122,1)</f>
+        <f t="shared" si="13"/>
         <v>D</v>
       </c>
       <c r="W122" s="1" t="str">
-        <f>MID(U122,FIND("(",U122)+1,FIND(")",U122)-FIND("(",U122)-1)</f>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="X122" s="1" t="s">
@@ -16056,7 +16276,7 @@
         <v>33</v>
       </c>
       <c r="AH122" s="1" t="str">
-        <f>L122&amp;M122&amp;N122&amp;O122&amp;P122&amp;Q122&amp;R122&amp;S122&amp;T122&amp;V122&amp;X122&amp;Y122&amp;Z122&amp;AA122&amp;AB122&amp;AC122&amp;AD122&amp;AE122&amp;AF122&amp;AG122</f>
+        <f t="shared" si="15"/>
         <v>----MADVLDLHEAGGEDFA</v>
       </c>
       <c r="AI122" s="1" t="s">
@@ -16075,7 +16295,7 @@
         <v>162</v>
       </c>
       <c r="E123" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D123,D123)</f>
+        <f t="shared" si="12"/>
         <v>Q13501</v>
       </c>
       <c r="F123" s="1" t="s">
@@ -16127,11 +16347,11 @@
         <v>163</v>
       </c>
       <c r="V123" s="1" t="str">
-        <f>LEFT(U123,1)</f>
+        <f t="shared" si="13"/>
         <v>D</v>
       </c>
       <c r="W123" s="1" t="str">
-        <f>MID(U123,FIND("(",U123)+1,FIND(")",U123)-FIND("(",U123)-1)</f>
+        <f t="shared" si="14"/>
         <v>329</v>
       </c>
       <c r="X123" s="1" t="s">
@@ -16165,7 +16385,7 @@
         <v>50</v>
       </c>
       <c r="AH123" s="1" t="str">
-        <f>L123&amp;M123&amp;N123&amp;O123&amp;P123&amp;Q123&amp;R123&amp;S123&amp;T123&amp;V123&amp;X123&amp;Y123&amp;Z123&amp;AA123&amp;AB123&amp;AC123&amp;AD123&amp;AE123&amp;AF123&amp;AG123</f>
+        <f t="shared" si="15"/>
         <v>GRPEEQMESDNCSGGDDDWT</v>
       </c>
       <c r="AI123" s="1" t="s">
@@ -16186,7 +16406,7 @@
         <v>115</v>
       </c>
       <c r="E124" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D124,D124)</f>
+        <f t="shared" si="12"/>
         <v>Q96IZ7</v>
       </c>
       <c r="F124" s="1" t="s">
@@ -16238,11 +16458,11 @@
         <v>116</v>
       </c>
       <c r="V124" s="1" t="str">
-        <f>LEFT(U124,1)</f>
+        <f t="shared" si="13"/>
         <v>D</v>
       </c>
       <c r="W124" s="1" t="str">
-        <f>MID(U124,FIND("(",U124)+1,FIND(")",U124)-FIND("(",U124)-1)</f>
+        <f t="shared" si="14"/>
         <v>238</v>
       </c>
       <c r="X124" s="1" t="s">
@@ -16276,7 +16496,7 @@
         <v>44</v>
       </c>
       <c r="AH124" s="1" t="str">
-        <f>L124&amp;M124&amp;N124&amp;O124&amp;P124&amp;Q124&amp;R124&amp;S124&amp;T124&amp;V124&amp;X124&amp;Y124&amp;Z124&amp;AA124&amp;AB124&amp;AC124&amp;AD124&amp;AE124&amp;AF124&amp;AG124</f>
+        <f t="shared" si="15"/>
         <v>VKEIEAIESDSFVQQTFRSS</v>
       </c>
       <c r="AI124" s="1" t="s">
@@ -16297,7 +16517,7 @@
         <v>262</v>
       </c>
       <c r="E125" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D125,D125)</f>
+        <f t="shared" si="12"/>
         <v>O15084</v>
       </c>
       <c r="F125" s="1" t="s">
@@ -16349,11 +16569,11 @@
         <v>426</v>
       </c>
       <c r="V125" s="1" t="str">
-        <f>LEFT(U125,1)</f>
+        <f t="shared" si="13"/>
         <v>D</v>
       </c>
       <c r="W125" s="1" t="str">
-        <f>MID(U125,FIND("(",U125)+1,FIND(")",U125)-FIND("(",U125)-1)</f>
+        <f t="shared" si="14"/>
         <v>703</v>
       </c>
       <c r="X125" s="1" t="s">
@@ -16387,7 +16607,7 @@
         <v>36</v>
       </c>
       <c r="AH125" s="1" t="str">
-        <f>L125&amp;M125&amp;N125&amp;O125&amp;P125&amp;Q125&amp;R125&amp;S125&amp;T125&amp;V125&amp;X125&amp;Y125&amp;Z125&amp;AA125&amp;AB125&amp;AC125&amp;AD125&amp;AE125&amp;AF125&amp;AG125</f>
+        <f t="shared" si="15"/>
         <v>AVTGHEECVDALL QHGAKCL</v>
       </c>
       <c r="AI125" s="1" t="s">
@@ -16408,7 +16628,7 @@
         <v>518</v>
       </c>
       <c r="E126" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D126,D126)</f>
+        <f t="shared" si="12"/>
         <v>Q13813</v>
       </c>
       <c r="F126" s="1" t="s">
@@ -16460,11 +16680,11 @@
         <v>517</v>
       </c>
       <c r="V126" s="1" t="str">
-        <f>LEFT(U126,1)</f>
+        <f t="shared" si="13"/>
         <v>D</v>
       </c>
       <c r="W126" s="1" t="str">
-        <f>MID(U126,FIND("(",U126)+1,FIND(")",U126)-FIND("(",U126)-1)</f>
+        <f t="shared" si="14"/>
         <v>1185</v>
       </c>
       <c r="X126" s="1" t="s">
@@ -16498,7 +16718,7 @@
         <v>33</v>
       </c>
       <c r="AH126" s="1" t="str">
-        <f>L126&amp;M126&amp;N126&amp;O126&amp;P126&amp;Q126&amp;R126&amp;S126&amp;T126&amp;V126&amp;X126&amp;Y126&amp;Z126&amp;AA126&amp;AB126&amp;AC126&amp;AD126&amp;AE126&amp;AF126&amp;AG126</f>
+        <f t="shared" si="15"/>
         <v>YGMMPRDETDSKTASPWKSA</v>
       </c>
       <c r="AI126" s="1" t="s">
@@ -16516,7 +16736,7 @@
         <v>168</v>
       </c>
       <c r="E127" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D127,D127)</f>
+        <f t="shared" si="12"/>
         <v>P26368</v>
       </c>
       <c r="F127" s="1" t="s">
@@ -16568,11 +16788,11 @@
         <v>139</v>
       </c>
       <c r="V127" s="1" t="str">
-        <f>LEFT(U127,1)</f>
+        <f t="shared" si="13"/>
         <v>D</v>
       </c>
       <c r="W127" s="1" t="str">
-        <f>MID(U127,FIND("(",U127)+1,FIND(")",U127)-FIND("(",U127)-1)</f>
+        <f t="shared" si="14"/>
         <v>128</v>
       </c>
       <c r="X127" s="1" t="s">
@@ -16606,7 +16826,7 @@
         <v>40</v>
       </c>
       <c r="AH127" s="1" t="str">
-        <f>L127&amp;M127&amp;N127&amp;O127&amp;P127&amp;Q127&amp;R127&amp;S127&amp;T127&amp;V127&amp;X127&amp;Y127&amp;Z127&amp;AA127&amp;AB127&amp;AC127&amp;AD127&amp;AE127&amp;AF127&amp;AG127</f>
+        <f t="shared" si="15"/>
         <v>TALLPTMTPDGLAVTPTPVP</v>
       </c>
       <c r="AI127" s="1" t="s">
@@ -16627,7 +16847,7 @@
         <v>168</v>
       </c>
       <c r="E128" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D128,D128)</f>
+        <f t="shared" si="12"/>
         <v>P26368</v>
       </c>
       <c r="F128" s="1" t="s">
@@ -16679,11 +16899,11 @@
         <v>139</v>
       </c>
       <c r="V128" s="1" t="str">
-        <f>LEFT(U128,1)</f>
+        <f t="shared" si="13"/>
         <v>D</v>
       </c>
       <c r="W128" s="1" t="str">
-        <f>MID(U128,FIND("(",U128)+1,FIND(")",U128)-FIND("(",U128)-1)</f>
+        <f t="shared" si="14"/>
         <v>128</v>
       </c>
       <c r="X128" s="1" t="s">
@@ -16717,7 +16937,7 @@
         <v>40</v>
       </c>
       <c r="AH128" s="1" t="str">
-        <f>L128&amp;M128&amp;N128&amp;O128&amp;P128&amp;Q128&amp;R128&amp;S128&amp;T128&amp;V128&amp;X128&amp;Y128&amp;Z128&amp;AA128&amp;AB128&amp;AC128&amp;AD128&amp;AE128&amp;AF128&amp;AG128</f>
+        <f t="shared" si="15"/>
         <v>TALLPTMTPDGLAVTPTPVP</v>
       </c>
       <c r="AI128" s="1" t="s">
@@ -16738,7 +16958,7 @@
         <v>416</v>
       </c>
       <c r="E129" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D129,D129)</f>
+        <f t="shared" si="12"/>
         <v>O54988</v>
       </c>
       <c r="F129" s="1" t="s">
@@ -16790,11 +17010,11 @@
         <v>420</v>
       </c>
       <c r="V129" s="1" t="str">
-        <f>LEFT(U129,1)</f>
+        <f t="shared" si="13"/>
         <v>E</v>
       </c>
       <c r="W129" s="1" t="str">
-        <f>MID(U129,FIND("(",U129)+1,FIND(")",U129)-FIND("(",U129)-1)</f>
+        <f t="shared" si="14"/>
         <v>667</v>
       </c>
       <c r="X129" s="1" t="s">
@@ -16828,7 +17048,7 @@
         <v>36</v>
       </c>
       <c r="AH129" s="1" t="str">
-        <f>L129&amp;M129&amp;N129&amp;O129&amp;P129&amp;Q129&amp;R129&amp;S129&amp;T129&amp;V129&amp;X129&amp;Y129&amp;Z129&amp;AA129&amp;AB129&amp;AC129&amp;AD129&amp;AE129&amp;AF129&amp;AG129</f>
+        <f t="shared" si="15"/>
         <v>GAEARALGSEGEAAATEVDL</v>
       </c>
       <c r="AI129" s="1" t="s">
@@ -16849,7 +17069,7 @@
         <v>646</v>
       </c>
       <c r="E130" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D130,D130)</f>
+        <f t="shared" ref="E130:E182" si="16">HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D130,D130)</f>
         <v>P36956</v>
       </c>
       <c r="F130" s="1" t="s">
@@ -16901,11 +17121,11 @@
         <v>661</v>
       </c>
       <c r="V130" s="1" t="str">
-        <f>LEFT(U130,1)</f>
+        <f t="shared" ref="V130:V182" si="17">LEFT(U130,1)</f>
         <v>D</v>
       </c>
       <c r="W130" s="1" t="str">
-        <f>MID(U130,FIND("(",U130)+1,FIND(")",U130)-FIND("(",U130)-1)</f>
+        <f t="shared" ref="W130:W159" si="18">MID(U130,FIND("(",U130)+1,FIND(")",U130)-FIND("(",U130)-1)</f>
         <v>460</v>
       </c>
       <c r="X130" s="1" t="s">
@@ -16939,7 +17159,7 @@
         <v>41</v>
       </c>
       <c r="AH130" s="1" t="str">
-        <f>L130&amp;M130&amp;N130&amp;O130&amp;P130&amp;Q130&amp;R130&amp;S130&amp;T130&amp;V130&amp;X130&amp;Y130&amp;Z130&amp;AA130&amp;AB130&amp;AC130&amp;AD130&amp;AE130&amp;AF130&amp;AG130</f>
+        <f t="shared" ref="AH130:AH182" si="19">L130&amp;M130&amp;N130&amp;O130&amp;P130&amp;Q130&amp;R130&amp;S130&amp;T130&amp;V130&amp;X130&amp;Y130&amp;Z130&amp;AA130&amp;AB130&amp;AC130&amp;AD130&amp;AE130&amp;AF130&amp;AG130</f>
         <v>GGSGSDSEPDSPVFEDSKAK</v>
       </c>
       <c r="AI130" s="1" t="s">
@@ -16957,7 +17177,7 @@
         <v>648</v>
       </c>
       <c r="E131" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D131,D131)</f>
+        <f t="shared" si="16"/>
         <v>Q12772</v>
       </c>
       <c r="F131" s="1" t="s">
@@ -17009,11 +17229,11 @@
         <v>662</v>
       </c>
       <c r="V131" s="1" t="str">
-        <f>LEFT(U131,1)</f>
+        <f t="shared" si="17"/>
         <v>D</v>
       </c>
       <c r="W131" s="1" t="str">
-        <f>MID(U131,FIND("(",U131)+1,FIND(")",U131)-FIND("(",U131)-1)</f>
+        <f t="shared" si="18"/>
         <v>468</v>
       </c>
       <c r="X131" s="1" t="s">
@@ -17047,7 +17267,7 @@
         <v>35</v>
       </c>
       <c r="AH131" s="1" t="str">
-        <f>L131&amp;M131&amp;N131&amp;O131&amp;P131&amp;Q131&amp;R131&amp;S131&amp;T131&amp;V131&amp;X131&amp;Y131&amp;Z131&amp;AA131&amp;AB131&amp;AC131&amp;AD131&amp;AE131&amp;AF131&amp;AG131</f>
+        <f t="shared" si="19"/>
         <v>DDAKVKDEPDSPPVALGMVD</v>
       </c>
       <c r="AI131" s="1" t="s">
@@ -17065,7 +17285,7 @@
         <v>349</v>
       </c>
       <c r="E132" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D132,D132)</f>
+        <f t="shared" si="16"/>
         <v>P00441</v>
       </c>
       <c r="F132" s="1" t="s">
@@ -17117,11 +17337,11 @@
         <v>87</v>
       </c>
       <c r="V132" s="1" t="str">
-        <f>LEFT(U132,1)</f>
+        <f t="shared" si="17"/>
         <v>D</v>
       </c>
       <c r="W132" s="1" t="str">
-        <f>MID(U132,FIND("(",U132)+1,FIND(")",U132)-FIND("(",U132)-1)</f>
+        <f t="shared" si="18"/>
         <v>102</v>
       </c>
       <c r="X132" s="1" t="s">
@@ -17155,7 +17375,7 @@
         <v>43</v>
       </c>
       <c r="AH132" s="1" t="str">
-        <f>L132&amp;M132&amp;N132&amp;O132&amp;P132&amp;Q132&amp;R132&amp;S132&amp;T132&amp;V132&amp;X132&amp;Y132&amp;Z132&amp;AA132&amp;AB132&amp;AC132&amp;AD132&amp;AE132&amp;AF132&amp;AG132</f>
+        <f t="shared" si="19"/>
         <v>DGVADVSIEDSVISLSGDHC</v>
       </c>
       <c r="AI132" s="1" t="s">
@@ -17173,7 +17393,7 @@
         <v>204</v>
       </c>
       <c r="E133" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D133,D133)</f>
+        <f t="shared" si="16"/>
         <v>Q9Y5Y6</v>
       </c>
       <c r="F133" s="1" t="s">
@@ -17225,11 +17445,11 @@
         <v>205</v>
       </c>
       <c r="V133" s="1" t="str">
-        <f>LEFT(U133,1)</f>
+        <f t="shared" si="17"/>
         <v>D</v>
       </c>
       <c r="W133" s="1" t="str">
-        <f>MID(U133,FIND("(",U133)+1,FIND(")",U133)-FIND("(",U133)-1)</f>
+        <f t="shared" si="18"/>
         <v>509</v>
       </c>
       <c r="X133" s="1" t="s">
@@ -17263,7 +17483,7 @@
         <v>35</v>
       </c>
       <c r="AH133" s="1" t="str">
-        <f>L133&amp;M133&amp;N133&amp;O133&amp;P133&amp;Q133&amp;R133&amp;S133&amp;T133&amp;V133&amp;X133&amp;Y133&amp;Z133&amp;AA133&amp;AB133&amp;AC133&amp;AD133&amp;AE133&amp;AF133&amp;AG133</f>
+        <f t="shared" si="19"/>
         <v>FCKPLFWVCDSVNDCGDNSD</v>
       </c>
       <c r="AI133" s="1" t="s">
@@ -17282,7 +17502,7 @@
         <v>100</v>
       </c>
       <c r="E134" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D134,D134)</f>
+        <f t="shared" si="16"/>
         <v>Q96A49</v>
       </c>
       <c r="F134" s="1" t="s">
@@ -17334,11 +17554,11 @@
         <v>101</v>
       </c>
       <c r="V134" s="1" t="str">
-        <f>LEFT(U134,1)</f>
+        <f t="shared" si="17"/>
         <v>D</v>
       </c>
       <c r="W134" s="1" t="str">
-        <f>MID(U134,FIND("(",U134)+1,FIND(")",U134)-FIND("(",U134)-1)</f>
+        <f t="shared" si="18"/>
         <v>278</v>
       </c>
       <c r="X134" s="1" t="s">
@@ -17372,7 +17592,7 @@
         <v>32</v>
       </c>
       <c r="AH134" s="1" t="str">
-        <f>L134&amp;M134&amp;N134&amp;O134&amp;P134&amp;Q134&amp;R134&amp;S134&amp;T134&amp;V134&amp;X134&amp;Y134&amp;Z134&amp;AA134&amp;AB134&amp;AC134&amp;AD134&amp;AE134&amp;AF134&amp;AG134</f>
+        <f t="shared" si="19"/>
         <v>SPGVSEFVSDAFDACNLNQE</v>
       </c>
       <c r="AI134" s="1" t="s">
@@ -17393,7 +17613,7 @@
         <v>398</v>
       </c>
       <c r="E135" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D135,D135)</f>
+        <f t="shared" si="16"/>
         <v>O88746</v>
       </c>
       <c r="F135" s="1" t="s">
@@ -17445,11 +17665,11 @@
         <v>407</v>
       </c>
       <c r="V135" s="1" t="str">
-        <f>LEFT(U135,1)</f>
+        <f t="shared" si="17"/>
         <v>D</v>
       </c>
       <c r="W135" s="1" t="str">
-        <f>MID(U135,FIND("(",U135)+1,FIND(")",U135)-FIND("(",U135)-1)</f>
+        <f t="shared" si="18"/>
         <v>324</v>
       </c>
       <c r="X135" s="1" t="s">
@@ -17483,7 +17703,7 @@
         <v>38</v>
       </c>
       <c r="AH135" s="1" t="str">
-        <f>L135&amp;M135&amp;N135&amp;O135&amp;P135&amp;Q135&amp;R135&amp;S135&amp;T135&amp;V135&amp;X135&amp;Y135&amp;Z135&amp;AA135&amp;AB135&amp;AC135&amp;AD135&amp;AE135&amp;AF135&amp;AG135</f>
+        <f t="shared" si="19"/>
         <v>EAELATDLIDMGPDPAATNN</v>
       </c>
       <c r="AI135" s="1" t="s">
@@ -17502,7 +17722,7 @@
         <v>198</v>
       </c>
       <c r="E136" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D136,D136)</f>
+        <f t="shared" si="16"/>
         <v>Q86V81</v>
       </c>
       <c r="F136" s="1" t="s">
@@ -17554,11 +17774,11 @@
         <v>199</v>
       </c>
       <c r="V136" s="1" t="str">
-        <f>LEFT(U136,1)</f>
+        <f t="shared" si="17"/>
         <v>D</v>
       </c>
       <c r="W136" s="1" t="str">
-        <f>MID(U136,FIND("(",U136)+1,FIND(")",U136)-FIND("(",U136)-1)</f>
+        <f t="shared" si="18"/>
         <v>90</v>
       </c>
       <c r="X136" s="1" t="s">
@@ -17592,7 +17812,7 @@
         <v>33</v>
       </c>
       <c r="AH136" s="1" t="str">
-        <f>L136&amp;M136&amp;N136&amp;O136&amp;P136&amp;Q136&amp;R136&amp;S136&amp;T136&amp;V136&amp;X136&amp;Y136&amp;Z136&amp;AA136&amp;AB136&amp;AC136&amp;AD136&amp;AE136&amp;AF136&amp;AG136</f>
+        <f t="shared" si="19"/>
         <v>KQLPDKWQHDLFDSGFGGGA</v>
       </c>
       <c r="AI136" s="1" t="s">
@@ -17611,7 +17831,7 @@
         <v>151</v>
       </c>
       <c r="E137" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D137,D137)</f>
+        <f t="shared" si="16"/>
         <v>Q13263</v>
       </c>
       <c r="F137" s="1" t="s">
@@ -17663,11 +17883,11 @@
         <v>152</v>
       </c>
       <c r="V137" s="1" t="str">
-        <f>LEFT(U137,1)</f>
+        <f t="shared" si="17"/>
         <v>D</v>
       </c>
       <c r="W137" s="1" t="str">
-        <f>MID(U137,FIND("(",U137)+1,FIND(")",U137)-FIND("(",U137)-1)</f>
+        <f t="shared" si="18"/>
         <v>685</v>
       </c>
       <c r="X137" s="1" t="s">
@@ -17701,7 +17921,7 @@
         <v>41</v>
       </c>
       <c r="AH137" s="1" t="str">
-        <f>L137&amp;M137&amp;N137&amp;O137&amp;P137&amp;Q137&amp;R137&amp;S137&amp;T137&amp;V137&amp;X137&amp;Y137&amp;Z137&amp;AA137&amp;AB137&amp;AC137&amp;AD137&amp;AE137&amp;AF137&amp;AG137</f>
+        <f t="shared" si="19"/>
         <v>KEEDGSLSLDGADSTGVVAK</v>
       </c>
       <c r="AI137" s="1" t="s">
@@ -17722,7 +17942,7 @@
         <v>375</v>
       </c>
       <c r="E138" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D138,D138)</f>
+        <f t="shared" si="16"/>
         <v>Q62318</v>
       </c>
       <c r="F138" s="1" t="s">
@@ -17774,11 +17994,11 @@
         <v>384</v>
       </c>
       <c r="V138" s="1" t="str">
-        <f>LEFT(U138,1)</f>
+        <f t="shared" si="17"/>
         <v>D</v>
       </c>
       <c r="W138" s="1" t="str">
-        <f>MID(U138,FIND("(",U138)+1,FIND(")",U138)-FIND("(",U138)-1)</f>
+        <f t="shared" si="18"/>
         <v>684</v>
       </c>
       <c r="X138" s="1" t="s">
@@ -17812,7 +18032,7 @@
         <v>41</v>
       </c>
       <c r="AH138" s="1" t="str">
-        <f>L138&amp;M138&amp;N138&amp;O138&amp;P138&amp;Q138&amp;R138&amp;S138&amp;T138&amp;V138&amp;X138&amp;Y138&amp;Z138&amp;AA138&amp;AB138&amp;AC138&amp;AD138&amp;AE138&amp;AF138&amp;AG138</f>
+        <f t="shared" si="19"/>
         <v>KEEDGSLSLDGADSTGVVAK</v>
       </c>
       <c r="AI138" s="1" t="s">
@@ -17831,7 +18051,7 @@
         <v>375</v>
       </c>
       <c r="E139" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D139,D139)</f>
+        <f t="shared" si="16"/>
         <v>Q62318</v>
       </c>
       <c r="F139" s="1" t="s">
@@ -17883,11 +18103,11 @@
         <v>421</v>
       </c>
       <c r="V139" s="1" t="str">
-        <f>LEFT(U139,1)</f>
+        <f t="shared" si="17"/>
         <v>E</v>
       </c>
       <c r="W139" s="1" t="str">
-        <f>MID(U139,FIND("(",U139)+1,FIND(")",U139)-FIND("(",U139)-1)</f>
+        <f t="shared" si="18"/>
         <v>731</v>
       </c>
       <c r="X139" s="1" t="s">
@@ -17921,7 +18141,7 @@
         <v>36</v>
       </c>
       <c r="AH139" s="1" t="str">
-        <f>L139&amp;M139&amp;N139&amp;O139&amp;P139&amp;Q139&amp;R139&amp;S139&amp;T139&amp;V139&amp;X139&amp;Y139&amp;Z139&amp;AA139&amp;AB139&amp;AC139&amp;AD139&amp;AE139&amp;AF139&amp;AG139</f>
+        <f t="shared" si="19"/>
         <v>LATDSTFSMEQPGGTLDLTL</v>
       </c>
       <c r="AI139" s="1" t="s">
@@ -17940,7 +18160,7 @@
         <v>279</v>
       </c>
       <c r="E140" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D140,D140)</f>
+        <f t="shared" si="16"/>
         <v>P07437</v>
       </c>
       <c r="F140" s="1" t="s">
@@ -17992,11 +18212,11 @@
         <v>280</v>
       </c>
       <c r="V140" s="1" t="str">
-        <f>LEFT(U140,1)</f>
+        <f t="shared" si="17"/>
         <v>D</v>
       </c>
       <c r="W140" s="1" t="str">
-        <f>MID(U140,FIND("(",U140)+1,FIND(")",U140)-FIND("(",U140)-1)</f>
+        <f t="shared" si="18"/>
         <v>114</v>
       </c>
       <c r="X140" s="1" t="s">
@@ -18030,7 +18250,7 @@
         <v>33</v>
       </c>
       <c r="AH140" s="1" t="str">
-        <f>L140&amp;M140&amp;N140&amp;O140&amp;P140&amp;Q140&amp;R140&amp;S140&amp;T140&amp;V140&amp;X140&amp;Y140&amp;Z140&amp;AA140&amp;AB140&amp;AC140&amp;AD140&amp;AE140&amp;AF140&amp;AG140</f>
+        <f t="shared" si="19"/>
         <v>HYTEGAELVDSVL DVVRKEA</v>
       </c>
       <c r="AI140" s="1" t="s">
@@ -18049,7 +18269,7 @@
         <v>143</v>
       </c>
       <c r="E141" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D141,D141)</f>
+        <f t="shared" si="16"/>
         <v>O43399</v>
       </c>
       <c r="F141" s="1" t="s">
@@ -18101,11 +18321,11 @@
         <v>144</v>
       </c>
       <c r="V141" s="1" t="str">
-        <f>LEFT(U141,1)</f>
+        <f t="shared" si="17"/>
         <v>D</v>
       </c>
       <c r="W141" s="1" t="str">
-        <f>MID(U141,FIND("(",U141)+1,FIND(")",U141)-FIND("(",U141)-1)</f>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="X141" s="1" t="s">
@@ -18139,7 +18359,7 @@
         <v>39</v>
       </c>
       <c r="AH141" s="1" t="str">
-        <f>L141&amp;M141&amp;N141&amp;O141&amp;P141&amp;Q141&amp;R141&amp;S141&amp;T141&amp;V141&amp;X141&amp;Y141&amp;Z141&amp;AA141&amp;AB141&amp;AC141&amp;AD141&amp;AE141&amp;AF141&amp;AG141</f>
+        <f t="shared" si="19"/>
         <v>NSPNKGLLSDSMTDVPVDTG</v>
       </c>
       <c r="AI141" s="1" t="s">
@@ -18158,7 +18378,7 @@
         <v>305</v>
       </c>
       <c r="E142" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D142,D142)</f>
+        <f t="shared" si="16"/>
         <v>Q9GZX9</v>
       </c>
       <c r="F142" s="1" t="s">
@@ -18210,11 +18430,11 @@
         <v>306</v>
       </c>
       <c r="V142" s="1" t="str">
-        <f>LEFT(U142,1)</f>
+        <f t="shared" si="17"/>
         <v>D</v>
       </c>
       <c r="W142" s="1" t="str">
-        <f>MID(U142,FIND("(",U142)+1,FIND(")",U142)-FIND("(",U142)-1)</f>
+        <f t="shared" si="18"/>
         <v>72</v>
       </c>
       <c r="X142" s="1" t="s">
@@ -18248,7 +18468,7 @@
         <v>47</v>
       </c>
       <c r="AH142" s="1" t="str">
-        <f>L142&amp;M142&amp;N142&amp;O142&amp;P142&amp;Q142&amp;R142&amp;S142&amp;T142&amp;V142&amp;X142&amp;Y142&amp;Z142&amp;AA142&amp;AB142&amp;AC142&amp;AD142&amp;AE142&amp;AF142&amp;AG142</f>
+        <f t="shared" si="19"/>
         <v>LGALWDECCDCVGMCNPRNY</v>
       </c>
       <c r="AI142" s="1" t="s">
@@ -18267,7 +18487,7 @@
         <v>401</v>
       </c>
       <c r="E143" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D143,D143)</f>
+        <f t="shared" si="16"/>
         <v>Q61152</v>
       </c>
       <c r="F143" s="1" t="s">
@@ -18319,11 +18539,11 @@
         <v>411</v>
       </c>
       <c r="V143" s="1" t="str">
-        <f>LEFT(U143,1)</f>
+        <f t="shared" si="17"/>
         <v>D</v>
       </c>
       <c r="W143" s="1" t="str">
-        <f>MID(U143,FIND("(",U143)+1,FIND(")",U143)-FIND("(",U143)-1)</f>
+        <f t="shared" si="18"/>
         <v>424</v>
       </c>
       <c r="X143" s="1" t="s">
@@ -18357,7 +18577,7 @@
         <v>38</v>
       </c>
       <c r="AH143" s="1" t="str">
-        <f>L143&amp;M143&amp;N143&amp;O143&amp;P143&amp;Q143&amp;R143&amp;S143&amp;T143&amp;V143&amp;X143&amp;Y143&amp;Z143&amp;AA143&amp;AB143&amp;AC143&amp;AD143&amp;AE143&amp;AF143&amp;AG143</f>
+        <f t="shared" si="19"/>
         <v>GPDAYEEVTDGAQTGGLGFN</v>
       </c>
       <c r="AI143" s="1" t="s">
@@ -18376,7 +18596,7 @@
         <v>261</v>
       </c>
       <c r="E144" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D144,D144)</f>
+        <f t="shared" si="16"/>
         <v>O15042</v>
       </c>
       <c r="F144" s="1" t="s">
@@ -18428,11 +18648,11 @@
         <v>260</v>
       </c>
       <c r="V144" s="1" t="str">
-        <f>LEFT(U144,1)</f>
+        <f t="shared" si="17"/>
         <v>D</v>
       </c>
       <c r="W144" s="1" t="str">
-        <f>MID(U144,FIND("(",U144)+1,FIND(")",U144)-FIND("(",U144)-1)</f>
+        <f t="shared" si="18"/>
         <v>737</v>
       </c>
       <c r="X144" s="1" t="s">
@@ -18466,7 +18686,7 @@
         <v>44</v>
       </c>
       <c r="AH144" s="1" t="str">
-        <f>L144&amp;M144&amp;N144&amp;O144&amp;P144&amp;Q144&amp;R144&amp;S144&amp;T144&amp;V144&amp;X144&amp;Y144&amp;Z144&amp;AA144&amp;AB144&amp;AC144&amp;AD144&amp;AE144&amp;AF144&amp;AG144</f>
+        <f t="shared" si="19"/>
         <v>PIKSLDDDLDGVPLDATEDS</v>
       </c>
       <c r="AI144" s="1" t="s">
@@ -18487,7 +18707,7 @@
         <v>132</v>
       </c>
       <c r="E145" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D145,D145)</f>
+        <f t="shared" si="16"/>
         <v>Q14694</v>
       </c>
       <c r="F145" s="1" t="s">
@@ -18539,11 +18759,11 @@
         <v>133</v>
       </c>
       <c r="V145" s="1" t="str">
-        <f>LEFT(U145,1)</f>
+        <f t="shared" si="17"/>
         <v>D</v>
       </c>
       <c r="W145" s="1" t="str">
-        <f>MID(U145,FIND("(",U145)+1,FIND(")",U145)-FIND("(",U145)-1)</f>
+        <f t="shared" si="18"/>
         <v>138</v>
       </c>
       <c r="X145" s="1" t="s">
@@ -18577,7 +18797,7 @@
         <v>32</v>
       </c>
       <c r="AH145" s="1" t="str">
-        <f>L145&amp;M145&amp;N145&amp;O145&amp;P145&amp;Q145&amp;R145&amp;S145&amp;T145&amp;V145&amp;X145&amp;Y145&amp;Z145&amp;AA145&amp;AB145&amp;AC145&amp;AD145&amp;AE145&amp;AF145&amp;AG145</f>
+        <f t="shared" si="19"/>
         <v>NVEAEVLENDGVSGGLGQRE</v>
       </c>
       <c r="AI145" s="1" t="s">
@@ -18598,7 +18818,7 @@
         <v>344</v>
       </c>
       <c r="E146" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D146,D146)</f>
+        <f t="shared" si="16"/>
         <v>Q6ZSR9</v>
       </c>
       <c r="F146" s="1" t="s">
@@ -18650,11 +18870,11 @@
         <v>345</v>
       </c>
       <c r="V146" s="1" t="str">
-        <f>LEFT(U146,1)</f>
+        <f t="shared" si="17"/>
         <v>D</v>
       </c>
       <c r="W146" s="1" t="str">
-        <f>MID(U146,FIND("(",U146)+1,FIND(")",U146)-FIND("(",U146)-1)</f>
+        <f t="shared" si="18"/>
         <v>123</v>
       </c>
       <c r="X146" s="1" t="s">
@@ -18688,7 +18908,7 @@
         <v>44</v>
       </c>
       <c r="AH146" s="1" t="str">
-        <f>L146&amp;M146&amp;N146&amp;O146&amp;P146&amp;Q146&amp;R146&amp;S146&amp;T146&amp;V146&amp;X146&amp;Y146&amp;Z146&amp;AA146&amp;AB146&amp;AC146&amp;AD146&amp;AE146&amp;AF146&amp;AG146</f>
+        <f t="shared" si="19"/>
         <v>PATDGLSEPDVFAIAPFRSS</v>
       </c>
       <c r="AI146" s="1" t="s">
@@ -18709,7 +18929,7 @@
         <v>399</v>
       </c>
       <c r="E147" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D147,D147)</f>
+        <f t="shared" si="16"/>
         <v>Q62481</v>
       </c>
       <c r="F147" s="1" t="s">
@@ -18761,11 +18981,11 @@
         <v>408</v>
       </c>
       <c r="V147" s="1" t="str">
-        <f>LEFT(U147,1)</f>
+        <f t="shared" si="17"/>
         <v>D</v>
       </c>
       <c r="W147" s="1" t="str">
-        <f>MID(U147,FIND("(",U147)+1,FIND(")",U147)-FIND("(",U147)-1)</f>
+        <f t="shared" si="18"/>
         <v>58</v>
       </c>
       <c r="X147" s="1" t="s">
@@ -18799,7 +19019,7 @@
         <v>32</v>
       </c>
       <c r="AH147" s="1" t="str">
-        <f>L147&amp;M147&amp;N147&amp;O147&amp;P147&amp;Q147&amp;R147&amp;S147&amp;T147&amp;V147&amp;X147&amp;Y147&amp;Z147&amp;AA147&amp;AB147&amp;AC147&amp;AD147&amp;AE147&amp;AF147&amp;AG147</f>
+        <f t="shared" si="19"/>
         <v>DQSDTEDEVDSDFDIDEGDE</v>
       </c>
       <c r="AI147" s="1" t="s">
@@ -18818,7 +19038,7 @@
         <v>210</v>
       </c>
       <c r="E148" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D148,D148)</f>
+        <f t="shared" si="16"/>
         <v>P98155</v>
       </c>
       <c r="F148" s="1" t="s">
@@ -18870,11 +19090,11 @@
         <v>211</v>
       </c>
       <c r="V148" s="1" t="str">
-        <f>LEFT(U148,1)</f>
+        <f t="shared" si="17"/>
         <v>D</v>
       </c>
       <c r="W148" s="1" t="str">
-        <f>MID(U148,FIND("(",U148)+1,FIND(")",U148)-FIND("(",U148)-1)</f>
+        <f t="shared" si="18"/>
         <v>381</v>
       </c>
       <c r="X148" s="1" t="s">
@@ -18908,7 +19128,7 @@
         <v>49</v>
       </c>
       <c r="AH148" s="1" t="str">
-        <f>L148&amp;M148&amp;N148&amp;O148&amp;P148&amp;Q148&amp;R148&amp;S148&amp;T148&amp;V148&amp;X148&amp;Y148&amp;Z148&amp;AA148&amp;AB148&amp;AC148&amp;AD148&amp;AE148&amp;AF148&amp;AG148</f>
+        <f t="shared" si="19"/>
         <v>KDLVIGYECDCAAGFELIDR</v>
       </c>
       <c r="AI148" s="1" t="s">
@@ -18927,7 +19147,7 @@
         <v>112</v>
       </c>
       <c r="E149" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D149,D149)</f>
+        <f t="shared" si="16"/>
         <v>P08670</v>
       </c>
       <c r="F149" s="1" t="s">
@@ -18979,11 +19199,11 @@
         <v>114</v>
       </c>
       <c r="V149" s="1" t="str">
-        <f>LEFT(U149,1)</f>
+        <f t="shared" si="17"/>
         <v>D</v>
       </c>
       <c r="W149" s="1" t="str">
-        <f>MID(U149,FIND("(",U149)+1,FIND(")",U149)-FIND("(",U149)-1)</f>
+        <f t="shared" si="18"/>
         <v>259</v>
       </c>
       <c r="X149" s="1" t="s">
@@ -19017,7 +19237,7 @@
         <v>36</v>
       </c>
       <c r="AH149" s="1" t="str">
-        <f>L149&amp;M149&amp;N149&amp;O149&amp;P149&amp;Q149&amp;R149&amp;S149&amp;T149&amp;V149&amp;X149&amp;Y149&amp;Z149&amp;AA149&amp;AB149&amp;AC149&amp;AD149&amp;AE149&amp;AF149&amp;AG149</f>
+        <f t="shared" si="19"/>
         <v>QEQHVQIDVDVSKPDLTAAL</v>
       </c>
       <c r="AI149" s="1" t="s">
@@ -19038,7 +19258,7 @@
         <v>112</v>
       </c>
       <c r="E150" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D150,D150)</f>
+        <f t="shared" si="16"/>
         <v>P08670</v>
       </c>
       <c r="F150" s="1" t="s">
@@ -19090,11 +19310,11 @@
         <v>199</v>
       </c>
       <c r="V150" s="1" t="str">
-        <f>LEFT(U150,1)</f>
+        <f t="shared" si="17"/>
         <v>D</v>
       </c>
       <c r="W150" s="1" t="str">
-        <f>MID(U150,FIND("(",U150)+1,FIND(")",U150)-FIND("(",U150)-1)</f>
+        <f t="shared" si="18"/>
         <v>90</v>
       </c>
       <c r="X150" s="1" t="s">
@@ -19128,7 +19348,7 @@
         <v>49</v>
       </c>
       <c r="AH150" s="1" t="str">
-        <f>L150&amp;M150&amp;N150&amp;O150&amp;P150&amp;Q150&amp;R150&amp;S150&amp;T150&amp;V150&amp;X150&amp;Y150&amp;Z150&amp;AA150&amp;AB150&amp;AC150&amp;AD150&amp;AE150&amp;AF150&amp;AG150</f>
+        <f t="shared" si="19"/>
         <v>QDSVDFSLADAINTEFKNTR</v>
       </c>
       <c r="AI150" s="1" t="s">
@@ -19149,7 +19369,7 @@
         <v>112</v>
       </c>
       <c r="E151" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D151,D151)</f>
+        <f t="shared" si="16"/>
         <v>P08670</v>
       </c>
       <c r="F151" s="1" t="s">
@@ -19201,11 +19421,11 @@
         <v>367</v>
       </c>
       <c r="V151" s="1" t="str">
-        <f>LEFT(U151,1)</f>
+        <f t="shared" si="17"/>
         <v>D</v>
       </c>
       <c r="W151" s="1" t="str">
-        <f>MID(U151,FIND("(",U151)+1,FIND(")",U151)-FIND("(",U151)-1)</f>
+        <f t="shared" si="18"/>
         <v>429</v>
       </c>
       <c r="X151" s="1" t="s">
@@ -19239,7 +19459,7 @@
         <v>41</v>
       </c>
       <c r="AH151" s="1" t="str">
-        <f>L151&amp;M151&amp;N151&amp;O151&amp;P151&amp;Q151&amp;R151&amp;S151&amp;T151&amp;V151&amp;X151&amp;Y151&amp;Z151&amp;AA151&amp;AB151&amp;AC151&amp;AD151&amp;AE151&amp;AF151&amp;AG151</f>
+        <f t="shared" si="19"/>
         <v>SLNLRETNL DSLPLVDTHSK</v>
       </c>
       <c r="AI151" s="1" t="s">
@@ -19260,7 +19480,7 @@
         <v>284</v>
       </c>
       <c r="E152" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D152,D152)</f>
+        <f t="shared" si="16"/>
         <v>P16989</v>
       </c>
       <c r="F152" s="1" t="s">
@@ -19312,11 +19532,11 @@
         <v>285</v>
       </c>
       <c r="V152" s="1" t="str">
-        <f>LEFT(U152,1)</f>
+        <f t="shared" si="17"/>
         <v>D</v>
       </c>
       <c r="W152" s="1" t="str">
-        <f>MID(U152,FIND("(",U152)+1,FIND(")",U152)-FIND("(",U152)-1)</f>
+        <f t="shared" si="18"/>
         <v>269</v>
       </c>
       <c r="X152" s="1" t="s">
@@ -19350,7 +19570,7 @@
         <v>39</v>
       </c>
       <c r="AH152" s="1" t="str">
-        <f>L152&amp;M152&amp;N152&amp;O152&amp;P152&amp;Q152&amp;R152&amp;S152&amp;T152&amp;V152&amp;X152&amp;Y152&amp;Z152&amp;AA152&amp;AB152&amp;AC152&amp;AD152&amp;AE152&amp;AF152&amp;AG152</f>
+        <f t="shared" si="19"/>
         <v>QAGEIGEMKDGVPEGAQLQG</v>
       </c>
       <c r="AI152" s="1" t="s">
@@ -19371,7 +19591,7 @@
         <v>284</v>
       </c>
       <c r="E153" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D153,D153)</f>
+        <f t="shared" si="16"/>
         <v>P16989</v>
       </c>
       <c r="F153" s="1" t="s">
@@ -19423,11 +19643,11 @@
         <v>361</v>
       </c>
       <c r="V153" s="1" t="str">
-        <f>LEFT(U153,1)</f>
+        <f t="shared" si="17"/>
         <v>D</v>
       </c>
       <c r="W153" s="1" t="str">
-        <f>MID(U153,FIND("(",U153)+1,FIND(")",U153)-FIND("(",U153)-1)</f>
+        <f t="shared" si="18"/>
         <v>161</v>
       </c>
       <c r="X153" s="1" t="s">
@@ -19461,7 +19681,7 @@
         <v>33</v>
       </c>
       <c r="AH153" s="1" t="str">
-        <f>L153&amp;M153&amp;N153&amp;O153&amp;P153&amp;Q153&amp;R153&amp;S153&amp;T153&amp;V153&amp;X153&amp;Y153&amp;Z153&amp;AA153&amp;AB153&amp;AC153&amp;AD153&amp;AE153&amp;AF153&amp;AG153</f>
+        <f t="shared" si="19"/>
         <v>AEAANVTGPDGVPVEGSRYA</v>
       </c>
       <c r="AI153" s="1" t="s">
@@ -19479,7 +19699,7 @@
         <v>86</v>
       </c>
       <c r="E154" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D154,D154)</f>
+        <f t="shared" si="16"/>
         <v>Q9BYJ9</v>
       </c>
       <c r="F154" s="1" t="s">
@@ -19531,11 +19751,11 @@
         <v>87</v>
       </c>
       <c r="V154" s="1" t="str">
-        <f>LEFT(U154,1)</f>
+        <f t="shared" si="17"/>
         <v>D</v>
       </c>
       <c r="W154" s="1" t="str">
-        <f>MID(U154,FIND("(",U154)+1,FIND(")",U154)-FIND("(",U154)-1)</f>
+        <f t="shared" si="18"/>
         <v>102</v>
       </c>
       <c r="X154" s="1" t="s">
@@ -19569,7 +19789,7 @@
         <v>39</v>
       </c>
       <c r="AH154" s="1" t="str">
-        <f>L154&amp;M154&amp;N154&amp;O154&amp;P154&amp;Q154&amp;R154&amp;S154&amp;T154&amp;V154&amp;X154&amp;Y154&amp;Z154&amp;AA154&amp;AB154&amp;AC154&amp;AD154&amp;AE154&amp;AF154&amp;AG154</f>
+        <f t="shared" si="19"/>
         <v>SNGDHHFMHDAVFGQPGGLG</v>
       </c>
       <c r="AI154" s="1" t="s">
@@ -19590,7 +19810,7 @@
         <v>339</v>
       </c>
       <c r="E155" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D155,D155)</f>
+        <f t="shared" si="16"/>
         <v>Q9Y5A9</v>
       </c>
       <c r="F155" s="1" t="s">
@@ -19642,11 +19862,11 @@
         <v>340</v>
       </c>
       <c r="V155" s="1" t="str">
-        <f>LEFT(U155,1)</f>
+        <f t="shared" si="17"/>
         <v>D</v>
       </c>
       <c r="W155" s="1" t="str">
-        <f>MID(U155,FIND("(",U155)+1,FIND(")",U155)-FIND("(",U155)-1)</f>
+        <f t="shared" si="18"/>
         <v>367</v>
       </c>
       <c r="X155" s="1" t="s">
@@ -19680,7 +19900,7 @@
         <v>39</v>
       </c>
       <c r="AH155" s="1" t="str">
-        <f>L155&amp;M155&amp;N155&amp;O155&amp;P155&amp;Q155&amp;R155&amp;S155&amp;T155&amp;V155&amp;X155&amp;Y155&amp;Z155&amp;AA155&amp;AB155&amp;AC155&amp;AD155&amp;AE155&amp;AF155&amp;AG155</f>
+        <f t="shared" si="19"/>
         <v>GSGFGHNGVDGNGVGQSQAG</v>
       </c>
       <c r="AI155" s="1" t="s">
@@ -19699,7 +19919,7 @@
         <v>135</v>
       </c>
       <c r="E156" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D156,D156)</f>
+        <f t="shared" si="16"/>
         <v>Q9UPT8</v>
       </c>
       <c r="F156" s="1" t="s">
@@ -19751,11 +19971,11 @@
         <v>136</v>
       </c>
       <c r="V156" s="1" t="str">
-        <f>LEFT(U156,1)</f>
+        <f t="shared" si="17"/>
         <v>D</v>
       </c>
       <c r="W156" s="1" t="str">
-        <f>MID(U156,FIND("(",U156)+1,FIND(")",U156)-FIND("(",U156)-1)</f>
+        <f t="shared" si="18"/>
         <v>741</v>
       </c>
       <c r="X156" s="1" t="s">
@@ -19789,7 +20009,7 @@
         <v>49</v>
       </c>
       <c r="AH156" s="1" t="str">
-        <f>L156&amp;M156&amp;N156&amp;O156&amp;P156&amp;Q156&amp;R156&amp;S156&amp;T156&amp;V156&amp;X156&amp;Y156&amp;Z156&amp;AA156&amp;AB156&amp;AC156&amp;AD156&amp;AE156&amp;AF156&amp;AG156</f>
+        <f t="shared" si="19"/>
         <v>LFPEHPLEPDSFSEGGPPGR</v>
       </c>
       <c r="AI156" s="1" t="s">
@@ -19808,7 +20028,7 @@
         <v>181</v>
       </c>
       <c r="E157" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D157,D157)</f>
+        <f t="shared" si="16"/>
         <v>Q96NC0</v>
       </c>
       <c r="F157" s="1" t="s">
@@ -19860,11 +20080,11 @@
         <v>183</v>
       </c>
       <c r="V157" s="1" t="str">
-        <f>LEFT(U157,1)</f>
+        <f t="shared" si="17"/>
         <v>D</v>
       </c>
       <c r="W157" s="1" t="str">
-        <f>MID(U157,FIND("(",U157)+1,FIND(")",U157)-FIND("(",U157)-1)</f>
+        <f t="shared" si="18"/>
         <v>91</v>
       </c>
       <c r="X157" s="1" t="s">
@@ -19898,7 +20118,7 @@
         <v>39</v>
       </c>
       <c r="AH157" s="1" t="str">
-        <f>L157&amp;M157&amp;N157&amp;O157&amp;P157&amp;Q157&amp;R157&amp;S157&amp;T157&amp;V157&amp;X157&amp;Y157&amp;Z157&amp;AA157&amp;AB157&amp;AC157&amp;AD157&amp;AE157&amp;AF157&amp;AG157</f>
+        <f t="shared" si="19"/>
         <v>CNVCDCVVKDSINFLDHING</v>
       </c>
       <c r="AI157" s="1" t="s">
@@ -19917,7 +20137,7 @@
         <v>326</v>
       </c>
       <c r="E158" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D158,D158)</f>
+        <f t="shared" si="16"/>
         <v>Q5JPB2</v>
       </c>
       <c r="F158" s="1" t="s">
@@ -19969,11 +20189,11 @@
         <v>327</v>
       </c>
       <c r="V158" s="1" t="str">
-        <f>LEFT(U158,1)</f>
+        <f t="shared" si="17"/>
         <v>D</v>
       </c>
       <c r="W158" s="1" t="str">
-        <f>MID(U158,FIND("(",U158)+1,FIND(")",U158)-FIND("(",U158)-1)</f>
+        <f t="shared" si="18"/>
         <v>1002</v>
       </c>
       <c r="X158" s="1" t="s">
@@ -20007,7 +20227,7 @@
         <v>49</v>
       </c>
       <c r="AH158" s="1" t="str">
-        <f>L158&amp;M158&amp;N158&amp;O158&amp;P158&amp;Q158&amp;R158&amp;S158&amp;T158&amp;V158&amp;X158&amp;Y158&amp;Z158&amp;AA158&amp;AB158&amp;AC158&amp;AD158&amp;AE158&amp;AF158&amp;AG158</f>
+        <f t="shared" si="19"/>
         <v>ASGPSPGEADSIL EDPSCSR</v>
       </c>
       <c r="AI158" s="1" t="s">
@@ -20028,7 +20248,7 @@
         <v>129</v>
       </c>
       <c r="E159" s="12" t="str">
-        <f>HYPERLINK("http://www.uniprot.org/uniprot/"&amp;D159,D159)</f>
+        <f t="shared" si="16"/>
         <v>Q15942</v>
       </c>
       <c r="F159" s="1" t="s">
@@ -20080,11 +20300,11 @@
         <v>130</v>
       </c>
       <c r="V159" s="1" t="str">
-        <f>LEFT(U159,1)</f>
+        <f t="shared" si="17"/>
         <v>D</v>
       </c>
       <c r="W159" s="1" t="str">
-        <f>MID(U159,FIND("(",U159)+1,FIND(")",U159)-FIND("(",U159)-1)</f>
+        <f t="shared" si="18"/>
         <v>149</v>
       </c>
       <c r="X159" s="1" t="s">
@@ -20118,7 +20338,7 @@
         <v>50</v>
       </c>
       <c r="AH159" s="1" t="str">
-        <f>L159&amp;M159&amp;N159&amp;O159&amp;P159&amp;Q159&amp;R159&amp;S159&amp;T159&amp;V159&amp;X159&amp;Y159&amp;Z159&amp;AA159&amp;AB159&amp;AC159&amp;AD159&amp;AE159&amp;AF159&amp;AG159</f>
+        <f t="shared" si="19"/>
         <v>KVSSIDLEIDSLSSLLDDMT</v>
       </c>
       <c r="AI159" s="1" t="s">
@@ -20130,60 +20350,2491 @@
       <c r="AK159" s="14"/>
     </row>
     <row r="160" spans="3:37" x14ac:dyDescent="0.2">
-      <c r="D160" s="1"/>
-      <c r="E160" s="12"/>
-      <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
-      <c r="K160" s="1"/>
+      <c r="C160" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="D160" s="33" t="s">
+        <v>676</v>
+      </c>
+      <c r="E160" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>P30153</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="K160" s="1">
+        <v>4</v>
+      </c>
+      <c r="L160" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M160" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N160" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O160" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P160" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q160" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R160" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S160" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T160" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U160" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="V160" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>D</v>
+      </c>
+      <c r="W160" s="1" t="str">
+        <f t="shared" ref="W160:W182" si="20">MID(U160,FIND("(",U160)+1,FIND(")",U160)-FIND("(",U160)-1)</f>
+        <v>60</v>
+      </c>
+      <c r="X160" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y160" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z160" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA160" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB160" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC160" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD160" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE160" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF160" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG160" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH160" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>RSELLPFLTDTIYDEDEVLL</v>
+      </c>
+      <c r="AI160" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="AJ160" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
-    <row r="161" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D161" s="1"/>
-      <c r="E161" s="12"/>
-      <c r="F161" s="1"/>
-      <c r="G161" s="1"/>
-      <c r="K161" s="1"/>
+    <row r="161" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C161" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E161" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>P63151</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="K161" s="1">
+        <v>4</v>
+      </c>
+      <c r="L161" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M161" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N161" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O161" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P161" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q161" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R161" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S161" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T161" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U161" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="V161" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>D</v>
+      </c>
+      <c r="W161" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>188</v>
+      </c>
+      <c r="X161" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y161" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z161" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA161" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB161" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC161" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD161" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE161" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF161" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG161" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH161" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>HINSISINSDYETYLSADDL</v>
+      </c>
+      <c r="AI161" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="AJ161" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
-    <row r="162" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D162" s="1"/>
-      <c r="E162" s="12"/>
-      <c r="F162" s="1"/>
-      <c r="G162" s="1"/>
-      <c r="K162" s="1"/>
+    <row r="162" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C162" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="E162" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>P00505</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="K162" s="1">
+        <v>4</v>
+      </c>
+      <c r="L162" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M162" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N162" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O162" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P162" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q162" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R162" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S162" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="T162" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U162" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="V162" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>D</v>
+      </c>
+      <c r="W162" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>376</v>
+      </c>
+      <c r="X162" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y162" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z162" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA162" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB162" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC162" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD162" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE162" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF162" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG162" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH162" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>STHNWQHITDQIGMFCFTTG</v>
+      </c>
+      <c r="AI162" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="AJ162" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
-    <row r="163" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D163" s="1"/>
-      <c r="E163" s="12"/>
-      <c r="F163" s="1"/>
-      <c r="G163" s="1"/>
-      <c r="K163" s="1"/>
+    <row r="163" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C163" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="E163" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>O94911</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="K163" s="1">
+        <v>4</v>
+      </c>
+      <c r="L163" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M163" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N163" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O163" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P163" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q163" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R163" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S163" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="T163" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U163" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="V163" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>D</v>
+      </c>
+      <c r="W163" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>223</v>
+      </c>
+      <c r="X163" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y163" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z163" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA163" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB163" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC163" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD163" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE163" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF163" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG163" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH163" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>FIGQSGVITDLYLFSCIISF</v>
+      </c>
+      <c r="AI163" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="AJ163" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
-    <row r="164" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D164" s="1"/>
-      <c r="E164" s="12"/>
-      <c r="F164" s="1"/>
-      <c r="G164" s="1"/>
-      <c r="K164" s="1"/>
+    <row r="164" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C164" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="E164" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>Q8N2K0</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="K164" s="1">
+        <v>4</v>
+      </c>
+      <c r="L164" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M164" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N164" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O164" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P164" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q164" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R164" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S164" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T164" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U164" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="V164" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>D</v>
+      </c>
+      <c r="W164" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>366</v>
+      </c>
+      <c r="X164" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y164" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z164" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA164" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB164" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC164" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD164" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE164" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF164" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG164" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH164" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>KVQFVPFHSDLLGYRHKYKS</v>
+      </c>
+      <c r="AI164" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="AJ164" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
-    <row r="165" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D165" s="1"/>
-      <c r="E165" s="12"/>
-      <c r="F165" s="1"/>
-      <c r="G165" s="1"/>
-      <c r="K165" s="1"/>
+    <row r="165" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C165" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="D165" s="34" t="s">
+        <v>681</v>
+      </c>
+      <c r="E165" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>Q12979</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="J165" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="K165" s="1">
+        <v>4</v>
+      </c>
+      <c r="L165" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M165" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N165" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O165" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P165" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q165" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R165" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S165" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T165" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U165" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="V165" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>D</v>
+      </c>
+      <c r="W165" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>326</v>
+      </c>
+      <c r="X165" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y165" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z165" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA165" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB165" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC165" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD165" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE165" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF165" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG165" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH165" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>KLRHVFLFTDVLLCAKLKKT</v>
+      </c>
+      <c r="AI165" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="AJ165" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
-    <row r="166" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D166" s="1"/>
-      <c r="E166" s="12"/>
-      <c r="F166" s="1"/>
-      <c r="G166" s="1"/>
-      <c r="K166" s="1"/>
+    <row r="166" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C166" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="D166" s="34" t="s">
+        <v>682</v>
+      </c>
+      <c r="E166" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>P13798</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="K166" s="1">
+        <v>4</v>
+      </c>
+      <c r="L166" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M166" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N166" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O166" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P166" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q166" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R166" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S166" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T166" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U166" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="V166" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>D</v>
+      </c>
+      <c r="W166" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>717</v>
+      </c>
+      <c r="X166" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y166" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z166" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA166" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB166" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC166" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD166" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE166" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF166" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG166" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH166" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>ALSEVEVESDSDSFMNAVAV</v>
+      </c>
+      <c r="AI166" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="AJ166" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
-    <row r="167" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D167" s="1"/>
-      <c r="E167" s="12"/>
-      <c r="F167" s="1"/>
-      <c r="G167" s="1"/>
-      <c r="K167" s="1"/>
+    <row r="167" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C167" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="D167" s="34" t="s">
+        <v>683</v>
+      </c>
+      <c r="E167" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>O95573</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="K167" s="1">
+        <v>4</v>
+      </c>
+      <c r="L167" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M167" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N167" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O167" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P167" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q167" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R167" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S167" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T167" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U167" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="V167" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>D</v>
+      </c>
+      <c r="W167" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>696</v>
+      </c>
+      <c r="X167" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y167" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z167" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA167" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB167" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC167" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD167" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE167" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF167" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG167" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH167" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>WTPETGLVTDAFKLKRKELK</v>
+      </c>
+      <c r="AI167" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="AJ167" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="168" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C168" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E168" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>O60488</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="K168" s="1">
+        <v>4</v>
+      </c>
+      <c r="L168" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M168" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N168" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O168" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P168" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q168" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R168" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S168" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T168" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U168" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="V168" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>D</v>
+      </c>
+      <c r="W168" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>696</v>
+      </c>
+      <c r="X168" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y168" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z168" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA168" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB168" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC168" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD168" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE168" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF168" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG168" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH168" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>TTPETGLVTDAFKLKRKELR</v>
+      </c>
+      <c r="AI168" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="AJ168" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="169" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C169" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="E169" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>Q16186</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="J169" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="K169" s="1">
+        <v>4</v>
+      </c>
+      <c r="L169" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M169" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N169" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O169" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P169" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q169" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R169" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S169" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T169" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U169" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="V169" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>D</v>
+      </c>
+      <c r="W169" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>53</v>
+      </c>
+      <c r="X169" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y169" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z169" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA169" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB169" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC169" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD169" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE169" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF169" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG169" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH169" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>KGLVYIQQTDDSLIHFCWKD</v>
+      </c>
+      <c r="AI169" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="AJ169" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="170" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C170" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="E170" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>Q9UHB7</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="K170" s="1">
+        <v>4</v>
+      </c>
+      <c r="L170" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M170" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N170" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O170" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P170" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q170" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R170" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S170" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T170" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U170" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="V170" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>D</v>
+      </c>
+      <c r="W170" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>1143</v>
+      </c>
+      <c r="X170" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y170" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z170" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA170" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB170" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC170" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD170" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE170" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF170" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG170" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH170" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>LIFNASIMTDLVRYTRQGLH</v>
+      </c>
+      <c r="AI170" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="AJ170" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="171" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C171" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E171" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>Q9P2G1</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="J171" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="K171" s="1">
+        <v>4</v>
+      </c>
+      <c r="L171" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M171" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N171" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O171" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P171" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q171" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R171" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S171" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T171" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U171" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="V171" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>D</v>
+      </c>
+      <c r="W171" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>686</v>
+      </c>
+      <c r="X171" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y171" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z171" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA171" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB171" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC171" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD171" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE171" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF171" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG171" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH171" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>KEIFELMQTDLEMVTEDLAQ</v>
+      </c>
+      <c r="AI171" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="AJ171" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="172" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C172" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E172" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>Q7Z5J8</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="K172" s="1">
+        <v>4</v>
+      </c>
+      <c r="L172" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M172" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N172" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O172" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P172" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q172" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R172" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S172" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T172" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U172" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="V172" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>D</v>
+      </c>
+      <c r="W172" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>476</v>
+      </c>
+      <c r="X172" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y172" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z172" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA172" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB172" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC172" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD172" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE172" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF172" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG172" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH172" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>LRLKRIPLTDAQLHEQFKKK</v>
+      </c>
+      <c r="AI172" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="AJ172" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="173" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C173" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E173" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>P63010</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="J173" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="K173" s="1">
+        <v>4</v>
+      </c>
+      <c r="L173" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M173" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N173" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O173" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P173" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q173" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R173" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S173" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T173" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U173" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="V173" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>D</v>
+      </c>
+      <c r="W173" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>61</v>
+      </c>
+      <c r="X173" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y173" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z173" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA173" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB173" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC173" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD173" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE173" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF173" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG173" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH173" s="1" t="str">
+        <f>L173&amp;M173&amp;N173&amp;O173&amp;P173&amp;Q173&amp;R173&amp;S173&amp;T173&amp;V173&amp;X173&amp;Y173&amp;Z173&amp;AA173&amp;AB173&amp;AC173&amp;AD173&amp;AE173&amp;AF173&amp;AG173</f>
+        <v>PDVVNCMQTDNLELKKLVYL</v>
+      </c>
+      <c r="AI173" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="AJ173" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="174" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C174" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="E174" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>Q9Y6B7</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="J174" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="K174" s="1">
+        <v>4</v>
+      </c>
+      <c r="L174" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M174" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N174" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O174" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P174" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q174" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R174" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S174" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T174" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U174" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="V174" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>D</v>
+      </c>
+      <c r="W174" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>272</v>
+      </c>
+      <c r="X174" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y174" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z174" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA174" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB174" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC174" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD174" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE174" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF174" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG174" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH174" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>AKMFPHVQTDVLVRVKGPLL</v>
+      </c>
+      <c r="AI174" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="AJ174" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="175" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C175" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E175" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>Q9BZZ5</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="J175" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="K175" s="1">
+        <v>4</v>
+      </c>
+      <c r="L175" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M175" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N175" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O175" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P175" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q175" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R175" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S175" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T175" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U175" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="V175" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>D</v>
+      </c>
+      <c r="W175" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>109</v>
+      </c>
+      <c r="X175" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y175" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z175" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA175" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB175" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC175" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD175" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE175" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF175" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG175" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH175" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>DILTQLLQTDDSAEFNLVNN</v>
+      </c>
+      <c r="AI175" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="AJ175" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="176" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C176" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="E176" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>Q9BQE5</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="J176" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="K176" s="1">
+        <v>4</v>
+      </c>
+      <c r="L176" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M176" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N176" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O176" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P176" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q176" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R176" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S176" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T176" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U176" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="V176" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>D</v>
+      </c>
+      <c r="W176" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>31</v>
+      </c>
+      <c r="X176" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y176" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z176" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA176" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB176" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC176" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD176" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE176" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF176" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG176" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH176" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>RENLLQLLTDDEAWNGFVAA</v>
+      </c>
+      <c r="AI176" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="AJ176" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="177" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C177" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="E177" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>Q6NXE6</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="J177" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="K177" s="1">
+        <v>4</v>
+      </c>
+      <c r="L177" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M177" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N177" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O177" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P177" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q177" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R177" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S177" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T177" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U177" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="V177" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>D</v>
+      </c>
+      <c r="W177" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>237</v>
+      </c>
+      <c r="X177" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y177" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z177" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA177" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB177" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC177" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD177" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE177" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF177" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG177" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH177" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>AITHHGHHTDVVREACWALR</v>
+      </c>
+      <c r="AI177" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="AJ177" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="178" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C178" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="E178" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>Q9UBL3</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="J178" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="K178" s="1">
+        <v>4</v>
+      </c>
+      <c r="L178" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M178" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N178" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O178" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P178" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q178" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R178" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S178" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T178" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U178" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="V178" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>D</v>
+      </c>
+      <c r="W178" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>596</v>
+      </c>
+      <c r="X178" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y178" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z178" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA178" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB178" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC178" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD178" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE178" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF178" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG178" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH178" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>KDLTYRPMSDMGWGAVVEHT</v>
+      </c>
+      <c r="AI178" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="AJ178" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="179" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C179" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E179" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>Q92484</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="J179" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="K179" s="1">
+        <v>4</v>
+      </c>
+      <c r="L179" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M179" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N179" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O179" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P179" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q179" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R179" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S179" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T179" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U179" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="V179" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>D</v>
+      </c>
+      <c r="W179" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>304</v>
+      </c>
+      <c r="X179" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y179" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z179" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA179" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB179" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC179" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD179" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE179" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF179" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG179" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH179" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>HRDSIMVSLDKKGSPVNSLF</v>
+      </c>
+      <c r="AI179" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="AJ179" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="180" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C180" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="E180" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>Q9UBB4</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="J180" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="K180" s="1">
+        <v>4</v>
+      </c>
+      <c r="L180" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M180" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N180" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O180" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P180" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q180" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R180" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S180" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="T180" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U180" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="V180" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>D</v>
+      </c>
+      <c r="W180" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>222</v>
+      </c>
+      <c r="X180" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y180" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z180" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA180" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB180" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC180" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD180" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE180" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF180" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG180" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH180" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>SEWPFLIITDLFLKSPELVQ</v>
+      </c>
+      <c r="AI180" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="AJ180" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="181" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C181" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D181" s="16" t="s">
+        <v>696</v>
+      </c>
+      <c r="E181" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>P55210</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="K181" s="1">
+        <v>4</v>
+      </c>
+      <c r="L181" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M181" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N181" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O181" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P181" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q181" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R181" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S181" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T181" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U181" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="V181" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>D</v>
+      </c>
+      <c r="W181" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>198</v>
+      </c>
+      <c r="X181" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y181" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z181" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA181" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB181" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC181" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD181" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE181" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF181" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG181" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH181" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>TELDDGIQADSGPINDTDAN</v>
+      </c>
+      <c r="AI181" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="AJ181" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="182" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C182" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="E182" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>P60953</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="K182" s="1">
+        <v>4</v>
+      </c>
+      <c r="L182" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M182" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N182" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O182" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P182" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q182" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R182" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S182" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T182" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U182" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="V182" s="1" t="str">
+        <f>LEFT(U182,1)</f>
+        <v>D</v>
+      </c>
+      <c r="W182" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>76</v>
+      </c>
+      <c r="X182" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y182" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z182" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA182" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB182" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC182" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD182" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE182" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF182" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG182" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH182" s="1" t="str">
+        <f>L182&amp;M182&amp;N182&amp;O182&amp;P182&amp;Q182&amp;R182&amp;S182&amp;T182&amp;V182&amp;X182&amp;Y182&amp;Z182&amp;AA182&amp;AB182&amp;AC182&amp;AD182&amp;AE182&amp;AF182&amp;AG182</f>
+        <v>LRPLSYPQTDVFLVCFSVVS</v>
+      </c>
+      <c r="AI182" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="AJ182" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="183" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="D183" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AK159">
@@ -20199,7 +22850,7 @@
   <dimension ref="A2:N59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20363,6 +23014,14 @@
       </c>
       <c r="C19" s="27"/>
       <c r="E19" s="21"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="35" t="s">
+        <v>740</v>
+      </c>
+      <c r="B20" t="s">
+        <v>741</v>
+      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="20"/>
